--- a/BackTest/2019-10-24 BackTest LINK.xlsx
+++ b/BackTest/2019-10-24 BackTest LINK.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>109</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-24.77064220183486</v>
+      </c>
       <c r="L12" t="n">
         <v>3056.4</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>120</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-31.09243697478992</v>
+      </c>
       <c r="L13" t="n">
         <v>3052.6</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>120</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-52.94117647058824</v>
+      </c>
       <c r="L14" t="n">
         <v>3048.9</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>120</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-46.66666666666666</v>
+      </c>
       <c r="L15" t="n">
         <v>3043.5</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>128</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-38.94736842105263</v>
+      </c>
       <c r="L16" t="n">
         <v>3040.1</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>131</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-20.98765432098765</v>
+      </c>
       <c r="L17" t="n">
         <v>3036.7</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>135</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-23.80952380952381</v>
+      </c>
       <c r="L18" t="n">
         <v>3034.6</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>146</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>43.33333333333334</v>
+      </c>
       <c r="L19" t="n">
         <v>3033.7</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>164</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>60.52631578947368</v>
+      </c>
       <c r="L20" t="n">
         <v>3038.1</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>180</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>12.67605633802817</v>
+      </c>
       <c r="L21" t="n">
         <v>3041.1</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>181</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>31.14754098360656</v>
+      </c>
       <c r="L22" t="n">
         <v>3041.9</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>186</v>
       </c>
       <c r="K23" t="n">
-        <v>-7.526881720430108</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L23" t="n">
         <v>3044.3</v>
@@ -1466,7 +1488,7 @@
         <v>200</v>
       </c>
       <c r="K24" t="n">
-        <v>-13.5678391959799</v>
+        <v>12.5</v>
       </c>
       <c r="L24" t="n">
         <v>3045.3</v>
@@ -1515,7 +1537,7 @@
         <v>202</v>
       </c>
       <c r="K25" t="n">
-        <v>-22.82608695652174</v>
+        <v>5.405405405405405</v>
       </c>
       <c r="L25" t="n">
         <v>3046.5</v>
@@ -1564,7 +1586,7 @@
         <v>220</v>
       </c>
       <c r="K26" t="n">
-        <v>-25.26315789473684</v>
+        <v>-19.10112359550562</v>
       </c>
       <c r="L26" t="n">
         <v>3045.1</v>
@@ -1613,7 +1635,7 @@
         <v>224</v>
       </c>
       <c r="K27" t="n">
-        <v>-28.79581151832461</v>
+        <v>-19.10112359550562</v>
       </c>
       <c r="L27" t="n">
         <v>3043</v>
@@ -1662,7 +1684,7 @@
         <v>224</v>
       </c>
       <c r="K28" t="n">
-        <v>-21.83908045977012</v>
+        <v>-35.8974358974359</v>
       </c>
       <c r="L28" t="n">
         <v>3041.3</v>
@@ -1711,7 +1733,7 @@
         <v>226</v>
       </c>
       <c r="K29" t="n">
-        <v>-22.28571428571428</v>
+        <v>-77.41935483870968</v>
       </c>
       <c r="L29" t="n">
         <v>3038.3</v>
@@ -1760,7 +1782,7 @@
         <v>226</v>
       </c>
       <c r="K30" t="n">
-        <v>-2.857142857142857</v>
+        <v>-69.56521739130434</v>
       </c>
       <c r="L30" t="n">
         <v>3033.5</v>
@@ -1809,7 +1831,7 @@
         <v>226</v>
       </c>
       <c r="K31" t="n">
-        <v>-1.449275362318841</v>
+        <v>-68.88888888888889</v>
       </c>
       <c r="L31" t="n">
         <v>3030.3</v>
@@ -1860,7 +1882,7 @@
         <v>228</v>
       </c>
       <c r="K32" t="n">
-        <v>-21.00840336134454</v>
+        <v>-90.47619047619048</v>
       </c>
       <c r="L32" t="n">
         <v>3027</v>
@@ -1911,7 +1933,7 @@
         <v>236</v>
       </c>
       <c r="K33" t="n">
-        <v>-18.96551724137931</v>
+        <v>-88.88888888888889</v>
       </c>
       <c r="L33" t="n">
         <v>3022.4</v>
@@ -1962,7 +1984,7 @@
         <v>237</v>
       </c>
       <c r="K34" t="n">
-        <v>-19.65811965811966</v>
+        <v>-100</v>
       </c>
       <c r="L34" t="n">
         <v>3019.1</v>
@@ -2013,7 +2035,7 @@
         <v>237</v>
       </c>
       <c r="K35" t="n">
-        <v>-19.65811965811966</v>
+        <v>-100</v>
       </c>
       <c r="L35" t="n">
         <v>3015.6</v>
@@ -2064,7 +2086,7 @@
         <v>237</v>
       </c>
       <c r="K36" t="n">
-        <v>-28.44036697247707</v>
+        <v>-100</v>
       </c>
       <c r="L36" t="n">
         <v>3013.9</v>
@@ -2115,7 +2137,7 @@
         <v>237</v>
       </c>
       <c r="K37" t="n">
-        <v>-32.0754716981132</v>
+        <v>-100</v>
       </c>
       <c r="L37" t="n">
         <v>3012.6</v>
@@ -2166,7 +2188,7 @@
         <v>237</v>
       </c>
       <c r="K38" t="n">
-        <v>-29.41176470588236</v>
+        <v>-100</v>
       </c>
       <c r="L38" t="n">
         <v>3011.3</v>
@@ -2217,7 +2239,7 @@
         <v>237</v>
       </c>
       <c r="K39" t="n">
-        <v>-45.05494505494506</v>
+        <v>-100</v>
       </c>
       <c r="L39" t="n">
         <v>3010.2</v>
@@ -2268,7 +2290,7 @@
         <v>238</v>
       </c>
       <c r="K40" t="n">
-        <v>-78.37837837837837</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L40" t="n">
         <v>3009.2</v>
@@ -2319,7 +2341,7 @@
         <v>246</v>
       </c>
       <c r="K41" t="n">
-        <v>-75.75757575757575</v>
+        <v>-88.88888888888889</v>
       </c>
       <c r="L41" t="n">
         <v>3007.4</v>
@@ -2370,7 +2392,7 @@
         <v>249</v>
       </c>
       <c r="K42" t="n">
-        <v>-67.64705882352942</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L42" t="n">
         <v>3006.1</v>
@@ -2421,7 +2443,7 @@
         <v>250</v>
       </c>
       <c r="K43" t="n">
-        <v>-81.25</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L43" t="n">
         <v>3005.5</v>
@@ -2472,7 +2494,7 @@
         <v>250</v>
       </c>
       <c r="K44" t="n">
-        <v>-76</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L44" t="n">
         <v>3005</v>
@@ -2523,7 +2545,7 @@
         <v>265</v>
       </c>
       <c r="K45" t="n">
-        <v>-39.68253968253968</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="L45" t="n">
         <v>3006</v>
@@ -2574,7 +2596,7 @@
         <v>266</v>
       </c>
       <c r="K46" t="n">
-        <v>-13.04347826086956</v>
+        <v>37.93103448275862</v>
       </c>
       <c r="L46" t="n">
         <v>3007.1</v>
@@ -2625,7 +2647,7 @@
         <v>277</v>
       </c>
       <c r="K47" t="n">
-        <v>-24.52830188679245</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>3007.1</v>
@@ -2676,7 +2698,7 @@
         <v>288</v>
       </c>
       <c r="K48" t="n">
-        <v>-3.125</v>
+        <v>21.56862745098039</v>
       </c>
       <c r="L48" t="n">
         <v>3008.2</v>
@@ -2727,7 +2749,7 @@
         <v>298</v>
       </c>
       <c r="K49" t="n">
-        <v>-13.88888888888889</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>3008.3</v>
@@ -2778,7 +2800,7 @@
         <v>308</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>29.03225806451613</v>
       </c>
       <c r="L50" t="n">
         <v>3009.3</v>
@@ -2829,7 +2851,7 @@
         <v>309</v>
       </c>
       <c r="K51" t="n">
-        <v>-1.204819277108434</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="L51" t="n">
         <v>3011</v>
@@ -2880,7 +2902,7 @@
         <v>312</v>
       </c>
       <c r="K52" t="n">
-        <v>4.761904761904762</v>
+        <v>29.03225806451613</v>
       </c>
       <c r="L52" t="n">
         <v>3012.7</v>
@@ -2931,7 +2953,7 @@
         <v>312</v>
       </c>
       <c r="K53" t="n">
-        <v>15.78947368421053</v>
+        <v>29.03225806451613</v>
       </c>
       <c r="L53" t="n">
         <v>3014.5</v>
@@ -2982,7 +3004,7 @@
         <v>327</v>
       </c>
       <c r="K54" t="n">
-        <v>31.11111111111111</v>
+        <v>29.03225806451613</v>
       </c>
       <c r="L54" t="n">
         <v>3017.8</v>
@@ -3033,7 +3055,7 @@
         <v>337</v>
       </c>
       <c r="K55" t="n">
-        <v>18</v>
+        <v>9.859154929577464</v>
       </c>
       <c r="L55" t="n">
         <v>3018.6</v>
@@ -3084,7 +3106,7 @@
         <v>346</v>
       </c>
       <c r="K56" t="n">
-        <v>24.77064220183486</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L56" t="n">
         <v>3020.2</v>
@@ -3135,7 +3157,7 @@
         <v>347</v>
       </c>
       <c r="K57" t="n">
-        <v>25.45454545454545</v>
+        <v>28.8135593220339</v>
       </c>
       <c r="L57" t="n">
         <v>3023</v>
@@ -3186,7 +3208,7 @@
         <v>349</v>
       </c>
       <c r="K58" t="n">
-        <v>26.78571428571428</v>
+        <v>56.86274509803921</v>
       </c>
       <c r="L58" t="n">
         <v>3024.9</v>
@@ -3237,7 +3259,7 @@
         <v>353</v>
       </c>
       <c r="K59" t="n">
-        <v>29.3103448275862</v>
+        <v>51.11111111111111</v>
       </c>
       <c r="L59" t="n">
         <v>3028.2</v>
@@ -3288,7 +3310,7 @@
         <v>365</v>
       </c>
       <c r="K60" t="n">
-        <v>16.53543307086614</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L60" t="n">
         <v>3029.3</v>
@@ -3339,7 +3361,7 @@
         <v>375</v>
       </c>
       <c r="K61" t="n">
-        <v>30.23255813953488</v>
+        <v>30.15873015873016</v>
       </c>
       <c r="L61" t="n">
         <v>3031.5</v>
@@ -3390,7 +3412,7 @@
         <v>385</v>
       </c>
       <c r="K62" t="n">
-        <v>19.11764705882353</v>
+        <v>12.32876712328767</v>
       </c>
       <c r="L62" t="n">
         <v>3032.4</v>
@@ -3441,7 +3463,7 @@
         <v>385</v>
       </c>
       <c r="K63" t="n">
-        <v>20</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L63" t="n">
         <v>3033.3</v>
@@ -3492,7 +3514,7 @@
         <v>389</v>
       </c>
       <c r="K64" t="n">
-        <v>16.54676258992806</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>3032.3</v>
@@ -3543,7 +3565,7 @@
         <v>394</v>
       </c>
       <c r="K65" t="n">
-        <v>2.325581395348837</v>
+        <v>-29.16666666666667</v>
       </c>
       <c r="L65" t="n">
         <v>3031.8</v>
@@ -3594,7 +3616,7 @@
         <v>406</v>
       </c>
       <c r="K66" t="n">
-        <v>-7.142857142857142</v>
+        <v>-45.76271186440678</v>
       </c>
       <c r="L66" t="n">
         <v>3029.2</v>
@@ -3645,7 +3667,7 @@
         <v>406</v>
       </c>
       <c r="K67" t="n">
-        <v>0.7751937984496124</v>
+        <v>-50.87719298245614</v>
       </c>
       <c r="L67" t="n">
         <v>3026.5</v>
@@ -3696,7 +3718,7 @@
         <v>407</v>
       </c>
       <c r="K68" t="n">
-        <v>-9.243697478991598</v>
+        <v>-62.96296296296296</v>
       </c>
       <c r="L68" t="n">
         <v>3023.5</v>
@@ -3747,7 +3769,7 @@
         <v>408</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>-48.83720930232558</v>
       </c>
       <c r="L69" t="n">
         <v>3020.2</v>
@@ -3798,7 +3820,7 @@
         <v>408</v>
       </c>
       <c r="K70" t="n">
-        <v>-10</v>
+        <v>-93.93939393939394</v>
       </c>
       <c r="L70" t="n">
         <v>3018.1</v>
@@ -3849,7 +3871,7 @@
         <v>409</v>
       </c>
       <c r="K71" t="n">
-        <v>-8</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L71" t="n">
         <v>3015.1</v>
@@ -3900,7 +3922,7 @@
         <v>409</v>
       </c>
       <c r="K72" t="n">
-        <v>-11.34020618556701</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L72" t="n">
         <v>3013.1</v>
@@ -3951,7 +3973,7 @@
         <v>414</v>
       </c>
       <c r="K73" t="n">
-        <v>-5.88235294117647</v>
+        <v>-44</v>
       </c>
       <c r="L73" t="n">
         <v>3011.6</v>
@@ -4002,7 +4024,7 @@
         <v>425</v>
       </c>
       <c r="K74" t="n">
-        <v>-10.20408163265306</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L74" t="n">
         <v>3011.6</v>
@@ -4053,7 +4075,7 @@
         <v>429</v>
       </c>
       <c r="K75" t="n">
-        <v>-4.347826086956522</v>
+        <v>56.52173913043478</v>
       </c>
       <c r="L75" t="n">
         <v>3011.7</v>
@@ -4104,7 +4126,7 @@
         <v>429</v>
       </c>
       <c r="K76" t="n">
-        <v>-15.66265060240964</v>
+        <v>56.52173913043478</v>
       </c>
       <c r="L76" t="n">
         <v>3013</v>
@@ -4155,7 +4177,7 @@
         <v>429</v>
       </c>
       <c r="K77" t="n">
-        <v>-17.07317073170732</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L77" t="n">
         <v>3014.3</v>
@@ -4206,7 +4228,7 @@
         <v>429</v>
       </c>
       <c r="K78" t="n">
-        <v>-20</v>
+        <v>61.90476190476191</v>
       </c>
       <c r="L78" t="n">
         <v>3015.7</v>
@@ -4257,7 +4279,7 @@
         <v>430</v>
       </c>
       <c r="K79" t="n">
-        <v>-27.27272727272727</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="L79" t="n">
         <v>3016.9</v>
@@ -4308,7 +4330,7 @@
         <v>439</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L80" t="n">
         <v>3019</v>
@@ -4359,7 +4381,7 @@
         <v>447</v>
       </c>
       <c r="K81" t="n">
-        <v>-25</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="L81" t="n">
         <v>3020.2</v>
@@ -4410,7 +4432,7 @@
         <v>448</v>
       </c>
       <c r="K82" t="n">
-        <v>-14.28571428571428</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L82" t="n">
         <v>3021.3</v>
@@ -4461,7 +4483,7 @@
         <v>451</v>
       </c>
       <c r="K83" t="n">
-        <v>-9.090909090909092</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L83" t="n">
         <v>3022.2</v>
@@ -4512,7 +4534,7 @@
         <v>454</v>
       </c>
       <c r="K84" t="n">
-        <v>-7.692307692307693</v>
+        <v>-4</v>
       </c>
       <c r="L84" t="n">
         <v>3021.7</v>
@@ -4563,7 +4585,7 @@
         <v>459</v>
       </c>
       <c r="K85" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L85" t="n">
         <v>3021.1</v>
@@ -4614,7 +4636,7 @@
         <v>469</v>
       </c>
       <c r="K86" t="n">
-        <v>26.98412698412698</v>
+        <v>10</v>
       </c>
       <c r="L86" t="n">
         <v>3021.5</v>
@@ -4665,7 +4687,7 @@
         <v>478</v>
       </c>
       <c r="K87" t="n">
-        <v>11.11111111111111</v>
+        <v>-10.20408163265306</v>
       </c>
       <c r="L87" t="n">
         <v>3021</v>
@@ -4716,7 +4738,7 @@
         <v>485</v>
       </c>
       <c r="K88" t="n">
-        <v>20.51282051282051</v>
+        <v>5.454545454545454</v>
       </c>
       <c r="L88" t="n">
         <v>3021.2</v>
@@ -4767,7 +4789,7 @@
         <v>516</v>
       </c>
       <c r="K89" t="n">
-        <v>42.5925925925926</v>
+        <v>32.46753246753246</v>
       </c>
       <c r="L89" t="n">
         <v>3024.6</v>
@@ -4818,7 +4840,7 @@
         <v>522</v>
       </c>
       <c r="K90" t="n">
-        <v>45.61403508771929</v>
+        <v>52</v>
       </c>
       <c r="L90" t="n">
         <v>3027.7</v>
@@ -4869,7 +4891,7 @@
         <v>530</v>
       </c>
       <c r="K91" t="n">
-        <v>48.7603305785124</v>
+        <v>58.53658536585365</v>
       </c>
       <c r="L91" t="n">
         <v>3032.4</v>
@@ -4920,7 +4942,7 @@
         <v>538</v>
       </c>
       <c r="K92" t="n">
-        <v>39.53488372093023</v>
+        <v>42.5287356321839</v>
       </c>
       <c r="L92" t="n">
         <v>3036.4</v>
@@ -4971,7 +4993,7 @@
         <v>546</v>
       </c>
       <c r="K93" t="n">
-        <v>40.90909090909091</v>
+        <v>52.17391304347826</v>
       </c>
       <c r="L93" t="n">
         <v>3040.9</v>
@@ -5022,7 +5044,7 @@
         <v>550</v>
       </c>
       <c r="K94" t="n">
-        <v>31.2</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L94" t="n">
         <v>3045.3</v>
@@ -5073,7 +5095,7 @@
         <v>553</v>
       </c>
       <c r="K95" t="n">
-        <v>37.09677419354838</v>
+        <v>50</v>
       </c>
       <c r="L95" t="n">
         <v>3050.5</v>
@@ -5124,7 +5146,7 @@
         <v>559</v>
       </c>
       <c r="K96" t="n">
-        <v>40</v>
+        <v>70.37037037037037</v>
       </c>
       <c r="L96" t="n">
         <v>3055.3</v>
@@ -5175,7 +5197,7 @@
         <v>562</v>
       </c>
       <c r="K97" t="n">
-        <v>36.84210526315789</v>
+        <v>61.03896103896103</v>
       </c>
       <c r="L97" t="n">
         <v>3060.7</v>
@@ -5226,7 +5248,7 @@
         <v>566</v>
       </c>
       <c r="K98" t="n">
-        <v>38.68613138686132</v>
+        <v>40</v>
       </c>
       <c r="L98" t="n">
         <v>3065.8</v>
@@ -5277,7 +5299,7 @@
         <v>578</v>
       </c>
       <c r="K99" t="n">
-        <v>44.5945945945946</v>
+        <v>46.42857142857143</v>
       </c>
       <c r="L99" t="n">
         <v>3069</v>
@@ -5328,7 +5350,7 @@
         <v>579</v>
       </c>
       <c r="K100" t="n">
-        <v>40</v>
+        <v>34.69387755102041</v>
       </c>
       <c r="L100" t="n">
         <v>3071.5</v>
@@ -5379,7 +5401,7 @@
         <v>581</v>
       </c>
       <c r="K101" t="n">
-        <v>46.26865671641791</v>
+        <v>53.48837209302325</v>
       </c>
       <c r="L101" t="n">
         <v>3073</v>
@@ -5430,7 +5452,7 @@
         <v>590</v>
       </c>
       <c r="K102" t="n">
-        <v>50.70422535211267</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="L102" t="n">
         <v>3076.2</v>
@@ -5481,7 +5503,7 @@
         <v>601</v>
       </c>
       <c r="K103" t="n">
-        <v>38.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L103" t="n">
         <v>3077.5</v>
@@ -5532,7 +5554,7 @@
         <v>604</v>
       </c>
       <c r="K104" t="n">
-        <v>42.66666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L104" t="n">
         <v>3079.5</v>
@@ -5583,7 +5605,7 @@
         <v>607</v>
       </c>
       <c r="K105" t="n">
-        <v>44.5945945945946</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L105" t="n">
         <v>3080.9</v>
@@ -5634,7 +5656,7 @@
         <v>607</v>
       </c>
       <c r="K106" t="n">
-        <v>40.57971014492754</v>
+        <v>24.44444444444444</v>
       </c>
       <c r="L106" t="n">
         <v>3081.7</v>
@@ -5685,7 +5707,7 @@
         <v>608</v>
       </c>
       <c r="K107" t="n">
-        <v>50.76923076923077</v>
+        <v>19.04761904761905</v>
       </c>
       <c r="L107" t="n">
         <v>3082.9</v>
@@ -5736,7 +5758,7 @@
         <v>613</v>
       </c>
       <c r="K108" t="n">
-        <v>50</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="L108" t="n">
         <v>3084.2</v>
@@ -5787,7 +5809,7 @@
         <v>618</v>
       </c>
       <c r="K109" t="n">
-        <v>27.45098039215686</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L109" t="n">
         <v>3083.8</v>
@@ -5838,7 +5860,7 @@
         <v>618</v>
       </c>
       <c r="K110" t="n">
-        <v>22.91666666666666</v>
+        <v>-2.702702702702703</v>
       </c>
       <c r="L110" t="n">
         <v>3083.5</v>
@@ -5889,7 +5911,7 @@
         <v>618</v>
       </c>
       <c r="K111" t="n">
-        <v>15.90909090909091</v>
+        <v>-35.71428571428572</v>
       </c>
       <c r="L111" t="n">
         <v>3083.4</v>
@@ -5940,7 +5962,7 @@
         <v>634</v>
       </c>
       <c r="K112" t="n">
-        <v>39.58333333333333</v>
+        <v>51.51515151515152</v>
       </c>
       <c r="L112" t="n">
         <v>3084</v>
@@ -5991,7 +6013,7 @@
         <v>635</v>
       </c>
       <c r="K113" t="n">
-        <v>34.83146067415731</v>
+        <v>48.38709677419355</v>
       </c>
       <c r="L113" t="n">
         <v>3085.8</v>
@@ -6042,7 +6064,7 @@
         <v>635</v>
       </c>
       <c r="K114" t="n">
-        <v>41.17647058823529</v>
+        <v>64.28571428571429</v>
       </c>
       <c r="L114" t="n">
         <v>3087.3</v>
@@ -6093,7 +6115,7 @@
         <v>650</v>
       </c>
       <c r="K115" t="n">
-        <v>17.52577319587629</v>
+        <v>6.976744186046512</v>
       </c>
       <c r="L115" t="n">
         <v>3087.6</v>
@@ -6144,7 +6166,7 @@
         <v>654</v>
       </c>
       <c r="K116" t="n">
-        <v>7.368421052631578</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L116" t="n">
         <v>3087.5</v>
@@ -6195,7 +6217,7 @@
         <v>655</v>
       </c>
       <c r="K117" t="n">
-        <v>11.82795698924731</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L117" t="n">
         <v>3087.4</v>
@@ -6246,7 +6268,7 @@
         <v>655</v>
       </c>
       <c r="K118" t="n">
-        <v>7.865168539325842</v>
+        <v>-2.702702702702703</v>
       </c>
       <c r="L118" t="n">
         <v>3086.8</v>
@@ -6297,7 +6319,7 @@
         <v>665</v>
       </c>
       <c r="K119" t="n">
-        <v>5.747126436781609</v>
+        <v>19.14893617021277</v>
       </c>
       <c r="L119" t="n">
         <v>3087.7</v>
@@ -6348,7 +6370,7 @@
         <v>670</v>
       </c>
       <c r="K120" t="n">
-        <v>12.08791208791209</v>
+        <v>26.92307692307692</v>
       </c>
       <c r="L120" t="n">
         <v>3089.1</v>
@@ -6399,7 +6421,7 @@
         <v>672</v>
       </c>
       <c r="K121" t="n">
-        <v>16.48351648351648</v>
+        <v>0</v>
       </c>
       <c r="L121" t="n">
         <v>3090.7</v>
@@ -6450,7 +6472,7 @@
         <v>681</v>
       </c>
       <c r="K122" t="n">
-        <v>16.48351648351648</v>
+        <v>17.39130434782609</v>
       </c>
       <c r="L122" t="n">
         <v>3091.6</v>
@@ -6501,7 +6523,7 @@
         <v>683</v>
       </c>
       <c r="K123" t="n">
-        <v>29.26829268292683</v>
+        <v>12.5</v>
       </c>
       <c r="L123" t="n">
         <v>3092.2</v>
@@ -6552,7 +6574,7 @@
         <v>700</v>
       </c>
       <c r="K124" t="n">
-        <v>39.58333333333333</v>
+        <v>76</v>
       </c>
       <c r="L124" t="n">
         <v>3094.5</v>
@@ -6603,7 +6625,7 @@
         <v>703</v>
       </c>
       <c r="K125" t="n">
-        <v>45.83333333333333</v>
+        <v>91.83673469387756</v>
       </c>
       <c r="L125" t="n">
         <v>3098.6</v>
@@ -6654,7 +6676,7 @@
         <v>703</v>
       </c>
       <c r="K126" t="n">
-        <v>45.83333333333333</v>
+        <v>91.66666666666666</v>
       </c>
       <c r="L126" t="n">
         <v>3103.1</v>
@@ -6705,7 +6727,7 @@
         <v>706</v>
       </c>
       <c r="K127" t="n">
-        <v>40.81632653061224</v>
+        <v>80.3921568627451</v>
       </c>
       <c r="L127" t="n">
         <v>3107.2</v>
@@ -6756,7 +6778,7 @@
         <v>709</v>
       </c>
       <c r="K128" t="n">
-        <v>33.33333333333333</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L128" t="n">
         <v>3111</v>
@@ -6807,7 +6829,7 @@
         <v>715</v>
       </c>
       <c r="K129" t="n">
-        <v>31.95876288659793</v>
+        <v>37.77777777777778</v>
       </c>
       <c r="L129" t="n">
         <v>3113.2</v>
@@ -6858,7 +6880,7 @@
         <v>723</v>
       </c>
       <c r="K130" t="n">
-        <v>37.14285714285715</v>
+        <v>45.09803921568628</v>
       </c>
       <c r="L130" t="n">
         <v>3115.7</v>
@@ -6909,7 +6931,7 @@
         <v>740</v>
       </c>
       <c r="K131" t="n">
-        <v>18.0327868852459</v>
+        <v>-5.084745762711865</v>
       </c>
       <c r="L131" t="n">
         <v>3116.3</v>
@@ -6960,7 +6982,7 @@
         <v>740</v>
       </c>
       <c r="K132" t="n">
-        <v>5.660377358490567</v>
+        <v>-1.754385964912281</v>
       </c>
       <c r="L132" t="n">
         <v>3116</v>
@@ -7011,7 +7033,7 @@
         <v>740</v>
       </c>
       <c r="K133" t="n">
-        <v>4.761904761904762</v>
+        <v>-45</v>
       </c>
       <c r="L133" t="n">
         <v>3115.9</v>
@@ -7062,7 +7084,7 @@
         <v>778</v>
       </c>
       <c r="K134" t="n">
-        <v>30.06993006993007</v>
+        <v>22.66666666666666</v>
       </c>
       <c r="L134" t="n">
         <v>3117.9</v>
@@ -7113,7 +7135,7 @@
         <v>785</v>
       </c>
       <c r="K135" t="n">
-        <v>37.77777777777778</v>
+        <v>12.19512195121951</v>
       </c>
       <c r="L135" t="n">
         <v>3118.9</v>
@@ -7164,7 +7186,7 @@
         <v>800</v>
       </c>
       <c r="K136" t="n">
-        <v>47.94520547945205</v>
+        <v>29.78723404255319</v>
       </c>
       <c r="L136" t="n">
         <v>3121.4</v>
@@ -7215,7 +7237,7 @@
         <v>803</v>
       </c>
       <c r="K137" t="n">
-        <v>48.64864864864865</v>
+        <v>36.17021276595745</v>
       </c>
       <c r="L137" t="n">
         <v>3124.5</v>
@@ -7266,7 +7288,7 @@
         <v>803</v>
       </c>
       <c r="K138" t="n">
-        <v>48.64864864864865</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L138" t="n">
         <v>3127.9</v>
@@ -7317,7 +7339,7 @@
         <v>806</v>
       </c>
       <c r="K139" t="n">
-        <v>46.09929078014184</v>
+        <v>42.16867469879519</v>
       </c>
       <c r="L139" t="n">
         <v>3132.2</v>
@@ -7368,7 +7390,7 @@
         <v>808</v>
       </c>
       <c r="K140" t="n">
-        <v>44.92753623188405</v>
+        <v>79.41176470588235</v>
       </c>
       <c r="L140" t="n">
         <v>3135.9</v>
@@ -7419,7 +7441,7 @@
         <v>811</v>
       </c>
       <c r="K141" t="n">
-        <v>41.00719424460431</v>
+        <v>71.83098591549296</v>
       </c>
       <c r="L141" t="n">
         <v>3141</v>
@@ -7470,7 +7492,7 @@
         <v>816</v>
       </c>
       <c r="K142" t="n">
-        <v>39.25925925925926</v>
+        <v>73.68421052631578</v>
       </c>
       <c r="L142" t="n">
         <v>3146.6</v>
@@ -7521,7 +7543,7 @@
         <v>825</v>
       </c>
       <c r="K143" t="n">
-        <v>32.3943661971831</v>
+        <v>19.14893617021277</v>
       </c>
       <c r="L143" t="n">
         <v>3151.3</v>
@@ -7572,7 +7594,7 @@
         <v>834</v>
       </c>
       <c r="K144" t="n">
-        <v>28.35820895522388</v>
+        <v>51.02040816326531</v>
       </c>
       <c r="L144" t="n">
         <v>3153.1</v>
@@ -7623,7 +7645,7 @@
         <v>839</v>
       </c>
       <c r="K145" t="n">
-        <v>22.05882352941176</v>
+        <v>12.82051282051282</v>
       </c>
       <c r="L145" t="n">
         <v>3155.1</v>
@@ -7674,7 +7696,7 @@
         <v>854</v>
       </c>
       <c r="K146" t="n">
-        <v>29.80132450331126</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L146" t="n">
         <v>3157.1</v>
@@ -7725,7 +7747,7 @@
         <v>859</v>
       </c>
       <c r="K147" t="n">
-        <v>34.64052287581699</v>
+        <v>39.28571428571428</v>
       </c>
       <c r="L147" t="n">
         <v>3159.3</v>
@@ -7776,7 +7798,7 @@
         <v>860</v>
       </c>
       <c r="K148" t="n">
-        <v>36.42384105960264</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L148" t="n">
         <v>3161.4</v>
@@ -7827,7 +7849,7 @@
         <v>860</v>
       </c>
       <c r="K149" t="n">
-        <v>42.06896551724138</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="L149" t="n">
         <v>3163.2</v>
@@ -7878,7 +7900,7 @@
         <v>860</v>
       </c>
       <c r="K150" t="n">
-        <v>38.68613138686132</v>
+        <v>38.77551020408163</v>
       </c>
       <c r="L150" t="n">
         <v>3164.8</v>
@@ -7929,7 +7951,7 @@
         <v>869</v>
       </c>
       <c r="K151" t="n">
-        <v>61.24031007751937</v>
+        <v>43.39622641509434</v>
       </c>
       <c r="L151" t="n">
         <v>3167.6</v>
@@ -7980,7 +8002,7 @@
         <v>871</v>
       </c>
       <c r="K152" t="n">
-        <v>61.83206106870229</v>
+        <v>73.91304347826086</v>
       </c>
       <c r="L152" t="n">
         <v>3170.1</v>
@@ -8031,7 +8053,7 @@
         <v>878</v>
       </c>
       <c r="K153" t="n">
-        <v>63.76811594202898</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="L153" t="n">
         <v>3174.2</v>
@@ -8082,7 +8104,7 @@
         <v>886</v>
       </c>
       <c r="K154" t="n">
-        <v>53.70370370370371</v>
+        <v>95.74468085106383</v>
       </c>
       <c r="L154" t="n">
         <v>3178.2</v>
@@ -8133,7 +8155,7 @@
         <v>898</v>
       </c>
       <c r="K155" t="n">
-        <v>46.90265486725664</v>
+        <v>40.90909090909091</v>
       </c>
       <c r="L155" t="n">
         <v>3181.5</v>
@@ -8184,7 +8206,7 @@
         <v>914</v>
       </c>
       <c r="K156" t="n">
-        <v>19.29824561403509</v>
+        <v>-5.454545454545454</v>
       </c>
       <c r="L156" t="n">
         <v>3181.7</v>
@@ -8235,7 +8257,7 @@
         <v>915</v>
       </c>
       <c r="K157" t="n">
-        <v>16.07142857142857</v>
+        <v>-5.454545454545454</v>
       </c>
       <c r="L157" t="n">
         <v>3181.3</v>
@@ -8286,7 +8308,7 @@
         <v>928</v>
       </c>
       <c r="K158" t="n">
-        <v>4</v>
+        <v>-23.52941176470588</v>
       </c>
       <c r="L158" t="n">
         <v>3179.7</v>
@@ -8337,7 +8359,7 @@
         <v>932</v>
       </c>
       <c r="K159" t="n">
-        <v>-1.587301587301587</v>
+        <v>-27.77777777777778</v>
       </c>
       <c r="L159" t="n">
         <v>3177.7</v>
@@ -8388,7 +8410,7 @@
         <v>934</v>
       </c>
       <c r="K160" t="n">
-        <v>-4.761904761904762</v>
+        <v>-47.69230769230769</v>
       </c>
       <c r="L160" t="n">
         <v>3175.5</v>
@@ -8439,7 +8461,7 @@
         <v>935</v>
       </c>
       <c r="K161" t="n">
-        <v>-3.225806451612903</v>
+        <v>-53.125</v>
       </c>
       <c r="L161" t="n">
         <v>3172.3</v>
@@ -8490,7 +8512,7 @@
         <v>935</v>
       </c>
       <c r="K162" t="n">
-        <v>-7.563025210084033</v>
+        <v>-71.92982456140351</v>
       </c>
       <c r="L162" t="n">
         <v>3168.9</v>
@@ -8541,7 +8563,7 @@
         <v>935</v>
       </c>
       <c r="K163" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L163" t="n">
         <v>3164.8</v>
@@ -8592,7 +8614,7 @@
         <v>953</v>
       </c>
       <c r="K164" t="n">
-        <v>7.563025210084033</v>
+        <v>-34.54545454545455</v>
       </c>
       <c r="L164" t="n">
         <v>3161.7</v>
@@ -8643,7 +8665,7 @@
         <v>962</v>
       </c>
       <c r="K165" t="n">
-        <v>18.69918699186992</v>
+        <v>12.5</v>
       </c>
       <c r="L165" t="n">
         <v>3160.7</v>
@@ -8694,7 +8716,7 @@
         <v>964</v>
       </c>
       <c r="K166" t="n">
-        <v>9.090909090909092</v>
+        <v>18.36734693877551</v>
       </c>
       <c r="L166" t="n">
         <v>3161.5</v>
@@ -8745,7 +8767,7 @@
         <v>969</v>
       </c>
       <c r="K167" t="n">
-        <v>9.090909090909092</v>
+        <v>65.85365853658537</v>
       </c>
       <c r="L167" t="n">
         <v>3162.9</v>
@@ -8796,7 +8818,7 @@
         <v>973</v>
       </c>
       <c r="K168" t="n">
-        <v>6.194690265486726</v>
+        <v>65.85365853658537</v>
       </c>
       <c r="L168" t="n">
         <v>3165.2</v>
@@ -8847,7 +8869,7 @@
         <v>976</v>
       </c>
       <c r="K169" t="n">
-        <v>3.448275862068965</v>
+        <v>61.90476190476191</v>
       </c>
       <c r="L169" t="n">
         <v>3167.6</v>
@@ -8898,7 +8920,7 @@
         <v>976</v>
       </c>
       <c r="K170" t="n">
-        <v>3.448275862068965</v>
+        <v>65.85365853658537</v>
       </c>
       <c r="L170" t="n">
         <v>3170.2</v>
@@ -8949,7 +8971,7 @@
         <v>983</v>
       </c>
       <c r="K171" t="n">
-        <v>-10.52631578947368</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L171" t="n">
         <v>3172.2</v>
@@ -9000,7 +9022,7 @@
         <v>983</v>
       </c>
       <c r="K172" t="n">
-        <v>-12.5</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L172" t="n">
         <v>3174.2</v>
@@ -9051,7 +9073,7 @@
         <v>991</v>
       </c>
       <c r="K173" t="n">
-        <v>-25.66371681415929</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L173" t="n">
         <v>3175.4</v>
@@ -9102,7 +9124,7 @@
         <v>1001</v>
       </c>
       <c r="K174" t="n">
-        <v>-23.47826086956522</v>
+        <v>-12.82051282051282</v>
       </c>
       <c r="L174" t="n">
         <v>3175.8</v>
@@ -9153,7 +9175,7 @@
         <v>1007</v>
       </c>
       <c r="K175" t="n">
-        <v>-19.26605504587156</v>
+        <v>-30.23255813953488</v>
       </c>
       <c r="L175" t="n">
         <v>3174.7</v>
@@ -9204,7 +9226,7 @@
         <v>1023</v>
       </c>
       <c r="K176" t="n">
-        <v>-19.26605504587156</v>
+        <v>-62.96296296296296</v>
       </c>
       <c r="L176" t="n">
         <v>3171.8</v>
@@ -9255,7 +9277,7 @@
         <v>1029</v>
       </c>
       <c r="K177" t="n">
-        <v>-12.28070175438596</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L177" t="n">
         <v>3169</v>
@@ -9306,7 +9328,7 @@
         <v>1042</v>
       </c>
       <c r="K178" t="n">
-        <v>-12.28070175438596</v>
+        <v>-51.51515151515152</v>
       </c>
       <c r="L178" t="n">
         <v>3165.3</v>
@@ -9357,7 +9379,7 @@
         <v>1060</v>
       </c>
       <c r="K179" t="n">
-        <v>6.25</v>
+        <v>-19.04761904761905</v>
       </c>
       <c r="L179" t="n">
         <v>3163.7</v>
@@ -9408,7 +9430,7 @@
         <v>1066</v>
       </c>
       <c r="K180" t="n">
-        <v>3.03030303030303</v>
+        <v>-18.07228915662651</v>
       </c>
       <c r="L180" t="n">
         <v>3161.5</v>
@@ -9459,7 +9481,7 @@
         <v>1078</v>
       </c>
       <c r="K181" t="n">
-        <v>-4.895104895104895</v>
+        <v>-28.42105263157895</v>
       </c>
       <c r="L181" t="n">
         <v>3158.8</v>
@@ -9510,7 +9532,7 @@
         <v>1083</v>
       </c>
       <c r="K182" t="n">
-        <v>-8.108108108108109</v>
+        <v>-26.08695652173913</v>
       </c>
       <c r="L182" t="n">
         <v>3155.6</v>
@@ -9561,7 +9583,7 @@
         <v>1084</v>
       </c>
       <c r="K183" t="n">
-        <v>-8.724832214765101</v>
+        <v>-42.16867469879519</v>
       </c>
       <c r="L183" t="n">
         <v>3153.1</v>
@@ -9612,7 +9634,7 @@
         <v>1084</v>
       </c>
       <c r="K184" t="n">
-        <v>-23.66412213740458</v>
+        <v>-37.66233766233766</v>
       </c>
       <c r="L184" t="n">
         <v>3149.6</v>
@@ -9663,7 +9685,7 @@
         <v>1091</v>
       </c>
       <c r="K185" t="n">
-        <v>-36.43410852713178</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L185" t="n">
         <v>3146</v>
@@ -9714,7 +9736,7 @@
         <v>1096</v>
       </c>
       <c r="K186" t="n">
-        <v>-33.33333333333333</v>
+        <v>-31.34328358208955</v>
       </c>
       <c r="L186" t="n">
         <v>3144.5</v>
@@ -9765,7 +9787,7 @@
         <v>1120</v>
       </c>
       <c r="K187" t="n">
-        <v>-48.34437086092716</v>
+        <v>-41.02564102564102</v>
       </c>
       <c r="L187" t="n">
         <v>3140</v>
@@ -9816,7 +9838,7 @@
         <v>1131</v>
       </c>
       <c r="K188" t="n">
-        <v>-36.70886075949367</v>
+        <v>-54.92957746478874</v>
       </c>
       <c r="L188" t="n">
         <v>3137.9</v>
@@ -9867,7 +9889,7 @@
         <v>1149</v>
       </c>
       <c r="K189" t="n">
-        <v>-21.38728323699422</v>
+        <v>-18.07228915662651</v>
       </c>
       <c r="L189" t="n">
         <v>3135.8</v>
@@ -9918,7 +9940,7 @@
         <v>1150</v>
       </c>
       <c r="K190" t="n">
-        <v>-21.83908045977012</v>
+        <v>-5.555555555555555</v>
       </c>
       <c r="L190" t="n">
         <v>3134.2</v>
@@ -9969,7 +9991,7 @@
         <v>1152</v>
       </c>
       <c r="K191" t="n">
-        <v>-17.15976331360947</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L191" t="n">
         <v>3134</v>
@@ -10020,7 +10042,7 @@
         <v>1152</v>
       </c>
       <c r="K192" t="n">
-        <v>-17.15976331360947</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L192" t="n">
         <v>3134.3</v>
@@ -10071,7 +10093,7 @@
         <v>1156</v>
       </c>
       <c r="K193" t="n">
-        <v>-10.3030303030303</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L193" t="n">
         <v>3135.1</v>
@@ -10122,7 +10144,7 @@
         <v>1168</v>
       </c>
       <c r="K194" t="n">
-        <v>-23.35329341317365</v>
+        <v>3.896103896103896</v>
       </c>
       <c r="L194" t="n">
         <v>3134.7</v>
@@ -10173,7 +10195,7 @@
         <v>1168</v>
       </c>
       <c r="K195" t="n">
-        <v>-20.49689440993789</v>
+        <v>-2.777777777777778</v>
       </c>
       <c r="L195" t="n">
         <v>3135</v>
@@ -10224,7 +10246,7 @@
         <v>1174</v>
       </c>
       <c r="K196" t="n">
-        <v>-7.28476821192053</v>
+        <v>51.85185185185185</v>
       </c>
       <c r="L196" t="n">
         <v>3135.4</v>
@@ -10275,7 +10297,7 @@
         <v>1185</v>
       </c>
       <c r="K197" t="n">
-        <v>-17.94871794871795</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L197" t="n">
         <v>3137.1</v>
@@ -10326,7 +10348,7 @@
         <v>1185</v>
       </c>
       <c r="K198" t="n">
-        <v>-10.48951048951049</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L198" t="n">
         <v>3137.7</v>
@@ -10377,7 +10399,7 @@
         <v>1185</v>
       </c>
       <c r="K199" t="n">
-        <v>-26.4</v>
+        <v>-31.42857142857143</v>
       </c>
       <c r="L199" t="n">
         <v>3136.5</v>
@@ -10428,7 +10450,7 @@
         <v>1185</v>
       </c>
       <c r="K200" t="n">
-        <v>-22.6890756302521</v>
+        <v>-39.39393939393939</v>
       </c>
       <c r="L200" t="n">
         <v>3135.4</v>
@@ -10479,7 +10501,7 @@
         <v>1185</v>
       </c>
       <c r="K201" t="n">
-        <v>-14.01869158878505</v>
+        <v>-39.39393939393939</v>
       </c>
       <c r="L201" t="n">
         <v>3134.1</v>
@@ -10530,7 +10552,7 @@
         <v>1193</v>
       </c>
       <c r="K202" t="n">
-        <v>-1.818181818181818</v>
+        <v>-24.32432432432433</v>
       </c>
       <c r="L202" t="n">
         <v>3133.6</v>
@@ -10581,7 +10603,7 @@
         <v>1205</v>
       </c>
       <c r="K203" t="n">
-        <v>-10.74380165289256</v>
+        <v>-24.32432432432433</v>
       </c>
       <c r="L203" t="n">
         <v>3131.5</v>
@@ -10632,7 +10654,7 @@
         <v>1220</v>
       </c>
       <c r="K204" t="n">
-        <v>1.470588235294118</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="L204" t="n">
         <v>3132.1</v>
@@ -10683,7 +10705,7 @@
         <v>1232</v>
       </c>
       <c r="K205" t="n">
-        <v>-2.127659574468085</v>
+        <v>-20.68965517241379</v>
       </c>
       <c r="L205" t="n">
         <v>3131.5</v>
@@ -10734,7 +10756,7 @@
         <v>1244</v>
       </c>
       <c r="K206" t="n">
-        <v>2.702702702702703</v>
+        <v>18.64406779661017</v>
       </c>
       <c r="L206" t="n">
         <v>3131.5</v>
@@ -10836,7 +10858,7 @@
         <v>1258</v>
       </c>
       <c r="K208" t="n">
-        <v>24.40944881889764</v>
+        <v>34.24657534246575</v>
       </c>
       <c r="L208" t="n">
         <v>3135.7</v>
@@ -10887,7 +10909,7 @@
         <v>1263</v>
       </c>
       <c r="K209" t="n">
-        <v>7.017543859649122</v>
+        <v>25.64102564102564</v>
       </c>
       <c r="L209" t="n">
         <v>3137.7</v>
@@ -10938,7 +10960,7 @@
         <v>1264</v>
       </c>
       <c r="K210" t="n">
-        <v>7.017543859649122</v>
+        <v>24.05063291139241</v>
       </c>
       <c r="L210" t="n">
         <v>3139.6</v>
@@ -10989,7 +11011,7 @@
         <v>1276</v>
       </c>
       <c r="K211" t="n">
-        <v>14.51612903225807</v>
+        <v>27.71084337349398</v>
       </c>
       <c r="L211" t="n">
         <v>3142.7</v>
@@ -11040,7 +11062,7 @@
         <v>1281</v>
       </c>
       <c r="K212" t="n">
-        <v>10.07751937984496</v>
+        <v>39.47368421052632</v>
       </c>
       <c r="L212" t="n">
         <v>3144.5</v>
@@ -11091,7 +11113,7 @@
         <v>1283</v>
       </c>
       <c r="K213" t="n">
-        <v>5.511811023622047</v>
+        <v>20.63492063492063</v>
       </c>
       <c r="L213" t="n">
         <v>3147.3</v>
@@ -11142,7 +11164,7 @@
         <v>1286</v>
       </c>
       <c r="K214" t="n">
-        <v>13.5593220338983</v>
+        <v>40.74074074074074</v>
       </c>
       <c r="L214" t="n">
         <v>3148.3</v>
@@ -11193,7 +11215,7 @@
         <v>1286</v>
       </c>
       <c r="K215" t="n">
-        <v>13.5593220338983</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L215" t="n">
         <v>3150.5</v>
@@ -11244,7 +11266,7 @@
         <v>1286</v>
       </c>
       <c r="K216" t="n">
-        <v>8.928571428571429</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L216" t="n">
         <v>3151.5</v>
@@ -11295,7 +11317,7 @@
         <v>1295</v>
       </c>
       <c r="K217" t="n">
-        <v>10.90909090909091</v>
+        <v>-35.13513513513514</v>
       </c>
       <c r="L217" t="n">
         <v>3151</v>
@@ -11346,7 +11368,7 @@
         <v>1307</v>
       </c>
       <c r="K218" t="n">
-        <v>19.67213114754098</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L218" t="n">
         <v>3150.9</v>
@@ -11397,7 +11419,7 @@
         <v>1318</v>
       </c>
       <c r="K219" t="n">
-        <v>9.774436090225564</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L219" t="n">
         <v>3150.2</v>
@@ -11448,7 +11470,7 @@
         <v>1320</v>
       </c>
       <c r="K220" t="n">
-        <v>8.148148148148149</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L220" t="n">
         <v>3149.4</v>
@@ -11499,7 +11521,7 @@
         <v>1331</v>
       </c>
       <c r="K221" t="n">
-        <v>0</v>
+        <v>-52</v>
       </c>
       <c r="L221" t="n">
         <v>3146.3</v>
@@ -11550,7 +11572,7 @@
         <v>1332</v>
       </c>
       <c r="K222" t="n">
-        <v>-6.474820143884892</v>
+        <v>-51.02040816326531</v>
       </c>
       <c r="L222" t="n">
         <v>3143.6</v>
@@ -11601,7 +11623,7 @@
         <v>1335</v>
       </c>
       <c r="K223" t="n">
-        <v>0</v>
+        <v>-51.02040816326531</v>
       </c>
       <c r="L223" t="n">
         <v>3140.8</v>
@@ -11652,7 +11674,7 @@
         <v>1345</v>
       </c>
       <c r="K224" t="n">
-        <v>-4</v>
+        <v>-25.42372881355932</v>
       </c>
       <c r="L224" t="n">
         <v>3139.3</v>
@@ -11703,7 +11725,7 @@
         <v>1360</v>
       </c>
       <c r="K225" t="n">
-        <v>-6.25</v>
+        <v>-40.54054054054054</v>
       </c>
       <c r="L225" t="n">
         <v>3136.3</v>
@@ -11754,7 +11776,7 @@
         <v>1362</v>
       </c>
       <c r="K226" t="n">
-        <v>-15.25423728813559</v>
+        <v>-28.35820895522388</v>
       </c>
       <c r="L226" t="n">
         <v>3133.5</v>
@@ -11805,7 +11827,7 @@
         <v>1366</v>
       </c>
       <c r="K227" t="n">
-        <v>-24.13793103448276</v>
+        <v>-59.32203389830508</v>
       </c>
       <c r="L227" t="n">
         <v>3131.2</v>
@@ -11856,7 +11878,7 @@
         <v>1366</v>
       </c>
       <c r="K228" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L228" t="n">
         <v>3127.7</v>
@@ -11907,7 +11929,7 @@
         <v>1381</v>
       </c>
       <c r="K229" t="n">
-        <v>-38.98305084745763</v>
+        <v>-60.65573770491803</v>
       </c>
       <c r="L229" t="n">
         <v>3123.8</v>
@@ -11958,7 +11980,7 @@
         <v>1401</v>
       </c>
       <c r="K230" t="n">
-        <v>-18.24817518248175</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L230" t="n">
         <v>3122.1</v>
@@ -12009,7 +12031,7 @@
         <v>1409</v>
       </c>
       <c r="K231" t="n">
-        <v>-33.83458646616541</v>
+        <v>-16.88311688311688</v>
       </c>
       <c r="L231" t="n">
         <v>3120.7</v>
@@ -12060,7 +12082,7 @@
         <v>1409</v>
       </c>
       <c r="K232" t="n">
-        <v>-31.25</v>
+        <v>-13.51351351351351</v>
       </c>
       <c r="L232" t="n">
         <v>3119.4</v>
@@ -12111,7 +12133,7 @@
         <v>1414</v>
       </c>
       <c r="K233" t="n">
-        <v>-25.19083969465649</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L233" t="n">
         <v>3118.9</v>
@@ -12162,7 +12184,7 @@
         <v>1414</v>
       </c>
       <c r="K234" t="n">
-        <v>-23.4375</v>
+        <v>0</v>
       </c>
       <c r="L234" t="n">
         <v>3117.4</v>
@@ -12213,7 +12235,7 @@
         <v>1414</v>
       </c>
       <c r="K235" t="n">
-        <v>-23.4375</v>
+        <v>-3.846153846153846</v>
       </c>
       <c r="L235" t="n">
         <v>3117.4</v>
@@ -12264,7 +12286,7 @@
         <v>1423</v>
       </c>
       <c r="K236" t="n">
-        <v>-15.32846715328467</v>
+        <v>19.29824561403509</v>
       </c>
       <c r="L236" t="n">
         <v>3118.1</v>
@@ -12315,7 +12337,7 @@
         <v>1431</v>
       </c>
       <c r="K237" t="n">
-        <v>-2.941176470588235</v>
+        <v>29.23076923076923</v>
       </c>
       <c r="L237" t="n">
         <v>3120</v>
@@ -12366,7 +12388,7 @@
         <v>1443</v>
       </c>
       <c r="K238" t="n">
-        <v>-2.941176470588235</v>
+        <v>74.19354838709677</v>
       </c>
       <c r="L238" t="n">
         <v>3123.1</v>
@@ -12417,7 +12439,7 @@
         <v>1447</v>
       </c>
       <c r="K239" t="n">
-        <v>8.527131782945736</v>
+        <v>65.21739130434783</v>
       </c>
       <c r="L239" t="n">
         <v>3128.1</v>
@@ -12468,7 +12490,7 @@
         <v>1454</v>
       </c>
       <c r="K240" t="n">
-        <v>4.477611940298507</v>
+        <v>68.88888888888889</v>
       </c>
       <c r="L240" t="n">
         <v>3130.4</v>
@@ -12519,7 +12541,7 @@
         <v>1472</v>
       </c>
       <c r="K241" t="n">
-        <v>-0.7092198581560284</v>
+        <v>20.63492063492063</v>
       </c>
       <c r="L241" t="n">
         <v>3131.7</v>
@@ -12570,7 +12592,7 @@
         <v>1476</v>
       </c>
       <c r="K242" t="n">
-        <v>-2.777777777777778</v>
+        <v>6.451612903225806</v>
       </c>
       <c r="L242" t="n">
         <v>3132.6</v>
@@ -12621,7 +12643,7 @@
         <v>1488</v>
       </c>
       <c r="K243" t="n">
-        <v>7.18954248366013</v>
+        <v>21.62162162162162</v>
       </c>
       <c r="L243" t="n">
         <v>3134.2</v>
@@ -12672,7 +12694,7 @@
         <v>1489</v>
       </c>
       <c r="K244" t="n">
-        <v>1.388888888888889</v>
+        <v>22.66666666666666</v>
       </c>
       <c r="L244" t="n">
         <v>3135.9</v>
@@ -12723,7 +12745,7 @@
         <v>1489</v>
       </c>
       <c r="K245" t="n">
-        <v>13.17829457364341</v>
+        <v>12.12121212121212</v>
       </c>
       <c r="L245" t="n">
         <v>3137.6</v>
@@ -12774,7 +12796,7 @@
         <v>1491</v>
       </c>
       <c r="K246" t="n">
-        <v>13.17829457364341</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="L246" t="n">
         <v>3138.6</v>
@@ -12825,7 +12847,7 @@
         <v>1502</v>
       </c>
       <c r="K247" t="n">
-        <v>23.52941176470588</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="L247" t="n">
         <v>3139.9</v>
@@ -12876,7 +12898,7 @@
         <v>1512</v>
       </c>
       <c r="K248" t="n">
-        <v>15.06849315068493</v>
+        <v>-20</v>
       </c>
       <c r="L248" t="n">
         <v>3139</v>
@@ -12927,7 +12949,7 @@
         <v>1516</v>
       </c>
       <c r="K249" t="n">
-        <v>30.37037037037037</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L249" t="n">
         <v>3138.1</v>
@@ -12978,7 +13000,7 @@
         <v>1521</v>
       </c>
       <c r="K250" t="n">
-        <v>13.33333333333333</v>
+        <v>22.44897959183674</v>
       </c>
       <c r="L250" t="n">
         <v>3137.4</v>
@@ -13029,7 +13051,7 @@
         <v>1535</v>
       </c>
       <c r="K251" t="n">
-        <v>7.936507936507936</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="L251" t="n">
         <v>3137.1</v>
@@ -13080,7 +13102,7 @@
         <v>1547</v>
       </c>
       <c r="K252" t="n">
-        <v>15.94202898550724</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="L252" t="n">
         <v>3138.4</v>
@@ -13131,7 +13153,7 @@
         <v>1550</v>
       </c>
       <c r="K253" t="n">
-        <v>14.70588235294118</v>
+        <v>4.918032786885246</v>
       </c>
       <c r="L253" t="n">
         <v>3138.8</v>
@@ -13182,7 +13204,7 @@
         <v>1552</v>
       </c>
       <c r="K254" t="n">
-        <v>13.04347826086956</v>
+        <v>1.587301587301587</v>
       </c>
       <c r="L254" t="n">
         <v>3138.9</v>
@@ -13233,7 +13255,7 @@
         <v>1567</v>
       </c>
       <c r="K255" t="n">
-        <v>1.96078431372549</v>
+        <v>-21.05263157894737</v>
       </c>
       <c r="L255" t="n">
         <v>3137.5</v>
@@ -13284,7 +13306,7 @@
         <v>1570</v>
       </c>
       <c r="K256" t="n">
-        <v>-6.122448979591836</v>
+        <v>-44.11764705882353</v>
       </c>
       <c r="L256" t="n">
         <v>3135.6</v>
@@ -13335,7 +13357,7 @@
         <v>1575</v>
       </c>
       <c r="K257" t="n">
-        <v>-15.27777777777778</v>
+        <v>-39.68253968253968</v>
       </c>
       <c r="L257" t="n">
         <v>3132.1</v>
@@ -13386,7 +13408,7 @@
         <v>1577</v>
       </c>
       <c r="K258" t="n">
-        <v>-26.86567164179105</v>
+        <v>-50.81967213114754</v>
       </c>
       <c r="L258" t="n">
         <v>3129.4</v>
@@ -13437,7 +13459,7 @@
         <v>1588</v>
       </c>
       <c r="K259" t="n">
-        <v>-20.56737588652482</v>
+        <v>-22.38805970149254</v>
       </c>
       <c r="L259" t="n">
         <v>3127.4</v>
@@ -13488,7 +13510,7 @@
         <v>1592</v>
       </c>
       <c r="K260" t="n">
-        <v>-18.84057971014493</v>
+        <v>-8.771929824561402</v>
       </c>
       <c r="L260" t="n">
         <v>3125.5</v>
@@ -13539,7 +13561,7 @@
         <v>1596</v>
       </c>
       <c r="K261" t="n">
-        <v>-3.225806451612903</v>
+        <v>-26.53061224489796</v>
       </c>
       <c r="L261" t="n">
         <v>3125.4</v>
@@ -13590,7 +13612,7 @@
         <v>1603</v>
       </c>
       <c r="K262" t="n">
-        <v>-5.511811023622047</v>
+        <v>-43.39622641509434</v>
       </c>
       <c r="L262" t="n">
         <v>3123.4</v>
@@ -13641,7 +13663,7 @@
         <v>1605</v>
       </c>
       <c r="K263" t="n">
-        <v>-17.94871794871795</v>
+        <v>-43.39622641509434</v>
       </c>
       <c r="L263" t="n">
         <v>3120.9</v>
@@ -13692,7 +13714,7 @@
         <v>1607</v>
       </c>
       <c r="K264" t="n">
-        <v>-16.94915254237288</v>
+        <v>-15</v>
       </c>
       <c r="L264" t="n">
         <v>3118.8</v>
@@ -13743,7 +13765,7 @@
         <v>1608</v>
       </c>
       <c r="K265" t="n">
-        <v>-17.64705882352941</v>
+        <v>-10.52631578947368</v>
       </c>
       <c r="L265" t="n">
         <v>3118.1</v>
@@ -13794,7 +13816,7 @@
         <v>1621</v>
       </c>
       <c r="K266" t="n">
-        <v>-7.692307692307693</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L266" t="n">
         <v>3119</v>
@@ -13845,7 +13867,7 @@
         <v>1634</v>
       </c>
       <c r="K267" t="n">
-        <v>-25.75757575757576</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L267" t="n">
         <v>3119.1</v>
@@ -13896,7 +13918,7 @@
         <v>1640</v>
       </c>
       <c r="K268" t="n">
-        <v>-23.4375</v>
+        <v>-26.92307692307692</v>
       </c>
       <c r="L268" t="n">
         <v>3118.8</v>
@@ -13947,7 +13969,7 @@
         <v>1656</v>
       </c>
       <c r="K269" t="n">
-        <v>-12.85714285714286</v>
+        <v>9.375</v>
       </c>
       <c r="L269" t="n">
         <v>3119</v>
@@ -13998,7 +14020,7 @@
         <v>1659</v>
       </c>
       <c r="K270" t="n">
-        <v>-7.246376811594203</v>
+        <v>7.936507936507936</v>
       </c>
       <c r="L270" t="n">
         <v>3119.9</v>
@@ -14049,7 +14071,7 @@
         <v>1675</v>
       </c>
       <c r="K271" t="n">
-        <v>14.28571428571428</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="L271" t="n">
         <v>3122</v>
@@ -14100,7 +14122,7 @@
         <v>1679</v>
       </c>
       <c r="K272" t="n">
-        <v>9.090909090909092</v>
+        <v>45.94594594594595</v>
       </c>
       <c r="L272" t="n">
         <v>3125.2</v>
@@ -14151,7 +14173,7 @@
         <v>1680</v>
       </c>
       <c r="K273" t="n">
-        <v>7.692307692307693</v>
+        <v>45.20547945205479</v>
       </c>
       <c r="L273" t="n">
         <v>3128.7</v>
@@ -14202,7 +14224,7 @@
         <v>1680</v>
       </c>
       <c r="K274" t="n">
-        <v>9.375</v>
+        <v>47.22222222222222</v>
       </c>
       <c r="L274" t="n">
         <v>3132</v>
@@ -14253,7 +14275,7 @@
         <v>1685</v>
       </c>
       <c r="K275" t="n">
-        <v>27.11864406779661</v>
+        <v>40.625</v>
       </c>
       <c r="L275" t="n">
         <v>3135.9</v>
@@ -14304,7 +14326,7 @@
         <v>1693</v>
       </c>
       <c r="K276" t="n">
-        <v>34.95934959349594</v>
+        <v>79.66101694915254</v>
       </c>
       <c r="L276" t="n">
         <v>3139.3</v>
@@ -14355,7 +14377,7 @@
         <v>1700</v>
       </c>
       <c r="K277" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="L277" t="n">
         <v>3144.7</v>
@@ -14406,7 +14428,7 @@
         <v>1708</v>
       </c>
       <c r="K278" t="n">
-        <v>37.40458015267176</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L278" t="n">
         <v>3149.9</v>
@@ -14457,7 +14479,7 @@
         <v>1712</v>
       </c>
       <c r="K279" t="n">
-        <v>33.87096774193548</v>
+        <v>69.81132075471697</v>
       </c>
       <c r="L279" t="n">
         <v>3153.9</v>
@@ -14508,7 +14530,7 @@
         <v>1729</v>
       </c>
       <c r="K280" t="n">
-        <v>21.16788321167883</v>
+        <v>7.407407407407407</v>
       </c>
       <c r="L280" t="n">
         <v>3155.9</v>
@@ -14559,7 +14581,7 @@
         <v>1731</v>
       </c>
       <c r="K281" t="n">
-        <v>17.03703703703704</v>
+        <v>-3.846153846153846</v>
       </c>
       <c r="L281" t="n">
         <v>3156.1</v>
@@ -14610,7 +14632,7 @@
         <v>1731</v>
       </c>
       <c r="K282" t="n">
-        <v>23.4375</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L282" t="n">
         <v>3155.9</v>
@@ -14661,7 +14683,7 @@
         <v>1740</v>
       </c>
       <c r="K283" t="n">
-        <v>17.03703703703704</v>
+        <v>-20</v>
       </c>
       <c r="L283" t="n">
         <v>3154.7</v>
@@ -14712,7 +14734,7 @@
         <v>1749</v>
       </c>
       <c r="K284" t="n">
-        <v>21.12676056338028</v>
+        <v>-12.5</v>
       </c>
       <c r="L284" t="n">
         <v>3154.4</v>
@@ -14763,7 +14785,7 @@
         <v>1749</v>
       </c>
       <c r="K285" t="n">
-        <v>21.98581560283688</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L285" t="n">
         <v>3153.6</v>
@@ -14814,7 +14836,7 @@
         <v>1752</v>
       </c>
       <c r="K286" t="n">
-        <v>11.45038167938931</v>
+        <v>-50</v>
       </c>
       <c r="L286" t="n">
         <v>3151.7</v>
@@ -14865,7 +14887,7 @@
         <v>1753</v>
       </c>
       <c r="K287" t="n">
-        <v>24.36974789915966</v>
+        <v>-37.77777777777778</v>
       </c>
       <c r="L287" t="n">
         <v>3149.2</v>
@@ -14916,7 +14938,7 @@
         <v>1754</v>
       </c>
       <c r="K288" t="n">
-        <v>29.82456140350877</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L288" t="n">
         <v>3147.4</v>
@@ -14967,7 +14989,7 @@
         <v>1755</v>
       </c>
       <c r="K289" t="n">
-        <v>19.19191919191919</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L289" t="n">
         <v>3145.3</v>
@@ -15018,7 +15040,7 @@
         <v>1762</v>
       </c>
       <c r="K290" t="n">
-        <v>22.33009708737864</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L290" t="n">
         <v>3145.6</v>
@@ -15069,7 +15091,7 @@
         <v>1767</v>
       </c>
       <c r="K291" t="n">
-        <v>13.04347826086956</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="L291" t="n">
         <v>3146.6</v>
@@ -15120,7 +15142,7 @@
         <v>1768</v>
       </c>
       <c r="K292" t="n">
-        <v>10.1123595505618</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L292" t="n">
         <v>3147.7</v>
@@ -15171,7 +15193,7 @@
         <v>1768</v>
       </c>
       <c r="K293" t="n">
-        <v>9.090909090909092</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L293" t="n">
         <v>3149.7</v>
@@ -15222,7 +15244,7 @@
         <v>1772</v>
       </c>
       <c r="K294" t="n">
-        <v>13.04347826086956</v>
+        <v>65.21739130434783</v>
       </c>
       <c r="L294" t="n">
         <v>3151.2</v>
@@ -15273,7 +15295,7 @@
         <v>1782</v>
       </c>
       <c r="K295" t="n">
-        <v>-3.092783505154639</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="L295" t="n">
         <v>3151.7</v>
@@ -15324,7 +15346,7 @@
         <v>1791</v>
       </c>
       <c r="K296" t="n">
-        <v>-2.040816326530612</v>
+        <v>42.10526315789473</v>
       </c>
       <c r="L296" t="n">
         <v>3153.4</v>
@@ -15375,7 +15397,7 @@
         <v>1800</v>
       </c>
       <c r="K297" t="n">
-        <v>-18</v>
+        <v>17.39130434782609</v>
       </c>
       <c r="L297" t="n">
         <v>3154.1</v>
@@ -15426,7 +15448,7 @@
         <v>1800</v>
       </c>
       <c r="K298" t="n">
-        <v>-10.8695652173913</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="L298" t="n">
         <v>3154.9</v>
@@ -15477,7 +15499,7 @@
         <v>1808</v>
       </c>
       <c r="K299" t="n">
-        <v>-22.91666666666666</v>
+        <v>-17.39130434782609</v>
       </c>
       <c r="L299" t="n">
         <v>3154.8</v>
@@ -15528,7 +15550,7 @@
         <v>1809</v>
       </c>
       <c r="K300" t="n">
-        <v>-7.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L300" t="n">
         <v>3153.9</v>
@@ -15579,7 +15601,7 @@
         <v>1818</v>
       </c>
       <c r="K301" t="n">
-        <v>5.747126436781609</v>
+        <v>-12</v>
       </c>
       <c r="L301" t="n">
         <v>3153.4</v>
@@ -15630,7 +15652,7 @@
         <v>1818</v>
       </c>
       <c r="K302" t="n">
-        <v>5.747126436781609</v>
+        <v>-12</v>
       </c>
       <c r="L302" t="n">
         <v>3152.8</v>
@@ -15681,7 +15703,7 @@
         <v>1830</v>
       </c>
       <c r="K303" t="n">
-        <v>2.222222222222222</v>
+        <v>-37.93103448275862</v>
       </c>
       <c r="L303" t="n">
         <v>3151</v>
@@ -15732,7 +15754,7 @@
         <v>1831</v>
       </c>
       <c r="K304" t="n">
-        <v>-7.317073170731707</v>
+        <v>-22.44897959183674</v>
       </c>
       <c r="L304" t="n">
         <v>3148.9</v>
@@ -15783,7 +15805,7 @@
         <v>1842</v>
       </c>
       <c r="K305" t="n">
-        <v>5.376344086021505</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L305" t="n">
         <v>3148.9</v>
@@ -15834,7 +15856,7 @@
         <v>1848</v>
       </c>
       <c r="K306" t="n">
-        <v>14.58333333333333</v>
+        <v>12.5</v>
       </c>
       <c r="L306" t="n">
         <v>3148.6</v>
@@ -15885,7 +15907,7 @@
         <v>1862</v>
       </c>
       <c r="K307" t="n">
-        <v>-0.9174311926605505</v>
+        <v>-12.90322580645161</v>
       </c>
       <c r="L307" t="n">
         <v>3147.8</v>
@@ -15936,7 +15958,7 @@
         <v>1875</v>
       </c>
       <c r="K308" t="n">
-        <v>10.74380165289256</v>
+        <v>19.40298507462687</v>
       </c>
       <c r="L308" t="n">
         <v>3148.3</v>
@@ -15987,7 +16009,7 @@
         <v>1878</v>
       </c>
       <c r="K309" t="n">
-        <v>12.19512195121951</v>
+        <v>24.63768115942029</v>
       </c>
       <c r="L309" t="n">
         <v>3149.9</v>
@@ -16038,7 +16060,7 @@
         <v>1879</v>
       </c>
       <c r="K310" t="n">
-        <v>5.982905982905983</v>
+        <v>11.47540983606557</v>
       </c>
       <c r="L310" t="n">
         <v>3151.5</v>
@@ -16089,7 +16111,7 @@
         <v>1882</v>
       </c>
       <c r="K311" t="n">
-        <v>4.347826086956522</v>
+        <v>15.625</v>
       </c>
       <c r="L311" t="n">
         <v>3152.5</v>
@@ -16140,7 +16162,7 @@
         <v>1886</v>
       </c>
       <c r="K312" t="n">
-        <v>6.779661016949152</v>
+        <v>46.42857142857143</v>
       </c>
       <c r="L312" t="n">
         <v>3153.9</v>
@@ -16191,7 +16213,7 @@
         <v>1886</v>
       </c>
       <c r="K313" t="n">
-        <v>6.779661016949152</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L313" t="n">
         <v>3156.5</v>
@@ -16242,7 +16264,7 @@
         <v>1900</v>
       </c>
       <c r="K314" t="n">
-        <v>14.0625</v>
+        <v>48.27586206896552</v>
       </c>
       <c r="L314" t="n">
         <v>3160.4</v>
@@ -16293,7 +16315,7 @@
         <v>1900</v>
       </c>
       <c r="K315" t="n">
-        <v>23.72881355932203</v>
+        <v>42.30769230769231</v>
       </c>
       <c r="L315" t="n">
         <v>3163.2</v>
@@ -16344,7 +16366,7 @@
         <v>1901</v>
       </c>
       <c r="K316" t="n">
-        <v>18.18181818181818</v>
+        <v>94.87179487179486</v>
       </c>
       <c r="L316" t="n">
         <v>3165.5</v>
@@ -16395,7 +16417,7 @@
         <v>1917</v>
       </c>
       <c r="K317" t="n">
-        <v>38.46153846153847</v>
+        <v>95.23809523809523</v>
       </c>
       <c r="L317" t="n">
         <v>3170.8</v>
@@ -16446,7 +16468,7 @@
         <v>1945</v>
       </c>
       <c r="K318" t="n">
-        <v>11.72413793103448</v>
+        <v>13.43283582089552</v>
       </c>
       <c r="L318" t="n">
         <v>3172</v>
@@ -16497,7 +16519,7 @@
         <v>1957</v>
       </c>
       <c r="K319" t="n">
-        <v>8.724832214765101</v>
+        <v>-2.564102564102564</v>
       </c>
       <c r="L319" t="n">
         <v>3171.7</v>
@@ -16548,7 +16570,7 @@
         <v>1970</v>
       </c>
       <c r="K320" t="n">
-        <v>16.77018633540373</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L320" t="n">
         <v>3172.8</v>
@@ -16599,7 +16621,7 @@
         <v>1970</v>
       </c>
       <c r="K321" t="n">
-        <v>11.84210526315789</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L321" t="n">
         <v>3173.6</v>
@@ -16650,7 +16672,7 @@
         <v>1982</v>
       </c>
       <c r="K322" t="n">
-        <v>18.29268292682927</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L322" t="n">
         <v>3175.2</v>
@@ -16701,7 +16723,7 @@
         <v>1990</v>
       </c>
       <c r="K323" t="n">
-        <v>31.25</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L323" t="n">
         <v>3177.6</v>
@@ -16752,7 +16774,7 @@
         <v>1992</v>
       </c>
       <c r="K324" t="n">
-        <v>31.67701863354037</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L324" t="n">
         <v>3178.8</v>
@@ -16803,7 +16825,7 @@
         <v>1997</v>
       </c>
       <c r="K325" t="n">
-        <v>29.03225806451613</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L325" t="n">
         <v>3180.5</v>
@@ -16854,7 +16876,7 @@
         <v>2004</v>
       </c>
       <c r="K326" t="n">
-        <v>20.51282051282051</v>
+        <v>-8.045977011494253</v>
       </c>
       <c r="L326" t="n">
         <v>3181.4</v>
@@ -16905,7 +16927,7 @@
         <v>2012</v>
       </c>
       <c r="K327" t="n">
-        <v>36</v>
+        <v>43.28358208955223</v>
       </c>
       <c r="L327" t="n">
         <v>3181.5</v>
@@ -16956,7 +16978,7 @@
         <v>2013</v>
       </c>
       <c r="K328" t="n">
-        <v>30.43478260869566</v>
+        <v>75</v>
       </c>
       <c r="L328" t="n">
         <v>3184.5</v>
@@ -17007,7 +17029,7 @@
         <v>2026</v>
       </c>
       <c r="K329" t="n">
-        <v>17.56756756756757</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L329" t="n">
         <v>3187.4</v>
@@ -17058,7 +17080,7 @@
         <v>2038</v>
       </c>
       <c r="K330" t="n">
-        <v>24.52830188679245</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L330" t="n">
         <v>3190.2</v>
@@ -17109,7 +17131,7 @@
         <v>2038</v>
       </c>
       <c r="K331" t="n">
-        <v>23.07692307692308</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L331" t="n">
         <v>3193</v>
@@ -17160,7 +17182,7 @@
         <v>2038</v>
       </c>
       <c r="K332" t="n">
-        <v>21.05263157894737</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L332" t="n">
         <v>3194.6</v>
@@ -17211,7 +17233,7 @@
         <v>2039</v>
       </c>
       <c r="K333" t="n">
-        <v>21.56862745098039</v>
+        <v>14.8936170212766</v>
       </c>
       <c r="L333" t="n">
         <v>3195.5</v>
@@ -17262,7 +17284,7 @@
         <v>2040</v>
       </c>
       <c r="K334" t="n">
-        <v>12.85714285714286</v>
+        <v>2.325581395348837</v>
       </c>
       <c r="L334" t="n">
         <v>3196.1</v>
@@ -17313,7 +17335,7 @@
         <v>2047</v>
       </c>
       <c r="K335" t="n">
-        <v>7.482993197278912</v>
+        <v>2.325581395348837</v>
       </c>
       <c r="L335" t="n">
         <v>3195.5</v>
@@ -17364,7 +17386,7 @@
         <v>2054</v>
       </c>
       <c r="K336" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L336" t="n">
         <v>3196.3</v>
@@ -17415,7 +17437,7 @@
         <v>2065</v>
       </c>
       <c r="K337" t="n">
-        <v>-6.756756756756757</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L337" t="n">
         <v>3195.2</v>
@@ -17466,7 +17488,7 @@
         <v>2075</v>
       </c>
       <c r="K338" t="n">
-        <v>21.53846153846154</v>
+        <v>22.44897959183674</v>
       </c>
       <c r="L338" t="n">
         <v>3195</v>
@@ -17517,7 +17539,7 @@
         <v>2075</v>
       </c>
       <c r="K339" t="n">
-        <v>33.89830508474576</v>
+        <v>-2.702702702702703</v>
       </c>
       <c r="L339" t="n">
         <v>3196.1</v>
@@ -17568,7 +17590,7 @@
         <v>2076</v>
       </c>
       <c r="K340" t="n">
-        <v>26.41509433962264</v>
+        <v>0</v>
       </c>
       <c r="L340" t="n">
         <v>3196.1</v>
@@ -17619,7 +17641,7 @@
         <v>2088</v>
       </c>
       <c r="K341" t="n">
-        <v>13.5593220338983</v>
+        <v>-24</v>
       </c>
       <c r="L341" t="n">
         <v>3194.9</v>
@@ -17670,7 +17692,7 @@
         <v>2088</v>
       </c>
       <c r="K342" t="n">
-        <v>3.773584905660377</v>
+        <v>-26.53061224489796</v>
       </c>
       <c r="L342" t="n">
         <v>3193.7</v>
@@ -17721,7 +17743,7 @@
         <v>2105</v>
       </c>
       <c r="K343" t="n">
-        <v>-18.26086956521739</v>
+        <v>-44.61538461538462</v>
       </c>
       <c r="L343" t="n">
         <v>3190.7</v>
@@ -17772,7 +17794,7 @@
         <v>2107</v>
       </c>
       <c r="K344" t="n">
-        <v>-18.26086956521739</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L344" t="n">
         <v>3188</v>
@@ -17823,7 +17845,7 @@
         <v>2112</v>
       </c>
       <c r="K345" t="n">
-        <v>-18.26086956521739</v>
+        <v>-37.93103448275862</v>
       </c>
       <c r="L345" t="n">
         <v>3186.5</v>
@@ -17874,7 +17896,7 @@
         <v>2126</v>
       </c>
       <c r="K346" t="n">
-        <v>0</v>
+        <v>4.918032786885246</v>
       </c>
       <c r="L346" t="n">
         <v>3185.7</v>
@@ -17925,7 +17947,7 @@
         <v>2130</v>
       </c>
       <c r="K347" t="n">
-        <v>-10.16949152542373</v>
+        <v>-20</v>
       </c>
       <c r="L347" t="n">
         <v>3185.6</v>
@@ -17976,7 +17998,7 @@
         <v>2133</v>
       </c>
       <c r="K348" t="n">
-        <v>-13.33333333333333</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L348" t="n">
         <v>3184.2</v>
@@ -18027,7 +18049,7 @@
         <v>2145</v>
       </c>
       <c r="K349" t="n">
-        <v>-12.60504201680672</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L349" t="n">
         <v>3181.6</v>
@@ -18078,7 +18100,7 @@
         <v>2147</v>
       </c>
       <c r="K350" t="n">
-        <v>-26.60550458715597</v>
+        <v>-28.8135593220339</v>
       </c>
       <c r="L350" t="n">
         <v>3178.7</v>
@@ -18129,7 +18151,7 @@
         <v>2155</v>
       </c>
       <c r="K351" t="n">
-        <v>-31.62393162393162</v>
+        <v>-37.3134328358209</v>
       </c>
       <c r="L351" t="n">
         <v>3176.2</v>
@@ -18180,7 +18202,7 @@
         <v>2167</v>
       </c>
       <c r="K352" t="n">
-        <v>-19.37984496124031</v>
+        <v>6.451612903225806</v>
       </c>
       <c r="L352" t="n">
         <v>3174.9</v>
@@ -18231,7 +18253,7 @@
         <v>2181</v>
       </c>
       <c r="K353" t="n">
-        <v>-28.16901408450704</v>
+        <v>-16.21621621621622</v>
       </c>
       <c r="L353" t="n">
         <v>3173.9</v>
@@ -18282,7 +18304,7 @@
         <v>2192</v>
       </c>
       <c r="K354" t="n">
-        <v>-18.42105263157895</v>
+        <v>-7.5</v>
       </c>
       <c r="L354" t="n">
         <v>3173.8</v>
@@ -18333,7 +18355,7 @@
         <v>2202</v>
       </c>
       <c r="K355" t="n">
-        <v>-20</v>
+        <v>-39.47368421052632</v>
       </c>
       <c r="L355" t="n">
         <v>3172.2</v>
@@ -18384,7 +18406,7 @@
         <v>2205</v>
       </c>
       <c r="K356" t="n">
-        <v>-27.1523178807947</v>
+        <v>-38.66666666666666</v>
       </c>
       <c r="L356" t="n">
         <v>3168.9</v>
@@ -18435,7 +18457,7 @@
         <v>2205</v>
       </c>
       <c r="K357" t="n">
-        <v>-21.42857142857143</v>
+        <v>-36.11111111111111</v>
       </c>
       <c r="L357" t="n">
         <v>3166</v>
@@ -18486,7 +18508,7 @@
         <v>2213</v>
       </c>
       <c r="K358" t="n">
-        <v>-23.18840579710145</v>
+        <v>-8.823529411764707</v>
       </c>
       <c r="L358" t="n">
         <v>3164.2</v>
@@ -18537,7 +18559,7 @@
         <v>2213</v>
       </c>
       <c r="K359" t="n">
-        <v>-23.18840579710145</v>
+        <v>-6.060606060606061</v>
       </c>
       <c r="L359" t="n">
         <v>3163.6</v>
@@ -18588,7 +18610,7 @@
         <v>2217</v>
       </c>
       <c r="K360" t="n">
-        <v>-20.56737588652482</v>
+        <v>12.90322580645161</v>
       </c>
       <c r="L360" t="n">
         <v>3163.6</v>
@@ -18639,7 +18661,7 @@
         <v>2218</v>
       </c>
       <c r="K361" t="n">
-        <v>-13.84615384615385</v>
+        <v>-9.803921568627452</v>
       </c>
       <c r="L361" t="n">
         <v>3164.3</v>
@@ -18690,7 +18712,7 @@
         <v>2218</v>
       </c>
       <c r="K362" t="n">
-        <v>-13.84615384615385</v>
+        <v>24.32432432432433</v>
       </c>
       <c r="L362" t="n">
         <v>3163.8</v>
@@ -18741,7 +18763,7 @@
         <v>2226</v>
       </c>
       <c r="K363" t="n">
-        <v>5.785123966942149</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L363" t="n">
         <v>3165.5</v>
@@ -18792,7 +18814,7 @@
         <v>2234</v>
       </c>
       <c r="K364" t="n">
-        <v>-2.362204724409449</v>
+        <v>25</v>
       </c>
       <c r="L364" t="n">
         <v>3165.3</v>
@@ -18843,7 +18865,7 @@
         <v>2236</v>
       </c>
       <c r="K365" t="n">
-        <v>-4.838709677419355</v>
+        <v>41.93548387096774</v>
       </c>
       <c r="L365" t="n">
         <v>3166.3</v>
@@ -18894,7 +18916,7 @@
         <v>2238</v>
       </c>
       <c r="K366" t="n">
-        <v>-19.64285714285714</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L366" t="n">
         <v>3167.4</v>
@@ -18945,7 +18967,7 @@
         <v>2249</v>
       </c>
       <c r="K367" t="n">
-        <v>-24.36974789915966</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L367" t="n">
         <v>3167.4</v>
@@ -18996,7 +19018,7 @@
         <v>2251</v>
       </c>
       <c r="K368" t="n">
-        <v>-20.33898305084746</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L368" t="n">
         <v>3166.8</v>
@@ -19047,7 +19069,7 @@
         <v>2260</v>
       </c>
       <c r="K369" t="n">
-        <v>-18.26086956521739</v>
+        <v>-44.18604651162791</v>
       </c>
       <c r="L369" t="n">
         <v>3165.3</v>
@@ -19098,7 +19120,7 @@
         <v>2270</v>
       </c>
       <c r="K370" t="n">
-        <v>-23.57723577235772</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L370" t="n">
         <v>3162.4</v>
@@ -19149,7 +19171,7 @@
         <v>2277</v>
       </c>
       <c r="K371" t="n">
-        <v>-22.95081967213115</v>
+        <v>-59.32203389830508</v>
       </c>
       <c r="L371" t="n">
         <v>3158.9</v>
@@ -19200,7 +19222,7 @@
         <v>2280</v>
       </c>
       <c r="K372" t="n">
-        <v>-38.05309734513274</v>
+        <v>-85.18518518518519</v>
       </c>
       <c r="L372" t="n">
         <v>3155.1</v>
@@ -19251,7 +19273,7 @@
         <v>2281</v>
       </c>
       <c r="K373" t="n">
-        <v>-30</v>
+        <v>-82.97872340425532</v>
       </c>
       <c r="L373" t="n">
         <v>3150.4</v>
@@ -19302,7 +19324,7 @@
         <v>2282</v>
       </c>
       <c r="K374" t="n">
-        <v>-44.44444444444444</v>
+        <v>-86.95652173913044</v>
       </c>
       <c r="L374" t="n">
         <v>3146.6</v>
@@ -19353,7 +19375,7 @@
         <v>2301</v>
       </c>
       <c r="K375" t="n">
-        <v>-11.11111111111111</v>
+        <v>-30.15873015873016</v>
       </c>
       <c r="L375" t="n">
         <v>3144.5</v>
@@ -19404,7 +19426,7 @@
         <v>2317</v>
       </c>
       <c r="K376" t="n">
-        <v>-21.42857142857143</v>
+        <v>-35.29411764705883</v>
       </c>
       <c r="L376" t="n">
         <v>3141</v>
@@ -19455,7 +19477,7 @@
         <v>2317</v>
       </c>
       <c r="K377" t="n">
-        <v>-21.42857142857143</v>
+        <v>-39.39393939393939</v>
       </c>
       <c r="L377" t="n">
         <v>3138.6</v>
@@ -19506,7 +19528,7 @@
         <v>2325</v>
       </c>
       <c r="K378" t="n">
-        <v>-35.71428571428572</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L378" t="n">
         <v>3135.2</v>
@@ -19557,7 +19579,7 @@
         <v>2326</v>
       </c>
       <c r="K379" t="n">
-        <v>-36.28318584070797</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L379" t="n">
         <v>3132.6</v>
@@ -19608,7 +19630,7 @@
         <v>2350</v>
       </c>
       <c r="K380" t="n">
-        <v>-51.8796992481203</v>
+        <v>-45.20547945205479</v>
       </c>
       <c r="L380" t="n">
         <v>3128.6</v>
@@ -19659,7 +19681,7 @@
         <v>2350</v>
       </c>
       <c r="K381" t="n">
-        <v>-51.51515151515152</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L381" t="n">
         <v>3125.3</v>
@@ -19710,7 +19732,7 @@
         <v>2350</v>
       </c>
       <c r="K382" t="n">
-        <v>-51.51515151515152</v>
+        <v>-42.02898550724638</v>
       </c>
       <c r="L382" t="n">
         <v>3122.3</v>
@@ -19761,7 +19783,7 @@
         <v>2352</v>
       </c>
       <c r="K383" t="n">
-        <v>-58.73015873015873</v>
+        <v>-40</v>
       </c>
       <c r="L383" t="n">
         <v>3119.6</v>
@@ -19812,7 +19834,7 @@
         <v>2363</v>
       </c>
       <c r="K384" t="n">
-        <v>-42.63565891472868</v>
+        <v>-58.06451612903226</v>
       </c>
       <c r="L384" t="n">
         <v>3117.9</v>
@@ -19863,7 +19885,7 @@
         <v>2371</v>
       </c>
       <c r="K385" t="n">
-        <v>-48.14814814814815</v>
+        <v>-51.85185185185185</v>
       </c>
       <c r="L385" t="n">
         <v>3113.5</v>
@@ -19914,7 +19936,7 @@
         <v>2371</v>
       </c>
       <c r="K386" t="n">
-        <v>-47.36842105263158</v>
+        <v>-51.85185185185185</v>
       </c>
       <c r="L386" t="n">
         <v>3110.7</v>
@@ -19965,7 +19987,7 @@
         <v>2371</v>
       </c>
       <c r="K387" t="n">
-        <v>-42.62295081967213</v>
+        <v>-43.47826086956522</v>
       </c>
       <c r="L387" t="n">
         <v>3107.9</v>
@@ -20016,7 +20038,7 @@
         <v>2392</v>
       </c>
       <c r="K388" t="n">
-        <v>-53.19148936170212</v>
+        <v>-60.60606060606061</v>
       </c>
       <c r="L388" t="n">
         <v>3103.8</v>
@@ -20067,7 +20089,7 @@
         <v>2401</v>
       </c>
       <c r="K389" t="n">
-        <v>-40.42553191489361</v>
+        <v>-13.72549019607843</v>
       </c>
       <c r="L389" t="n">
         <v>3100.7</v>
@@ -20118,7 +20140,7 @@
         <v>2407</v>
       </c>
       <c r="K390" t="n">
-        <v>-38.68613138686132</v>
+        <v>-22.80701754385965</v>
       </c>
       <c r="L390" t="n">
         <v>3099.4</v>
@@ -20169,7 +20191,7 @@
         <v>2415</v>
       </c>
       <c r="K391" t="n">
-        <v>-39.1304347826087</v>
+        <v>-32.30769230769231</v>
       </c>
       <c r="L391" t="n">
         <v>3097.3</v>
@@ -20220,7 +20242,7 @@
         <v>2420</v>
       </c>
       <c r="K392" t="n">
-        <v>-40</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L392" t="n">
         <v>3094.7</v>
@@ -20271,7 +20293,7 @@
         <v>2439</v>
       </c>
       <c r="K393" t="n">
-        <v>-22.78481012658228</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L393" t="n">
         <v>3093.8</v>
@@ -20322,7 +20344,7 @@
         <v>2451</v>
       </c>
       <c r="K394" t="n">
-        <v>-28.99408284023669</v>
+        <v>-30</v>
       </c>
       <c r="L394" t="n">
         <v>3090.6</v>
@@ -20373,7 +20395,7 @@
         <v>2469</v>
       </c>
       <c r="K395" t="n">
-        <v>-29.76190476190476</v>
+        <v>-6.122448979591836</v>
       </c>
       <c r="L395" t="n">
         <v>3090</v>
@@ -20424,7 +20446,7 @@
         <v>2476</v>
       </c>
       <c r="K396" t="n">
-        <v>-16.9811320754717</v>
+        <v>0.9523809523809524</v>
       </c>
       <c r="L396" t="n">
         <v>3090.1</v>
@@ -20475,7 +20497,7 @@
         <v>2483</v>
       </c>
       <c r="K397" t="n">
-        <v>-12.04819277108434</v>
+        <v>31.86813186813187</v>
       </c>
       <c r="L397" t="n">
         <v>3090.9</v>
@@ -20526,7 +20548,7 @@
         <v>2497</v>
       </c>
       <c r="K398" t="n">
-        <v>-15.11627906976744</v>
+        <v>6.25</v>
       </c>
       <c r="L398" t="n">
         <v>3092.4</v>
@@ -20577,7 +20599,7 @@
         <v>2497</v>
       </c>
       <c r="K399" t="n">
-        <v>-14.61988304093567</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L399" t="n">
         <v>3093</v>
@@ -20628,7 +20650,7 @@
         <v>2498</v>
       </c>
       <c r="K400" t="n">
-        <v>-1.351351351351351</v>
+        <v>22.89156626506024</v>
       </c>
       <c r="L400" t="n">
         <v>3094.1</v>
@@ -20679,7 +20701,7 @@
         <v>2507</v>
       </c>
       <c r="K401" t="n">
-        <v>-7.006369426751593</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L401" t="n">
         <v>3095.1</v>
@@ -20730,7 +20752,7 @@
         <v>2508</v>
       </c>
       <c r="K402" t="n">
-        <v>-7.59493670886076</v>
+        <v>-7.246376811594203</v>
       </c>
       <c r="L402" t="n">
         <v>3096.5</v>
@@ -20781,7 +20803,7 @@
         <v>2510</v>
       </c>
       <c r="K403" t="n">
-        <v>-10.12658227848101</v>
+        <v>8.474576271186439</v>
       </c>
       <c r="L403" t="n">
         <v>3095.8</v>
@@ -20832,7 +20854,7 @@
         <v>2519</v>
       </c>
       <c r="K404" t="n">
-        <v>-23.07692307692308</v>
+        <v>-44</v>
       </c>
       <c r="L404" t="n">
         <v>3095.4</v>
@@ -20883,7 +20905,7 @@
         <v>2519</v>
       </c>
       <c r="K405" t="n">
-        <v>-18.91891891891892</v>
+        <v>-67.44186046511628</v>
       </c>
       <c r="L405" t="n">
         <v>3093.2</v>
@@ -20934,7 +20956,7 @@
         <v>2534</v>
       </c>
       <c r="K406" t="n">
-        <v>-26.38036809815951</v>
+        <v>-100</v>
       </c>
       <c r="L406" t="n">
         <v>3088.8</v>
@@ -20985,7 +21007,7 @@
         <v>2535</v>
       </c>
       <c r="K407" t="n">
-        <v>-26.82926829268293</v>
+        <v>-100</v>
       </c>
       <c r="L407" t="n">
         <v>3083.6</v>
@@ -21036,7 +21058,7 @@
         <v>2551</v>
       </c>
       <c r="K408" t="n">
-        <v>-4.40251572327044</v>
+        <v>-40.74074074074074</v>
       </c>
       <c r="L408" t="n">
         <v>3081.4</v>
@@ -21087,7 +21109,7 @@
         <v>2555</v>
       </c>
       <c r="K409" t="n">
-        <v>-12.98701298701299</v>
+        <v>-43.85964912280701</v>
       </c>
       <c r="L409" t="n">
         <v>3078.8</v>
@@ -21138,7 +21160,7 @@
         <v>2565</v>
       </c>
       <c r="K410" t="n">
-        <v>-2.531645569620253</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L410" t="n">
         <v>3077.3</v>
@@ -21189,7 +21211,7 @@
         <v>2575</v>
       </c>
       <c r="K411" t="n">
-        <v>-3.75</v>
+        <v>-22.38805970149254</v>
       </c>
       <c r="L411" t="n">
         <v>3075.7</v>
@@ -21240,7 +21262,7 @@
         <v>2587</v>
       </c>
       <c r="K412" t="n">
-        <v>6.58682634730539</v>
+        <v>-1.298701298701299</v>
       </c>
       <c r="L412" t="n">
         <v>3075.4</v>
@@ -21291,7 +21313,7 @@
         <v>2587</v>
       </c>
       <c r="K413" t="n">
-        <v>-5.405405405405405</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="L413" t="n">
         <v>3075.3</v>
@@ -21342,7 +21364,7 @@
         <v>2592</v>
       </c>
       <c r="K414" t="n">
-        <v>6.382978723404255</v>
+        <v>17.80821917808219</v>
       </c>
       <c r="L414" t="n">
         <v>3076.6</v>
@@ -21393,7 +21415,7 @@
         <v>2605</v>
       </c>
       <c r="K415" t="n">
-        <v>2.941176470588235</v>
+        <v>57.74647887323944</v>
       </c>
       <c r="L415" t="n">
         <v>3079.2</v>
@@ -21444,7 +21466,7 @@
         <v>2625</v>
       </c>
       <c r="K416" t="n">
-        <v>11.40939597315436</v>
+        <v>68.88888888888889</v>
       </c>
       <c r="L416" t="n">
         <v>3085.3</v>
@@ -21495,7 +21517,7 @@
         <v>2637</v>
       </c>
       <c r="K417" t="n">
-        <v>-1.298701298701299</v>
+        <v>39.53488372093023</v>
       </c>
       <c r="L417" t="n">
         <v>3090.3</v>
@@ -21546,7 +21568,7 @@
         <v>2637</v>
       </c>
       <c r="K418" t="n">
-        <v>8.571428571428571</v>
+        <v>46.34146341463415</v>
       </c>
       <c r="L418" t="n">
         <v>3093.7</v>
@@ -21597,7 +21619,7 @@
         <v>2640</v>
       </c>
       <c r="K419" t="n">
-        <v>10.48951048951049</v>
+        <v>41.33333333333334</v>
       </c>
       <c r="L419" t="n">
         <v>3097.8</v>
@@ -21648,7 +21670,7 @@
         <v>2642</v>
       </c>
       <c r="K420" t="n">
-        <v>12.5</v>
+        <v>64.17910447761194</v>
       </c>
       <c r="L420" t="n">
         <v>3101.1</v>
@@ -21699,7 +21721,7 @@
         <v>2643</v>
       </c>
       <c r="K421" t="n">
-        <v>20.58823529411764</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L421" t="n">
         <v>3105.5</v>
@@ -21750,7 +21772,7 @@
         <v>2653</v>
       </c>
       <c r="K422" t="n">
-        <v>26.89655172413793</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L422" t="n">
         <v>3109.7</v>
@@ -21801,7 +21823,7 @@
         <v>2660</v>
       </c>
       <c r="K423" t="n">
-        <v>32</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="L423" t="n">
         <v>3114.6</v>
@@ -21852,7 +21874,7 @@
         <v>2668</v>
       </c>
       <c r="K424" t="n">
-        <v>43.6241610738255</v>
+        <v>61.90476190476191</v>
       </c>
       <c r="L424" t="n">
         <v>3119.8</v>
@@ -21903,7 +21925,7 @@
         <v>2668</v>
       </c>
       <c r="K425" t="n">
-        <v>43.6241610738255</v>
+        <v>44.18604651162791</v>
       </c>
       <c r="L425" t="n">
         <v>3123.7</v>
@@ -21954,7 +21976,7 @@
         <v>2668</v>
       </c>
       <c r="K426" t="n">
-        <v>59.70149253731343</v>
+        <v>100</v>
       </c>
       <c r="L426" t="n">
         <v>3125.6</v>
@@ -22005,7 +22027,7 @@
         <v>2675</v>
       </c>
       <c r="K427" t="n">
-        <v>62.85714285714285</v>
+        <v>100</v>
       </c>
       <c r="L427" t="n">
         <v>3129.4</v>
@@ -22056,7 +22078,7 @@
         <v>2681</v>
       </c>
       <c r="K428" t="n">
-        <v>50.76923076923077</v>
+        <v>70.73170731707317</v>
       </c>
       <c r="L428" t="n">
         <v>3132.6</v>
@@ -22107,7 +22129,7 @@
         <v>2693</v>
       </c>
       <c r="K429" t="n">
-        <v>59.42028985507246</v>
+        <v>76.47058823529412</v>
       </c>
       <c r="L429" t="n">
         <v>3136.7</v>
@@ -22158,7 +22180,7 @@
         <v>2694</v>
       </c>
       <c r="K430" t="n">
-        <v>55.03875968992248</v>
+        <v>72.54901960784314</v>
       </c>
       <c r="L430" t="n">
         <v>3140.5</v>
@@ -22209,7 +22231,7 @@
         <v>2695</v>
       </c>
       <c r="K431" t="n">
-        <v>68.33333333333333</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L431" t="n">
         <v>3144.3</v>
@@ -22260,7 +22282,7 @@
         <v>2695</v>
       </c>
       <c r="K432" t="n">
-        <v>64.81481481481481</v>
+        <v>60</v>
       </c>
       <c r="L432" t="n">
         <v>3147.1</v>
@@ -22311,7 +22333,7 @@
         <v>2697</v>
       </c>
       <c r="K433" t="n">
-        <v>65.45454545454545</v>
+        <v>51.72413793103448</v>
       </c>
       <c r="L433" t="n">
         <v>3149.4</v>
@@ -22362,7 +22384,7 @@
         <v>2705</v>
       </c>
       <c r="K434" t="n">
-        <v>52.21238938053098</v>
+        <v>18.91891891891892</v>
       </c>
       <c r="L434" t="n">
         <v>3150.1</v>
@@ -22413,7 +22435,7 @@
         <v>2718</v>
       </c>
       <c r="K435" t="n">
-        <v>29.20353982300885</v>
+        <v>-12</v>
       </c>
       <c r="L435" t="n">
         <v>3149.5</v>
@@ -22464,7 +22486,7 @@
         <v>2723</v>
       </c>
       <c r="K436" t="n">
-        <v>8.163265306122449</v>
+        <v>-37.5</v>
       </c>
       <c r="L436" t="n">
         <v>3148.4</v>
@@ -22515,7 +22537,7 @@
         <v>2728</v>
       </c>
       <c r="K437" t="n">
-        <v>16.48351648351648</v>
+        <v>-36.17021276595745</v>
       </c>
       <c r="L437" t="n">
         <v>3146.1</v>
@@ -22566,7 +22588,7 @@
         <v>2740</v>
       </c>
       <c r="K438" t="n">
-        <v>26.21359223300971</v>
+        <v>-36.17021276595745</v>
       </c>
       <c r="L438" t="n">
         <v>3145.6</v>
@@ -22617,7 +22639,7 @@
         <v>2745</v>
       </c>
       <c r="K439" t="n">
-        <v>18.09523809523809</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L439" t="n">
         <v>3143.4</v>
@@ -22668,7 +22690,7 @@
         <v>2745</v>
       </c>
       <c r="K440" t="n">
-        <v>16.50485436893204</v>
+        <v>-44</v>
       </c>
       <c r="L440" t="n">
         <v>3141.3</v>
@@ -22719,7 +22741,7 @@
         <v>2745</v>
       </c>
       <c r="K441" t="n">
-        <v>15.68627450980392</v>
+        <v>-44</v>
       </c>
       <c r="L441" t="n">
         <v>3139.1</v>
@@ -22770,7 +22792,7 @@
         <v>2756</v>
       </c>
       <c r="K442" t="n">
-        <v>16.50485436893204</v>
+        <v>-22.03389830508474</v>
       </c>
       <c r="L442" t="n">
         <v>3138</v>
@@ -22821,7 +22843,7 @@
         <v>2768</v>
       </c>
       <c r="K443" t="n">
-        <v>-1.851851851851852</v>
+        <v>-26.98412698412698</v>
       </c>
       <c r="L443" t="n">
         <v>3135.5</v>
@@ -22872,7 +22894,7 @@
         <v>2768</v>
       </c>
       <c r="K444" t="n">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="L444" t="n">
         <v>3133.8</v>
@@ -22923,7 +22945,7 @@
         <v>2768</v>
       </c>
       <c r="K445" t="n">
-        <v>-10</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="L445" t="n">
         <v>3133.4</v>
@@ -22974,7 +22996,7 @@
         <v>2768</v>
       </c>
       <c r="K446" t="n">
-        <v>-10</v>
+        <v>15</v>
       </c>
       <c r="L446" t="n">
         <v>3133.5</v>
@@ -23025,7 +23047,7 @@
         <v>2778</v>
       </c>
       <c r="K447" t="n">
-        <v>-26.21359223300971</v>
+        <v>-42.10526315789473</v>
       </c>
       <c r="L447" t="n">
         <v>3133.1</v>
@@ -23076,7 +23098,7 @@
         <v>2789</v>
       </c>
       <c r="K448" t="n">
-        <v>-9.25925925925926</v>
+        <v>0</v>
       </c>
       <c r="L448" t="n">
         <v>3132.6</v>
@@ -23127,7 +23149,7 @@
         <v>2790</v>
       </c>
       <c r="K449" t="n">
-        <v>-23.71134020618556</v>
+        <v>-2.222222222222222</v>
       </c>
       <c r="L449" t="n">
         <v>3132.5</v>
@@ -23178,7 +23200,7 @@
         <v>2798</v>
       </c>
       <c r="K450" t="n">
-        <v>-13.46153846153846</v>
+        <v>13.20754716981132</v>
       </c>
       <c r="L450" t="n">
         <v>3133.2</v>
@@ -23229,7 +23251,7 @@
         <v>2808</v>
       </c>
       <c r="K451" t="n">
-        <v>-4.424778761061947</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="L451" t="n">
         <v>3134.9</v>
@@ -23280,7 +23302,7 @@
         <v>2809</v>
       </c>
       <c r="K452" t="n">
-        <v>-3.508771929824561</v>
+        <v>46.34146341463415</v>
       </c>
       <c r="L452" t="n">
         <v>3135.6</v>
@@ -23331,7 +23353,7 @@
         <v>2809</v>
       </c>
       <c r="K453" t="n">
-        <v>-5.357142857142857</v>
+        <v>46.34146341463415</v>
       </c>
       <c r="L453" t="n">
         <v>3137.5</v>
@@ -23382,7 +23404,7 @@
         <v>2809</v>
       </c>
       <c r="K454" t="n">
-        <v>1.923076923076923</v>
+        <v>46.34146341463415</v>
       </c>
       <c r="L454" t="n">
         <v>3139.4</v>
@@ -23433,7 +23455,7 @@
         <v>2810</v>
       </c>
       <c r="K455" t="n">
-        <v>15.21739130434783</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L455" t="n">
         <v>3141.2</v>
@@ -23484,7 +23506,7 @@
         <v>2817</v>
       </c>
       <c r="K456" t="n">
-        <v>27.65957446808511</v>
+        <v>89.74358974358975</v>
       </c>
       <c r="L456" t="n">
         <v>3143.7</v>
@@ -23535,7 +23557,7 @@
         <v>2818</v>
       </c>
       <c r="K457" t="n">
-        <v>33.33333333333333</v>
+        <v>79.31034482758621</v>
       </c>
       <c r="L457" t="n">
         <v>3147.1</v>
@@ -23586,7 +23608,7 @@
         <v>2832</v>
       </c>
       <c r="K458" t="n">
-        <v>4.347826086956522</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L458" t="n">
         <v>3148</v>
@@ -23637,7 +23659,7 @@
         <v>2832</v>
       </c>
       <c r="K459" t="n">
-        <v>10.3448275862069</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L459" t="n">
         <v>3149</v>
@@ -23688,7 +23710,7 @@
         <v>2838</v>
       </c>
       <c r="K460" t="n">
-        <v>3.225806451612903</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L460" t="n">
         <v>3148.6</v>
@@ -23739,7 +23761,7 @@
         <v>2838</v>
       </c>
       <c r="K461" t="n">
-        <v>3.225806451612903</v>
+        <v>-51.72413793103448</v>
       </c>
       <c r="L461" t="n">
         <v>3147.2</v>
@@ -23790,7 +23812,7 @@
         <v>2839</v>
       </c>
       <c r="K462" t="n">
-        <v>-8.433734939759036</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L462" t="n">
         <v>3145.8</v>
@@ -23841,7 +23863,7 @@
         <v>2853</v>
       </c>
       <c r="K463" t="n">
-        <v>22.35294117647059</v>
+        <v>0</v>
       </c>
       <c r="L463" t="n">
         <v>3145.8</v>
@@ -23892,7 +23914,7 @@
         <v>2856</v>
       </c>
       <c r="K464" t="n">
-        <v>25</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="L464" t="n">
         <v>3146.1</v>
@@ -23943,7 +23965,7 @@
         <v>2856</v>
       </c>
       <c r="K465" t="n">
-        <v>25</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L465" t="n">
         <v>3146.5</v>
@@ -23994,7 +24016,7 @@
         <v>2859</v>
       </c>
       <c r="K466" t="n">
-        <v>27.47252747252747</v>
+        <v>2.439024390243902</v>
       </c>
       <c r="L466" t="n">
         <v>3146.5</v>
@@ -24045,7 +24067,7 @@
         <v>2863</v>
       </c>
       <c r="K467" t="n">
-        <v>36.47058823529412</v>
+        <v>35.48387096774194</v>
       </c>
       <c r="L467" t="n">
         <v>3146.2</v>
@@ -24096,7 +24118,7 @@
         <v>2864</v>
       </c>
       <c r="K468" t="n">
-        <v>25.33333333333334</v>
+        <v>31.25</v>
       </c>
       <c r="L468" t="n">
         <v>3147.2</v>
@@ -24147,7 +24169,7 @@
         <v>2865</v>
       </c>
       <c r="K469" t="n">
-        <v>25.33333333333334</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L469" t="n">
         <v>3148.1</v>
@@ -24198,7 +24220,7 @@
         <v>2867</v>
       </c>
       <c r="K470" t="n">
-        <v>18.84057971014493</v>
+        <v>58.62068965517241</v>
       </c>
       <c r="L470" t="n">
         <v>3149.8</v>
@@ -24249,7 +24271,7 @@
         <v>2879</v>
       </c>
       <c r="K471" t="n">
-        <v>-12.67605633802817</v>
+        <v>10</v>
       </c>
       <c r="L471" t="n">
         <v>3150.3</v>
@@ -24300,7 +24322,7 @@
         <v>2887</v>
       </c>
       <c r="K472" t="n">
-        <v>-2.564102564102564</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L472" t="n">
         <v>3151.5</v>
@@ -24351,7 +24373,7 @@
         <v>2892</v>
       </c>
       <c r="K473" t="n">
-        <v>-8.433734939759036</v>
+        <v>-27.77777777777778</v>
       </c>
       <c r="L473" t="n">
         <v>3150.8</v>
@@ -24402,7 +24424,7 @@
         <v>2893</v>
       </c>
       <c r="K474" t="n">
-        <v>-7.142857142857142</v>
+        <v>-24.32432432432433</v>
       </c>
       <c r="L474" t="n">
         <v>3149.9</v>
@@ -24453,7 +24475,7 @@
         <v>2897</v>
       </c>
       <c r="K475" t="n">
-        <v>-1.149425287356322</v>
+        <v>-21.05263157894737</v>
       </c>
       <c r="L475" t="n">
         <v>3149.4</v>
@@ -24504,7 +24526,7 @@
         <v>2898</v>
       </c>
       <c r="K476" t="n">
-        <v>-8.641975308641975</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L476" t="n">
         <v>3148.7</v>
@@ -24555,7 +24577,7 @@
         <v>2898</v>
       </c>
       <c r="K477" t="n">
-        <v>-7.5</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L477" t="n">
         <v>3148.4</v>
@@ -24606,7 +24628,7 @@
         <v>2904</v>
       </c>
       <c r="K478" t="n">
-        <v>2.777777777777778</v>
+        <v>-17.94871794871795</v>
       </c>
       <c r="L478" t="n">
         <v>3147.6</v>
@@ -24657,7 +24679,7 @@
         <v>2909</v>
       </c>
       <c r="K479" t="n">
-        <v>9.090909090909092</v>
+        <v>-9.523809523809524</v>
       </c>
       <c r="L479" t="n">
         <v>3147.4</v>
@@ -24708,7 +24730,7 @@
         <v>2913</v>
       </c>
       <c r="K480" t="n">
-        <v>22.66666666666666</v>
+        <v>35.29411764705883</v>
       </c>
       <c r="L480" t="n">
         <v>3147.4</v>
@@ -24759,7 +24781,7 @@
         <v>2913</v>
       </c>
       <c r="K481" t="n">
-        <v>22.66666666666666</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L481" t="n">
         <v>3148.6</v>
@@ -24810,7 +24832,7 @@
         <v>2922</v>
       </c>
       <c r="K482" t="n">
-        <v>8.433734939759036</v>
+        <v>0</v>
       </c>
       <c r="L482" t="n">
         <v>3148.1</v>
@@ -24861,7 +24883,7 @@
         <v>2930</v>
       </c>
       <c r="K483" t="n">
-        <v>1.298701298701299</v>
+        <v>18.91891891891892</v>
       </c>
       <c r="L483" t="n">
         <v>3148.9</v>
@@ -24912,7 +24934,7 @@
         <v>2941</v>
       </c>
       <c r="K484" t="n">
-        <v>-15.29411764705882</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L484" t="n">
         <v>3148.5</v>
@@ -24963,7 +24985,7 @@
         <v>2953</v>
       </c>
       <c r="K485" t="n">
-        <v>-1.030927835051546</v>
+        <v>5.454545454545454</v>
       </c>
       <c r="L485" t="n">
         <v>3148.9</v>
@@ -25014,7 +25036,7 @@
         <v>2984</v>
       </c>
       <c r="K486" t="n">
-        <v>-28</v>
+        <v>-32.55813953488372</v>
       </c>
       <c r="L486" t="n">
         <v>3146.1</v>
@@ -25065,7 +25087,7 @@
         <v>3012</v>
       </c>
       <c r="K487" t="n">
-        <v>-2.013422818791946</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="L487" t="n">
         <v>3146.1</v>
@@ -25116,7 +25138,7 @@
         <v>3025</v>
       </c>
       <c r="K488" t="n">
-        <v>-9.316770186335404</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L488" t="n">
         <v>3145.4</v>
@@ -25167,7 +25189,7 @@
         <v>3030</v>
       </c>
       <c r="K489" t="n">
-        <v>-5.454545454545454</v>
+        <v>-9.401709401709402</v>
       </c>
       <c r="L489" t="n">
         <v>3144.7</v>
@@ -25218,7 +25240,7 @@
         <v>3043</v>
       </c>
       <c r="K490" t="n">
-        <v>-13.63636363636363</v>
+        <v>-18.46153846153846</v>
       </c>
       <c r="L490" t="n">
         <v>3142.3</v>
@@ -25269,7 +25291,7 @@
         <v>3053</v>
       </c>
       <c r="K491" t="n">
-        <v>-1.149425287356322</v>
+        <v>-3.816793893129771</v>
       </c>
       <c r="L491" t="n">
         <v>3140.9</v>
@@ -25320,7 +25342,7 @@
         <v>3056</v>
       </c>
       <c r="K492" t="n">
-        <v>-4.142011834319527</v>
+        <v>-7.936507936507936</v>
       </c>
       <c r="L492" t="n">
         <v>3140.7</v>
@@ -25371,7 +25393,7 @@
         <v>3059</v>
       </c>
       <c r="K493" t="n">
-        <v>-2.994011976047904</v>
+        <v>-1.694915254237288</v>
       </c>
       <c r="L493" t="n">
         <v>3139.4</v>
@@ -25422,7 +25444,7 @@
         <v>3059</v>
       </c>
       <c r="K494" t="n">
-        <v>-3.614457831325301</v>
+        <v>-13.20754716981132</v>
       </c>
       <c r="L494" t="n">
         <v>3139.2</v>
@@ -25473,7 +25495,7 @@
         <v>3067</v>
       </c>
       <c r="K495" t="n">
-        <v>-10.58823529411765</v>
+        <v>10.8433734939759</v>
       </c>
       <c r="L495" t="n">
         <v>3137</v>
@@ -25524,7 +25546,7 @@
         <v>3078</v>
       </c>
       <c r="K496" t="n">
-        <v>-16.66666666666666</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L496" t="n">
         <v>3136.8</v>
@@ -25575,7 +25597,7 @@
         <v>3078</v>
       </c>
       <c r="K497" t="n">
-        <v>-16.66666666666666</v>
+        <v>-32.0754716981132</v>
       </c>
       <c r="L497" t="n">
         <v>3133.8</v>
@@ -25626,7 +25648,7 @@
         <v>3085</v>
       </c>
       <c r="K498" t="n">
-        <v>-9.392265193370166</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L498" t="n">
         <v>3132.8</v>
@@ -25677,7 +25699,7 @@
         <v>3098</v>
       </c>
       <c r="K499" t="n">
-        <v>-18.51851851851852</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L499" t="n">
         <v>3130</v>
@@ -25728,7 +25750,7 @@
         <v>3099</v>
       </c>
       <c r="K500" t="n">
-        <v>-21.50537634408602</v>
+        <v>-56.52173913043478</v>
       </c>
       <c r="L500" t="n">
         <v>3128.4</v>
@@ -25779,7 +25801,7 @@
         <v>3100</v>
       </c>
       <c r="K501" t="n">
-        <v>-20.85561497326203</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L501" t="n">
         <v>3125.9</v>
@@ -25830,7 +25852,7 @@
         <v>3107</v>
       </c>
       <c r="K502" t="n">
-        <v>-12.43243243243243</v>
+        <v>-37.5</v>
       </c>
       <c r="L502" t="n">
         <v>3123.8</v>
@@ -25881,7 +25903,7 @@
         <v>3109</v>
       </c>
       <c r="K503" t="n">
-        <v>-16.20111731843575</v>
+        <v>-32</v>
       </c>
       <c r="L503" t="n">
         <v>3122.2</v>
@@ -25932,7 +25954,7 @@
         <v>3121</v>
       </c>
       <c r="K504" t="n">
-        <v>-3.333333333333333</v>
+        <v>7.407407407407407</v>
       </c>
       <c r="L504" t="n">
         <v>3121.8</v>
@@ -25983,7 +26005,7 @@
         <v>3124</v>
       </c>
       <c r="K505" t="n">
-        <v>-12.28070175438596</v>
+        <v>26.08695652173913</v>
       </c>
       <c r="L505" t="n">
         <v>3121.9</v>
@@ -26034,7 +26056,7 @@
         <v>3125</v>
       </c>
       <c r="K506" t="n">
-        <v>7.801418439716312</v>
+        <v>27.65957446808511</v>
       </c>
       <c r="L506" t="n">
         <v>3123.2</v>
@@ -26085,7 +26107,7 @@
         <v>3129</v>
       </c>
       <c r="K507" t="n">
-        <v>-11.11111111111111</v>
+        <v>22.72727272727273</v>
       </c>
       <c r="L507" t="n">
         <v>3124.9</v>
@@ -26136,7 +26158,7 @@
         <v>3141</v>
       </c>
       <c r="K508" t="n">
-        <v>10.3448275862069</v>
+        <v>81.3953488372093</v>
       </c>
       <c r="L508" t="n">
         <v>3127.1</v>
@@ -26187,7 +26209,7 @@
         <v>3148</v>
       </c>
       <c r="K509" t="n">
-        <v>0</v>
+        <v>59.18367346938776</v>
       </c>
       <c r="L509" t="n">
         <v>3129.9</v>
@@ -26238,7 +26260,7 @@
         <v>3162</v>
       </c>
       <c r="K510" t="n">
-        <v>22.6890756302521</v>
+        <v>67.74193548387096</v>
       </c>
       <c r="L510" t="n">
         <v>3134.2</v>
@@ -26289,7 +26311,7 @@
         <v>3173</v>
       </c>
       <c r="K511" t="n">
-        <v>5</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L511" t="n">
         <v>3137.3</v>
@@ -26340,7 +26362,7 @@
         <v>3173</v>
       </c>
       <c r="K512" t="n">
-        <v>2.564102564102564</v>
+        <v>34.375</v>
       </c>
       <c r="L512" t="n">
         <v>3139.7</v>
@@ -26391,7 +26413,7 @@
         <v>3176</v>
       </c>
       <c r="K513" t="n">
-        <v>7.692307692307693</v>
+        <v>23.63636363636364</v>
       </c>
       <c r="L513" t="n">
         <v>3142.2</v>
@@ -26442,7 +26464,7 @@
         <v>3184</v>
       </c>
       <c r="K514" t="n">
-        <v>0.8</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L514" t="n">
         <v>3142.7</v>
@@ -26493,7 +26515,7 @@
         <v>3190</v>
       </c>
       <c r="K515" t="n">
-        <v>12.19512195121951</v>
+        <v>20</v>
       </c>
       <c r="L515" t="n">
         <v>3144.1</v>
@@ -26544,7 +26566,7 @@
         <v>3197</v>
       </c>
       <c r="K516" t="n">
-        <v>15.96638655462185</v>
+        <v>2.941176470588235</v>
       </c>
       <c r="L516" t="n">
         <v>3144.7</v>
@@ -26595,7 +26617,7 @@
         <v>3215</v>
       </c>
       <c r="K517" t="n">
-        <v>27.00729927007299</v>
+        <v>10.81081081081081</v>
       </c>
       <c r="L517" t="n">
         <v>3146.7</v>
@@ -26646,7 +26668,7 @@
         <v>3219</v>
       </c>
       <c r="K518" t="n">
-        <v>25.37313432835821</v>
+        <v>26.76056338028169</v>
       </c>
       <c r="L518" t="n">
         <v>3147.9</v>
@@ -26697,7 +26719,7 @@
         <v>3220</v>
       </c>
       <c r="K519" t="n">
-        <v>37.70491803278689</v>
+        <v>6.896551724137931</v>
       </c>
       <c r="L519" t="n">
         <v>3149.7</v>
@@ -26748,7 +26770,7 @@
         <v>3221</v>
       </c>
       <c r="K520" t="n">
-        <v>37.70491803278689</v>
+        <v>29.16666666666667</v>
       </c>
       <c r="L520" t="n">
         <v>3150</v>
@@ -26799,7 +26821,7 @@
         <v>3222</v>
       </c>
       <c r="K521" t="n">
-        <v>37.70491803278689</v>
+        <v>30.61224489795918</v>
       </c>
       <c r="L521" t="n">
         <v>3151.5</v>
@@ -26850,7 +26872,7 @@
         <v>3223</v>
       </c>
       <c r="K522" t="n">
-        <v>34.48275862068966</v>
+        <v>27.65957446808511</v>
       </c>
       <c r="L522" t="n">
         <v>3153.1</v>
@@ -26901,7 +26923,7 @@
         <v>3223</v>
       </c>
       <c r="K523" t="n">
-        <v>33.33333333333333</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L523" t="n">
         <v>3154.4</v>
@@ -26952,7 +26974,7 @@
         <v>3234</v>
       </c>
       <c r="K524" t="n">
-        <v>13.27433628318584</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L524" t="n">
         <v>3155.4</v>
@@ -27003,7 +27025,7 @@
         <v>3234</v>
       </c>
       <c r="K525" t="n">
-        <v>16.36363636363636</v>
+        <v>29.72972972972973</v>
       </c>
       <c r="L525" t="n">
         <v>3155.8</v>
@@ -27054,7 +27076,7 @@
         <v>3235</v>
       </c>
       <c r="K526" t="n">
-        <v>14.54545454545454</v>
+        <v>-40</v>
       </c>
       <c r="L526" t="n">
         <v>3156.8</v>
@@ -27105,7 +27127,7 @@
         <v>3237</v>
       </c>
       <c r="K527" t="n">
-        <v>12.96296296296296</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L527" t="n">
         <v>3156.2</v>
@@ -27156,7 +27178,7 @@
         <v>3242</v>
       </c>
       <c r="K528" t="n">
-        <v>6.930693069306932</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L528" t="n">
         <v>3155.7</v>
@@ -27207,7 +27229,7 @@
         <v>3250</v>
       </c>
       <c r="K529" t="n">
-        <v>5.88235294117647</v>
+        <v>-37.93103448275862</v>
       </c>
       <c r="L529" t="n">
         <v>3154.5</v>
@@ -27258,7 +27280,7 @@
         <v>3250</v>
       </c>
       <c r="K530" t="n">
-        <v>-9.090909090909092</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L530" t="n">
         <v>3153.4</v>
@@ -27309,7 +27331,7 @@
         <v>3263</v>
       </c>
       <c r="K531" t="n">
-        <v>-11.11111111111111</v>
+        <v>-65</v>
       </c>
       <c r="L531" t="n">
         <v>3150.9</v>
@@ -27360,7 +27382,7 @@
         <v>3265</v>
       </c>
       <c r="K532" t="n">
-        <v>-13.04347826086956</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L532" t="n">
         <v>3148.1</v>
@@ -27411,7 +27433,7 @@
         <v>3265</v>
       </c>
       <c r="K533" t="n">
-        <v>-16.85393258426966</v>
+        <v>-54.83870967741935</v>
       </c>
       <c r="L533" t="n">
         <v>3145.3</v>
@@ -27462,7 +27484,7 @@
         <v>3273</v>
       </c>
       <c r="K534" t="n">
-        <v>1.123595505617978</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L534" t="n">
         <v>3144.4</v>
@@ -27513,7 +27535,7 @@
         <v>3275</v>
       </c>
       <c r="K535" t="n">
-        <v>-8.235294117647058</v>
+        <v>-25</v>
       </c>
       <c r="L535" t="n">
         <v>3143.3</v>
@@ -27564,7 +27586,7 @@
         <v>3284</v>
       </c>
       <c r="K536" t="n">
-        <v>-10.3448275862069</v>
+        <v>-44.68085106382978</v>
       </c>
       <c r="L536" t="n">
         <v>3141.4</v>
@@ -27615,7 +27637,7 @@
         <v>3284</v>
       </c>
       <c r="K537" t="n">
-        <v>-39.1304347826087</v>
+        <v>-61.90476190476191</v>
       </c>
       <c r="L537" t="n">
         <v>3139.3</v>
@@ -27666,7 +27688,7 @@
         <v>3285</v>
       </c>
       <c r="K538" t="n">
-        <v>-48.48484848484848</v>
+        <v>-54.28571428571428</v>
       </c>
       <c r="L538" t="n">
         <v>3136.6</v>
@@ -27717,7 +27739,7 @@
         <v>3286</v>
       </c>
       <c r="K539" t="n">
-        <v>-45.45454545454545</v>
+        <v>-50</v>
       </c>
       <c r="L539" t="n">
         <v>3134.8</v>
@@ -27768,7 +27790,7 @@
         <v>3286</v>
       </c>
       <c r="K540" t="n">
-        <v>-44.61538461538462</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L540" t="n">
         <v>3133</v>
@@ -27819,7 +27841,7 @@
         <v>3287</v>
       </c>
       <c r="K541" t="n">
-        <v>-47.69230769230769</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L541" t="n">
         <v>3132.4</v>
@@ -27870,7 +27892,7 @@
         <v>3287</v>
       </c>
       <c r="K542" t="n">
-        <v>-50</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L542" t="n">
         <v>3132</v>
@@ -27921,7 +27943,7 @@
         <v>3301</v>
       </c>
       <c r="K543" t="n">
-        <v>-23.07692307692308</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="L543" t="n">
         <v>3133</v>
@@ -27972,7 +27994,7 @@
         <v>3314</v>
       </c>
       <c r="K544" t="n">
-        <v>-25</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L544" t="n">
         <v>3131.9</v>
@@ -28023,7 +28045,7 @@
         <v>3326</v>
       </c>
       <c r="K545" t="n">
-        <v>-8.695652173913043</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L545" t="n">
         <v>3132.2</v>
@@ -28074,7 +28096,7 @@
         <v>3329</v>
       </c>
       <c r="K546" t="n">
-        <v>-10.63829787234043</v>
+        <v>20</v>
       </c>
       <c r="L546" t="n">
         <v>3133.1</v>
@@ -28125,7 +28147,7 @@
         <v>3334</v>
       </c>
       <c r="K547" t="n">
-        <v>-7.216494845360824</v>
+        <v>30.61224489795918</v>
       </c>
       <c r="L547" t="n">
         <v>3134.5</v>
@@ -28176,7 +28198,7 @@
         <v>3334</v>
       </c>
       <c r="K548" t="n">
-        <v>-13.04347826086956</v>
+        <v>29.16666666666667</v>
       </c>
       <c r="L548" t="n">
         <v>3136</v>
@@ -28227,7 +28249,7 @@
         <v>3337</v>
       </c>
       <c r="K549" t="n">
-        <v>-1.149425287356322</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L549" t="n">
         <v>3137.7</v>
@@ -28278,7 +28300,7 @@
         <v>3340</v>
       </c>
       <c r="K550" t="n">
-        <v>-4.444444444444445</v>
+        <v>28.30188679245283</v>
       </c>
       <c r="L550" t="n">
         <v>3139.1</v>
@@ -28329,7 +28351,7 @@
         <v>3341</v>
       </c>
       <c r="K551" t="n">
-        <v>12.82051282051282</v>
+        <v>29.62962962962963</v>
       </c>
       <c r="L551" t="n">
         <v>3140.7</v>
@@ -28380,7 +28402,7 @@
         <v>3351</v>
       </c>
       <c r="K552" t="n">
-        <v>2.325581395348837</v>
+        <v>-16</v>
       </c>
       <c r="L552" t="n">
         <v>3141.3</v>
@@ -28431,7 +28453,7 @@
         <v>3365</v>
       </c>
       <c r="K553" t="n">
-        <v>16</v>
+        <v>37.25490196078432</v>
       </c>
       <c r="L553" t="n">
         <v>3141.9</v>
@@ -28482,7 +28504,7 @@
         <v>3365</v>
       </c>
       <c r="K554" t="n">
-        <v>8.695652173913043</v>
+        <v>17.94871794871795</v>
       </c>
       <c r="L554" t="n">
         <v>3143.8</v>
@@ -28533,7 +28555,7 @@
         <v>3380</v>
       </c>
       <c r="K555" t="n">
-        <v>-4.761904761904762</v>
+        <v>-9.803921568627452</v>
       </c>
       <c r="L555" t="n">
         <v>3143</v>
@@ -28584,7 +28606,7 @@
         <v>3395</v>
       </c>
       <c r="K556" t="n">
-        <v>17.11711711711712</v>
+        <v>8.196721311475409</v>
       </c>
       <c r="L556" t="n">
         <v>3144</v>
@@ -28635,7 +28657,7 @@
         <v>3397</v>
       </c>
       <c r="K557" t="n">
-        <v>18.58407079646018</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L557" t="n">
         <v>3144.7</v>
@@ -28686,7 +28708,7 @@
         <v>3406</v>
       </c>
       <c r="K558" t="n">
-        <v>10.74380165289256</v>
+        <v>-7.246376811594203</v>
       </c>
       <c r="L558" t="n">
         <v>3144.5</v>
@@ -28737,7 +28759,7 @@
         <v>3419</v>
       </c>
       <c r="K559" t="n">
-        <v>18.79699248120301</v>
+        <v>13.92405063291139</v>
       </c>
       <c r="L559" t="n">
         <v>3145.3</v>
@@ -28788,7 +28810,7 @@
         <v>3425</v>
       </c>
       <c r="K560" t="n">
-        <v>22.30215827338129</v>
+        <v>19.04761904761905</v>
       </c>
       <c r="L560" t="n">
         <v>3147</v>
@@ -28839,7 +28861,7 @@
         <v>3434</v>
       </c>
       <c r="K561" t="n">
-        <v>27.89115646258503</v>
+        <v>42.16867469879519</v>
       </c>
       <c r="L561" t="n">
         <v>3149.5</v>
@@ -28890,7 +28912,7 @@
         <v>3439</v>
       </c>
       <c r="K562" t="n">
-        <v>30.26315789473684</v>
+        <v>35.13513513513514</v>
       </c>
       <c r="L562" t="n">
         <v>3153.5</v>
@@ -28941,7 +28963,7 @@
         <v>3439</v>
       </c>
       <c r="K563" t="n">
-        <v>23.18840579710145</v>
+        <v>35.13513513513514</v>
       </c>
       <c r="L563" t="n">
         <v>3156.1</v>
@@ -28992,7 +29014,7 @@
         <v>3439</v>
       </c>
       <c r="K564" t="n">
-        <v>36</v>
+        <v>69.49152542372882</v>
       </c>
       <c r="L564" t="n">
         <v>3158.7</v>
@@ -29043,7 +29065,7 @@
         <v>3439</v>
       </c>
       <c r="K565" t="n">
-        <v>29.20353982300885</v>
+        <v>59.09090909090909</v>
       </c>
       <c r="L565" t="n">
         <v>3162.8</v>
@@ -29094,7 +29116,7 @@
         <v>3441</v>
       </c>
       <c r="K566" t="n">
-        <v>33.92857142857143</v>
+        <v>59.09090909090909</v>
       </c>
       <c r="L566" t="n">
         <v>3165.6</v>
@@ -29145,7 +29167,7 @@
         <v>3441</v>
       </c>
       <c r="K567" t="n">
-        <v>30.8411214953271</v>
+        <v>100</v>
       </c>
       <c r="L567" t="n">
         <v>3168.2</v>
@@ -29196,7 +29218,7 @@
         <v>3443</v>
       </c>
       <c r="K568" t="n">
-        <v>28.44036697247707</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L568" t="n">
         <v>3171.5</v>
@@ -29247,7 +29269,7 @@
         <v>3451</v>
       </c>
       <c r="K569" t="n">
-        <v>17.5438596491228</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L569" t="n">
         <v>3172.7</v>
@@ -29298,7 +29320,7 @@
         <v>3460</v>
       </c>
       <c r="K570" t="n">
-        <v>26.66666666666667</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L570" t="n">
         <v>3174.2</v>
@@ -29349,7 +29371,7 @@
         <v>3461</v>
       </c>
       <c r="K571" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L571" t="n">
         <v>3174.7</v>
@@ -29400,7 +29422,7 @@
         <v>3463</v>
       </c>
       <c r="K572" t="n">
-        <v>37.5</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L572" t="n">
         <v>3174.9</v>
@@ -29451,7 +29473,7 @@
         <v>3463</v>
       </c>
       <c r="K573" t="n">
-        <v>28.57142857142857</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L573" t="n">
         <v>3175.1</v>
@@ -29502,7 +29524,7 @@
         <v>3475</v>
       </c>
       <c r="K574" t="n">
-        <v>36.36363636363637</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="L574" t="n">
         <v>3176.5</v>
@@ -29553,7 +29575,7 @@
         <v>3476</v>
       </c>
       <c r="K575" t="n">
-        <v>58.33333333333334</v>
+        <v>37.14285714285715</v>
       </c>
       <c r="L575" t="n">
         <v>3178</v>
@@ -29604,7 +29626,7 @@
         <v>3477</v>
       </c>
       <c r="K576" t="n">
-        <v>48.78048780487805</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L576" t="n">
         <v>3179.2</v>
@@ -29655,7 +29677,7 @@
         <v>3478</v>
       </c>
       <c r="K577" t="n">
-        <v>48.14814814814815</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L577" t="n">
         <v>3180.5</v>
@@ -29706,7 +29728,7 @@
         <v>3485</v>
       </c>
       <c r="K578" t="n">
-        <v>69.62025316455697</v>
+        <v>88.23529411764706</v>
       </c>
       <c r="L578" t="n">
         <v>3182.7</v>
@@ -29757,7 +29779,7 @@
         <v>3486</v>
       </c>
       <c r="K579" t="n">
-        <v>64.17910447761194</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="L579" t="n">
         <v>3185.8</v>
@@ -29808,7 +29830,7 @@
         <v>3488</v>
       </c>
       <c r="K580" t="n">
-        <v>55.55555555555556</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L580" t="n">
         <v>3187.8</v>
@@ -29859,7 +29881,7 @@
         <v>3490</v>
       </c>
       <c r="K581" t="n">
-        <v>50</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L581" t="n">
         <v>3190.1</v>
@@ -29910,7 +29932,7 @@
         <v>3497</v>
       </c>
       <c r="K582" t="n">
-        <v>27.58620689655172</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L582" t="n">
         <v>3191.5</v>
@@ -29961,7 +29983,7 @@
         <v>3502</v>
       </c>
       <c r="K583" t="n">
-        <v>33.33333333333333</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L583" t="n">
         <v>3193.4</v>
@@ -30012,7 +30034,7 @@
         <v>3508</v>
       </c>
       <c r="K584" t="n">
-        <v>21.73913043478261</v>
+        <v>0</v>
       </c>
       <c r="L584" t="n">
         <v>3193.5</v>
@@ -30063,7 +30085,7 @@
         <v>3514</v>
       </c>
       <c r="K585" t="n">
-        <v>28</v>
+        <v>18.91891891891892</v>
       </c>
       <c r="L585" t="n">
         <v>3194.1</v>
@@ -30114,7 +30136,7 @@
         <v>3521</v>
       </c>
       <c r="K586" t="n">
-        <v>15</v>
+        <v>-2.325581395348837</v>
       </c>
       <c r="L586" t="n">
         <v>3194.1</v>
@@ -30165,7 +30187,7 @@
         <v>3521</v>
       </c>
       <c r="K587" t="n">
-        <v>15</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L587" t="n">
         <v>3194</v>
@@ -30216,7 +30238,7 @@
         <v>3521</v>
       </c>
       <c r="K588" t="n">
-        <v>17.94871794871795</v>
+        <v>-25.71428571428571</v>
       </c>
       <c r="L588" t="n">
         <v>3193.2</v>
@@ -30267,7 +30289,7 @@
         <v>3521</v>
       </c>
       <c r="K589" t="n">
-        <v>31.42857142857143</v>
+        <v>-21.21212121212121</v>
       </c>
       <c r="L589" t="n">
         <v>3192.3</v>
@@ -30318,7 +30340,7 @@
         <v>3522</v>
       </c>
       <c r="K590" t="n">
-        <v>22.58064516129032</v>
+        <v>-25</v>
       </c>
       <c r="L590" t="n">
         <v>3191.7</v>
@@ -30369,7 +30391,7 @@
         <v>3528</v>
       </c>
       <c r="K591" t="n">
-        <v>31.34328358208955</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L591" t="n">
         <v>3191.5</v>
@@ -30420,7 +30442,7 @@
         <v>3534</v>
       </c>
       <c r="K592" t="n">
-        <v>18.30985915492958</v>
+        <v>-18.75</v>
       </c>
       <c r="L592" t="n">
         <v>3191.4</v>
@@ -30471,7 +30493,7 @@
         <v>3542</v>
       </c>
       <c r="K593" t="n">
-        <v>26.58227848101265</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="L593" t="n">
         <v>3191.6</v>
@@ -30522,7 +30544,7 @@
         <v>3544</v>
       </c>
       <c r="K594" t="n">
-        <v>15.94202898550724</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L594" t="n">
         <v>3192.6</v>
@@ -30573,7 +30595,7 @@
         <v>3545</v>
       </c>
       <c r="K595" t="n">
-        <v>15.94202898550724</v>
+        <v>50</v>
       </c>
       <c r="L595" t="n">
         <v>3193.1</v>
@@ -30624,7 +30646,7 @@
         <v>3550</v>
       </c>
       <c r="K596" t="n">
-        <v>23.28767123287671</v>
+        <v>58.62068965517241</v>
       </c>
       <c r="L596" t="n">
         <v>3194.8</v>
@@ -30675,7 +30697,7 @@
         <v>3551</v>
       </c>
       <c r="K597" t="n">
-        <v>20.54794520547945</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="L597" t="n">
         <v>3196.4</v>
@@ -30726,7 +30748,7 @@
         <v>3570</v>
       </c>
       <c r="K598" t="n">
-        <v>-12.94117647058824</v>
+        <v>-6.122448979591836</v>
       </c>
       <c r="L598" t="n">
         <v>3196.1</v>
@@ -30777,7 +30799,7 @@
         <v>3572</v>
       </c>
       <c r="K599" t="n">
-        <v>-16.27906976744186</v>
+        <v>-12</v>
       </c>
       <c r="L599" t="n">
         <v>3195.6</v>
@@ -30828,7 +30850,7 @@
         <v>3573</v>
       </c>
       <c r="K600" t="n">
-        <v>-12.94117647058824</v>
+        <v>-24.44444444444444</v>
       </c>
       <c r="L600" t="n">
         <v>3195.1</v>
@@ -30879,7 +30901,7 @@
         <v>3573</v>
       </c>
       <c r="K601" t="n">
-        <v>-15.66265060240964</v>
+        <v>-12.82051282051282</v>
       </c>
       <c r="L601" t="n">
         <v>3194</v>
@@ -30930,7 +30952,7 @@
         <v>3589</v>
       </c>
       <c r="K602" t="n">
-        <v>10.8695652173913</v>
+        <v>6.382978723404255</v>
       </c>
       <c r="L602" t="n">
         <v>3195.1</v>
@@ -30981,7 +31003,7 @@
         <v>3589</v>
       </c>
       <c r="K603" t="n">
-        <v>5.747126436781609</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="L603" t="n">
         <v>3195.4</v>
@@ -31032,7 +31054,7 @@
         <v>3594</v>
       </c>
       <c r="K604" t="n">
-        <v>6.976744186046512</v>
+        <v>-10.20408163265306</v>
       </c>
       <c r="L604" t="n">
         <v>3195</v>
@@ -31083,7 +31105,7 @@
         <v>3600</v>
       </c>
       <c r="K605" t="n">
-        <v>-6.976744186046512</v>
+        <v>-32</v>
       </c>
       <c r="L605" t="n">
         <v>3193.9</v>
@@ -31134,7 +31156,7 @@
         <v>3600</v>
       </c>
       <c r="K606" t="n">
-        <v>1.265822784810127</v>
+        <v>-30.61224489795918</v>
       </c>
       <c r="L606" t="n">
         <v>3192.3</v>
@@ -31185,7 +31207,7 @@
         <v>3607</v>
       </c>
       <c r="K607" t="n">
-        <v>9.302325581395349</v>
+        <v>29.72972972972973</v>
       </c>
       <c r="L607" t="n">
         <v>3191.5</v>
@@ -31236,7 +31258,7 @@
         <v>3616</v>
       </c>
       <c r="K608" t="n">
-        <v>-1.052631578947368</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L608" t="n">
         <v>3191.7</v>
@@ -31287,7 +31309,7 @@
         <v>3616</v>
       </c>
       <c r="K609" t="n">
-        <v>-1.052631578947368</v>
+        <v>6.976744186046512</v>
       </c>
       <c r="L609" t="n">
         <v>3192.1</v>
@@ -31338,7 +31360,7 @@
         <v>3616</v>
       </c>
       <c r="K610" t="n">
-        <v>-2.127659574468085</v>
+        <v>6.976744186046512</v>
       </c>
       <c r="L610" t="n">
         <v>3192.4</v>
@@ -31389,7 +31411,7 @@
         <v>3623</v>
       </c>
       <c r="K611" t="n">
-        <v>-1.052631578947368</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L611" t="n">
         <v>3193.4</v>
@@ -31440,7 +31462,7 @@
         <v>3629</v>
       </c>
       <c r="K612" t="n">
-        <v>-1.052631578947368</v>
+        <v>-30</v>
       </c>
       <c r="L612" t="n">
         <v>3192.2</v>
@@ -31491,7 +31513,7 @@
         <v>3630</v>
       </c>
       <c r="K613" t="n">
-        <v>-11.36363636363636</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L613" t="n">
         <v>3190.9</v>
@@ -31542,7 +31564,7 @@
         <v>3630</v>
       </c>
       <c r="K614" t="n">
-        <v>-13.95348837209302</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L614" t="n">
         <v>3190.1</v>
@@ -31593,7 +31615,7 @@
         <v>3641</v>
       </c>
       <c r="K615" t="n">
-        <v>-25</v>
+        <v>-31.70731707317073</v>
       </c>
       <c r="L615" t="n">
         <v>3188.8</v>
@@ -31644,7 +31666,7 @@
         <v>3642</v>
       </c>
       <c r="K616" t="n">
-        <v>-32.60869565217391</v>
+        <v>-60</v>
       </c>
       <c r="L616" t="n">
         <v>3187.4</v>
@@ -31695,7 +31717,7 @@
         <v>3649</v>
       </c>
       <c r="K617" t="n">
-        <v>-36.73469387755102</v>
+        <v>-57.57575757575758</v>
       </c>
       <c r="L617" t="n">
         <v>3184.6</v>
@@ -31746,7 +31768,7 @@
         <v>3656</v>
       </c>
       <c r="K618" t="n">
-        <v>-11.62790697674419</v>
+        <v>-30</v>
       </c>
       <c r="L618" t="n">
         <v>3183.4</v>
@@ -31797,7 +31819,7 @@
         <v>3656</v>
       </c>
       <c r="K619" t="n">
-        <v>-9.523809523809524</v>
+        <v>-30</v>
       </c>
       <c r="L619" t="n">
         <v>3182.2</v>
@@ -31848,7 +31870,7 @@
         <v>3666</v>
       </c>
       <c r="K620" t="n">
-        <v>1.075268817204301</v>
+        <v>-20.93023255813954</v>
       </c>
       <c r="L620" t="n">
         <v>3182</v>
@@ -31899,7 +31921,7 @@
         <v>3675</v>
       </c>
       <c r="K621" t="n">
-        <v>-7.84313725490196</v>
+        <v>-26.08695652173913</v>
       </c>
       <c r="L621" t="n">
         <v>3180.2</v>
@@ -31950,7 +31972,7 @@
         <v>3684</v>
       </c>
       <c r="K622" t="n">
-        <v>-15.78947368421053</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L622" t="n">
         <v>3179.9</v>
@@ -32001,7 +32023,7 @@
         <v>3685</v>
       </c>
       <c r="K623" t="n">
-        <v>-16.66666666666666</v>
+        <v>-5.454545454545454</v>
       </c>
       <c r="L623" t="n">
         <v>3179.6</v>
@@ -32052,7 +32074,7 @@
         <v>3692</v>
       </c>
       <c r="K624" t="n">
-        <v>-18.36734693877551</v>
+        <v>1.96078431372549</v>
       </c>
       <c r="L624" t="n">
         <v>3178.6</v>
@@ -32103,7 +32125,7 @@
         <v>3700</v>
       </c>
       <c r="K625" t="n">
-        <v>-4</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L625" t="n">
         <v>3179.5</v>
@@ -32154,7 +32176,7 @@
         <v>3709</v>
       </c>
       <c r="K626" t="n">
-        <v>-11.92660550458716</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L626" t="n">
         <v>3179.6</v>
@@ -32205,7 +32227,7 @@
         <v>3719</v>
       </c>
       <c r="K627" t="n">
-        <v>-8.928571428571429</v>
+        <v>17.46031746031746</v>
       </c>
       <c r="L627" t="n">
         <v>3181.4</v>
@@ -32256,7 +32278,7 @@
         <v>3721</v>
       </c>
       <c r="K628" t="n">
-        <v>-2.857142857142857</v>
+        <v>13.84615384615385</v>
       </c>
       <c r="L628" t="n">
         <v>3182.3</v>
@@ -32307,7 +32329,7 @@
         <v>3724</v>
       </c>
       <c r="K629" t="n">
-        <v>-5.555555555555555</v>
+        <v>-6.896551724137931</v>
       </c>
       <c r="L629" t="n">
         <v>3182.9</v>
@@ -32358,7 +32380,7 @@
         <v>3727</v>
       </c>
       <c r="K630" t="n">
-        <v>-2.702702702702703</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L630" t="n">
         <v>3182.8</v>
@@ -32409,7 +32431,7 @@
         <v>3727</v>
       </c>
       <c r="K631" t="n">
-        <v>-9.615384615384617</v>
+        <v>-2.325581395348837</v>
       </c>
       <c r="L631" t="n">
         <v>3183.6</v>
@@ -32460,7 +32482,7 @@
         <v>3730</v>
       </c>
       <c r="K632" t="n">
-        <v>-0.9900990099009901</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L632" t="n">
         <v>3183.8</v>
@@ -32511,7 +32533,7 @@
         <v>3730</v>
       </c>
       <c r="K633" t="n">
-        <v>0</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L633" t="n">
         <v>3184.1</v>
@@ -32562,7 +32584,7 @@
         <v>3730</v>
       </c>
       <c r="K634" t="n">
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L634" t="n">
         <v>3185.1</v>
@@ -32613,7 +32635,7 @@
         <v>3730</v>
       </c>
       <c r="K635" t="n">
-        <v>12.35955056179775</v>
+        <v>52.38095238095239</v>
       </c>
       <c r="L635" t="n">
         <v>3185.3</v>
@@ -32664,7 +32686,7 @@
         <v>3730</v>
       </c>
       <c r="K636" t="n">
-        <v>13.63636363636363</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L636" t="n">
         <v>3186.4</v>
@@ -32715,7 +32737,7 @@
         <v>3732</v>
       </c>
       <c r="K637" t="n">
-        <v>25.30120481927711</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L637" t="n">
         <v>3186.7</v>
@@ -32766,7 +32788,7 @@
         <v>3733</v>
       </c>
       <c r="K638" t="n">
-        <v>19.48051948051948</v>
+        <v>100</v>
       </c>
       <c r="L638" t="n">
         <v>3187.3</v>
@@ -32817,7 +32839,7 @@
         <v>3736</v>
       </c>
       <c r="K639" t="n">
-        <v>15</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L639" t="n">
         <v>3187.9</v>
@@ -32868,7 +32890,7 @@
         <v>3740</v>
       </c>
       <c r="K640" t="n">
-        <v>-2.702702702702703</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L640" t="n">
         <v>3187.8</v>
@@ -32919,7 +32941,7 @@
         <v>3740</v>
       </c>
       <c r="K641" t="n">
-        <v>10.76923076923077</v>
+        <v>-40</v>
       </c>
       <c r="L641" t="n">
         <v>3187.7</v>
@@ -32970,7 +32992,7 @@
         <v>3741</v>
       </c>
       <c r="K642" t="n">
-        <v>-5.263157894736842</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L642" t="n">
         <v>3187.2</v>
@@ -33021,7 +33043,7 @@
         <v>3741</v>
       </c>
       <c r="K643" t="n">
-        <v>-3.571428571428571</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L643" t="n">
         <v>3186.7</v>
@@ -33072,7 +33094,7 @@
         <v>3746</v>
       </c>
       <c r="K644" t="n">
-        <v>18.51851851851852</v>
+        <v>0</v>
       </c>
       <c r="L644" t="n">
         <v>3186.7</v>
@@ -33123,7 +33145,7 @@
         <v>3746</v>
       </c>
       <c r="K645" t="n">
-        <v>4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L645" t="n">
         <v>3186.7</v>
@@ -33174,7 +33196,7 @@
         <v>3746</v>
       </c>
       <c r="K646" t="n">
-        <v>29.72972972972973</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L646" t="n">
         <v>3186.7</v>
@@ -33225,7 +33247,7 @@
         <v>3748</v>
       </c>
       <c r="K647" t="n">
-        <v>10.3448275862069</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L647" t="n">
         <v>3186.7</v>
@@ -33276,7 +33298,7 @@
         <v>3749</v>
       </c>
       <c r="K648" t="n">
-        <v>21.42857142857143</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L648" t="n">
         <v>3186.7</v>
@@ -33327,7 +33349,7 @@
         <v>3749</v>
       </c>
       <c r="K649" t="n">
-        <v>36</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L649" t="n">
         <v>3187</v>
@@ -33378,7 +33400,7 @@
         <v>3764</v>
       </c>
       <c r="K650" t="n">
-        <v>56.75675675675676</v>
+        <v>91.66666666666666</v>
       </c>
       <c r="L650" t="n">
         <v>3189.2</v>
@@ -33429,7 +33451,7 @@
         <v>3777</v>
       </c>
       <c r="K651" t="n">
-        <v>16</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="L651" t="n">
         <v>3190.1</v>
@@ -33480,7 +33502,7 @@
         <v>3789</v>
       </c>
       <c r="K652" t="n">
-        <v>28.8135593220339</v>
+        <v>45.83333333333333</v>
       </c>
       <c r="L652" t="n">
         <v>3192.3</v>
@@ -33531,7 +33553,7 @@
         <v>3789</v>
       </c>
       <c r="K653" t="n">
-        <v>28.8135593220339</v>
+        <v>39.53488372093023</v>
       </c>
       <c r="L653" t="n">
         <v>3194.5</v>
@@ -33582,7 +33604,7 @@
         <v>3794</v>
       </c>
       <c r="K654" t="n">
-        <v>34.375</v>
+        <v>45.83333333333333</v>
       </c>
       <c r="L654" t="n">
         <v>3196.7</v>
@@ -33633,7 +33655,7 @@
         <v>3804</v>
       </c>
       <c r="K655" t="n">
-        <v>43.24324324324324</v>
+        <v>55.17241379310344</v>
       </c>
       <c r="L655" t="n">
         <v>3199.9</v>
@@ -33684,7 +33706,7 @@
         <v>3806</v>
       </c>
       <c r="K656" t="n">
-        <v>44.73684210526316</v>
+        <v>55.17241379310344</v>
       </c>
       <c r="L656" t="n">
         <v>3203.3</v>
@@ -33735,7 +33757,7 @@
         <v>3807</v>
       </c>
       <c r="K657" t="n">
-        <v>41.33333333333334</v>
+        <v>51.72413793103448</v>
       </c>
       <c r="L657" t="n">
         <v>3206.4</v>
@@ -33786,7 +33808,7 @@
         <v>3818</v>
       </c>
       <c r="K658" t="n">
-        <v>22.35294117647059</v>
+        <v>27.53623188405797</v>
       </c>
       <c r="L658" t="n">
         <v>3208.3</v>
@@ -33837,7 +33859,7 @@
         <v>3827</v>
       </c>
       <c r="K659" t="n">
-        <v>14.28571428571428</v>
+        <v>-7.936507936507936</v>
       </c>
       <c r="L659" t="n">
         <v>3209.3</v>

--- a/BackTest/2019-10-24 BackTest LINK.xlsx
+++ b/BackTest/2019-10-24 BackTest LINK.xlsx
@@ -1571,225 +1571,217 @@
         <v>3057.65</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>3008</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3009</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3007</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3009</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3007</v>
+      </c>
+      <c r="F35" t="n">
+        <v>267.786</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3057.183333333333</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3007</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3007</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3007</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3007</v>
+      </c>
+      <c r="F36" t="n">
+        <v>326.6409</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3056.916666666667</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3007</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3007</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3007</v>
+      </c>
+      <c r="C37" t="n">
+        <v>3007</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3007</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3007</v>
+      </c>
+      <c r="F37" t="n">
+        <v>30.5114</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3056.666666666667</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3007</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3007</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3007</v>
+      </c>
+      <c r="C38" t="n">
+        <v>3007</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3007</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3007</v>
+      </c>
+      <c r="F38" t="n">
+        <v>25</v>
+      </c>
+      <c r="G38" t="n">
+        <v>3056.266666666667</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3007</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3007</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3015</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3007</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3016</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3007</v>
+      </c>
+      <c r="F39" t="n">
+        <v>217.7724</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3055.4</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3007</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3007</v>
+      </c>
+      <c r="L39" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>3009</v>
-      </c>
-      <c r="C35" t="n">
-        <v>3007</v>
-      </c>
-      <c r="D35" t="n">
-        <v>3009</v>
-      </c>
-      <c r="E35" t="n">
-        <v>3007</v>
-      </c>
-      <c r="F35" t="n">
-        <v>267.786</v>
-      </c>
-      <c r="G35" t="n">
-        <v>3057.183333333333</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3009</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>3007</v>
-      </c>
-      <c r="C36" t="n">
-        <v>3007</v>
-      </c>
-      <c r="D36" t="n">
-        <v>3007</v>
-      </c>
-      <c r="E36" t="n">
-        <v>3007</v>
-      </c>
-      <c r="F36" t="n">
-        <v>326.6409</v>
-      </c>
-      <c r="G36" t="n">
-        <v>3056.916666666667</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3007</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>3007</v>
-      </c>
-      <c r="C37" t="n">
-        <v>3007</v>
-      </c>
-      <c r="D37" t="n">
-        <v>3007</v>
-      </c>
-      <c r="E37" t="n">
-        <v>3007</v>
-      </c>
-      <c r="F37" t="n">
-        <v>30.5114</v>
-      </c>
-      <c r="G37" t="n">
-        <v>3056.666666666667</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3007</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>3007</v>
-      </c>
-      <c r="C38" t="n">
-        <v>3007</v>
-      </c>
-      <c r="D38" t="n">
-        <v>3007</v>
-      </c>
-      <c r="E38" t="n">
-        <v>3007</v>
-      </c>
-      <c r="F38" t="n">
-        <v>25</v>
-      </c>
-      <c r="G38" t="n">
-        <v>3056.266666666667</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3007</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>3015</v>
-      </c>
-      <c r="C39" t="n">
-        <v>3007</v>
-      </c>
-      <c r="D39" t="n">
-        <v>3016</v>
-      </c>
-      <c r="E39" t="n">
-        <v>3007</v>
-      </c>
-      <c r="F39" t="n">
-        <v>217.7724</v>
-      </c>
-      <c r="G39" t="n">
-        <v>3055.4</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3015</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1823,9 +1815,11 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>3008</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
+        <v>3007</v>
+      </c>
+      <c r="K40" t="n">
+        <v>3007</v>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1866,7 +1860,9 @@
       <c r="J41" t="n">
         <v>3008</v>
       </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>3007</v>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1899,15 +1895,15 @@
         <v>3052.233333333333</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>3003</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>3007</v>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1940,15 +1936,15 @@
         <v>3050.966666666667</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>3002</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>3007</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1981,15 +1977,15 @@
         <v>3049.666666666667</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>3002</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>3007</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2022,15 +2018,15 @@
         <v>3048.566666666667</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>3017</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>3007</v>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2063,15 +2059,15 @@
         <v>3047.133333333333</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>3018</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>3007</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2104,15 +2100,15 @@
         <v>3045.633333333333</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>3018</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>3007</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2145,15 +2141,15 @@
         <v>3044.416666666667</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>3018</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>3007</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2186,15 +2182,15 @@
         <v>3043.016666666667</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>3008</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>3007</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2227,15 +2223,15 @@
         <v>3041.516666666667</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>3008</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>3007</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2268,15 +2264,15 @@
         <v>3040.083333333333</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>3017</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>3007</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2309,15 +2305,15 @@
         <v>3038.416666666667</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>3018</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>3007</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2350,15 +2346,15 @@
         <v>3037.1</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>3020</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>3007</v>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2391,15 +2387,15 @@
         <v>3036.133333333333</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>3035</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>3007</v>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2432,15 +2428,15 @@
         <v>3035.016666666667</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>3026</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>3007</v>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2473,15 +2469,15 @@
         <v>3034.05</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>3025</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>3007</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2514,15 +2510,15 @@
         <v>3033.066666666667</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>3035</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>3007</v>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2555,15 +2551,15 @@
         <v>3032.35</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>3037</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>3007</v>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2596,15 +2592,15 @@
         <v>3031.633333333333</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>3042</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>3007</v>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2637,15 +2633,15 @@
         <v>3030.65</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>3044</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>3007</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2678,15 +2674,15 @@
         <v>3030.066666666667</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>3039</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>3007</v>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2719,15 +2715,15 @@
         <v>3029.416666666667</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>3030</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>3007</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2760,15 +2756,15 @@
         <v>3028.766666666667</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>3029</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>3007</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2801,15 +2797,15 @@
         <v>3028.066666666667</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>3029</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>3007</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2842,15 +2838,15 @@
         <v>3027</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>3024</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>3007</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2883,15 +2879,15 @@
         <v>3025.933333333333</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>3019</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>3007</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2924,15 +2920,15 @@
         <v>3024.816666666667</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>3008</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>3007</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2965,15 +2961,15 @@
         <v>3023.966666666667</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
         <v>3007</v>
       </c>
-      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3006,15 +3002,15 @@
         <v>3023.15</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>3008</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>3007</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3047,15 +3043,15 @@
         <v>3022.916666666667</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>3008</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>3007</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3088,15 +3084,15 @@
         <v>3022.733333333333</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>3009</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>3007</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3129,15 +3125,15 @@
         <v>3022.2</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>3011</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>3007</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3170,15 +3166,15 @@
         <v>3021.933333333333</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>3014</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>3007</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3211,15 +3207,15 @@
         <v>3021.85</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>3021</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>3007</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3252,15 +3248,15 @@
         <v>3021.7</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>3025</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>3007</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3293,15 +3289,15 @@
         <v>3021.416666666667</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>3021</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>3007</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3334,15 +3330,15 @@
         <v>3021.083333333333</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>3021</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>3007</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3375,15 +3371,15 @@
         <v>3020.816666666667</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>3021</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>3007</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3416,15 +3412,15 @@
         <v>3020.35</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>3020</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>3007</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3457,15 +3453,15 @@
         <v>3019.733333333333</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>3021</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>3007</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3498,15 +3494,15 @@
         <v>3019.25</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>3021</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>3007</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3539,15 +3535,15 @@
         <v>3018.766666666667</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>3021</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>3007</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3580,15 +3576,15 @@
         <v>3018.25</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>3023</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>3007</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3621,15 +3617,15 @@
         <v>3017.916666666667</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>3020</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>3007</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3662,15 +3658,15 @@
         <v>3017.466666666667</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>3015</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>3007</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3703,15 +3699,15 @@
         <v>3017.483333333333</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>3023</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>3007</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3744,15 +3740,15 @@
         <v>3017.416666666667</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>3016</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>3007</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3785,15 +3781,15 @@
         <v>3017.466666666667</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>3026</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>3007</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3826,15 +3822,15 @@
         <v>3018.066666666667</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>3037</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>3007</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3867,15 +3863,15 @@
         <v>3018.766666666667</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>3054</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>3007</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3908,15 +3904,15 @@
         <v>3019.6</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>3063</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>3007</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3949,15 +3945,15 @@
         <v>3020.333333333333</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>3068</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>3007</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3996,7 +3992,9 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>3007</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4035,7 +4033,9 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>3007</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4074,7 +4074,9 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>3007</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4113,7 +4115,9 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>3007</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4152,7 +4156,9 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>3007</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4191,7 +4197,9 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>3007</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4230,7 +4238,9 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>3007</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4269,7 +4279,9 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>3007</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4308,7 +4320,9 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>3007</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4347,7 +4361,9 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>3007</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4386,7 +4402,9 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>3007</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4425,7 +4443,9 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>3007</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4464,7 +4484,9 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>3007</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4503,7 +4525,9 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>3007</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4542,7 +4566,9 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>3007</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4581,7 +4607,9 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>3007</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4620,7 +4648,9 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>3007</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4659,7 +4689,9 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>3007</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4698,7 +4730,9 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>3007</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4737,7 +4771,9 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>3007</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4776,7 +4812,9 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>3007</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4815,7 +4853,9 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>3007</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4854,7 +4894,9 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>3007</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4893,7 +4935,9 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>3007</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4932,7 +4976,9 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>3007</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4971,7 +5017,9 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>3007</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5010,7 +5058,9 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>3007</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5049,7 +5099,9 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>3007</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5088,7 +5140,9 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>3007</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5127,7 +5181,9 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>3007</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5166,7 +5222,9 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>3007</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5205,7 +5263,9 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>3007</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5244,7 +5304,9 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>3007</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5283,7 +5345,9 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>3007</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5322,7 +5386,9 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>3007</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5361,7 +5427,9 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>3007</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5400,7 +5468,9 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>3007</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5439,7 +5509,9 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>3007</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5478,7 +5550,9 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>3007</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5517,7 +5591,9 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>3007</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5556,7 +5632,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>3007</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5595,7 +5673,9 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>3007</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5634,7 +5714,9 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>3007</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5673,7 +5755,9 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>3007</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5712,7 +5796,9 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>3007</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5748,17 +5834,19 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>3007</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M138" t="n">
-        <v>1</v>
+        <v>1.043553375457267</v>
       </c>
     </row>
     <row r="139">
@@ -5787,15 +5875,11 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5830,12 +5914,10 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5968,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
@@ -6038,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
@@ -6108,7 +6190,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
@@ -6143,7 +6225,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
@@ -6178,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
@@ -6318,7 +6400,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
@@ -6388,7 +6470,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
@@ -6423,7 +6505,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>

--- a/BackTest/2019-10-24 BackTest LINK.xlsx
+++ b/BackTest/2019-10-24 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-4437.963579853236</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-7067.271879853237</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>3034</v>
@@ -523,7 +523,7 @@
         <v>-9597.879279853238</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>3029</v>
@@ -562,7 +562,7 @@
         <v>-9584.879279853238</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>3020</v>
@@ -601,7 +601,7 @@
         <v>-9333.126779853237</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>3033</v>
@@ -640,7 +640,7 @@
         <v>-9333.126779853237</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>3040</v>
@@ -679,7 +679,7 @@
         <v>-9340.081679853238</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>3040</v>
@@ -718,9 +718,11 @@
         <v>-9315.639979853238</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3036</v>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -755,9 +757,11 @@
         <v>-9315.639979853238</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3048</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -792,9 +796,11 @@
         <v>-9612.089979853239</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3048</v>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -829,7 +835,7 @@
         <v>-9612.089979853239</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>3040</v>
@@ -868,7 +874,7 @@
         <v>-11018.34577985324</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>3040</v>
@@ -907,7 +913,7 @@
         <v>-12440.67807985324</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>3034</v>
@@ -946,7 +952,7 @@
         <v>-12439.92807985324</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>3022</v>
@@ -985,7 +991,7 @@
         <v>-12330.21427985324</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>3026</v>
@@ -1024,7 +1030,7 @@
         <v>-12480.21427985324</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>3031</v>
@@ -1063,7 +1069,7 @@
         <v>-12480.21427985324</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>3022</v>
@@ -1102,7 +1108,7 @@
         <v>-12954.02077985324</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>3022</v>
@@ -1141,7 +1147,7 @@
         <v>-12954.02077985324</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>3018</v>
@@ -1180,7 +1186,7 @@
         <v>-12920.59527985324</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>3018</v>
@@ -1219,9 +1225,11 @@
         <v>-12920.59527985324</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3019</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -1256,7 +1264,7 @@
         <v>-12920.59527985324</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>3019</v>
@@ -1295,9 +1303,11 @@
         <v>-12920.59527985324</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3019</v>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1332,9 +1342,11 @@
         <v>-13298.02557985324</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3019</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1369,9 +1381,11 @@
         <v>-15778.24817985324</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3007</v>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
@@ -1406,9 +1420,11 @@
         <v>-15907.03847985324</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3000</v>
+      </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
@@ -1443,9 +1459,11 @@
         <v>-15906.03847985324</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2984</v>
+      </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
@@ -1480,9 +1498,11 @@
         <v>-15907.03847985324</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3016</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1517,9 +1537,11 @@
         <v>-15896.37927985324</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3005</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1554,9 +1576,11 @@
         <v>-15885.98167985324</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3018</v>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1591,9 +1615,11 @@
         <v>-15885.88167985324</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3020</v>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1628,9 +1654,11 @@
         <v>-15885.88167985324</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3035</v>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1665,9 +1693,11 @@
         <v>-15885.88167985324</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3035</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1702,7 +1732,7 @@
         <v>-17734.90567985324</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>3035</v>
@@ -1741,7 +1771,7 @@
         <v>-18135.50597985324</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>3023</v>
@@ -1780,9 +1810,11 @@
         <v>-18121.87037985324</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3022</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1817,7 +1849,7 @@
         <v>-17978.13407985324</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>3031</v>
@@ -1856,9 +1888,11 @@
         <v>-19354.45057985324</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3059</v>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -1893,9 +1927,11 @@
         <v>-19144.01147985324</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3057</v>
+      </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1930,9 +1966,11 @@
         <v>-16322.44937985324</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3068</v>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -2004,11 +2042,9 @@
         <v>-10837.33827985324</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>3078</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2043,11 +2079,9 @@
         <v>-10632.85537985324</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>3080</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2267,16 +2301,18 @@
         <v>-8053.452979853242</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
       <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
@@ -2306,7 +2342,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2339,7 +2379,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2372,7 +2416,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2405,7 +2453,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2438,7 +2490,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2471,7 +2527,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2504,7 +2564,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2537,7 +2601,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2570,7 +2638,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2603,7 +2675,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2636,7 +2712,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2669,7 +2749,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2702,7 +2786,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2735,7 +2823,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2768,7 +2860,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2801,7 +2897,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2830,11 +2930,17 @@
         <v>-10209.99937985325</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3075</v>
+      </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2863,11 +2969,17 @@
         <v>-11278.41596716106</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>3058</v>
+      </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2896,11 +3008,17 @@
         <v>-13402.70556716106</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>3057</v>
+      </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2929,11 +3047,17 @@
         <v>-13423.65036716106</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3022</v>
+      </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2962,11 +3086,17 @@
         <v>-13316.65046716106</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>3020</v>
+      </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2995,11 +3125,17 @@
         <v>-13660.00416716106</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3041</v>
+      </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3028,11 +3164,17 @@
         <v>-13660.00416716106</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3030</v>
+      </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3061,11 +3203,17 @@
         <v>-13660.00416716106</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3030</v>
+      </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3094,11 +3242,17 @@
         <v>-13637.40056716106</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>3030</v>
+      </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3127,11 +3281,17 @@
         <v>-13137.40056716106</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>3038</v>
+      </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3160,11 +3320,17 @@
         <v>-13139.37806716106</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>3041</v>
+      </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3193,11 +3359,17 @@
         <v>-12739.37806716106</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>3037</v>
+      </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3226,11 +3398,17 @@
         <v>-12530.75406716106</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>3048</v>
+      </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3259,11 +3437,17 @@
         <v>-12552.25716716106</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>3066</v>
+      </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3292,11 +3476,17 @@
         <v>-12573.81696716106</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>3050</v>
+      </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3325,11 +3515,17 @@
         <v>-10564.48406716106</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>3049</v>
+      </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3358,11 +3554,17 @@
         <v>-10592.41406716106</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>3054</v>
+      </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3391,11 +3593,17 @@
         <v>-7786.277167161064</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>3040</v>
+      </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3424,11 +3632,17 @@
         <v>-7993.919567161064</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>3042</v>
+      </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3457,11 +3671,17 @@
         <v>-8175.196467161064</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>3024</v>
+      </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3490,11 +3710,17 @@
         <v>-8175.196467161064</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>3020</v>
+      </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3523,11 +3749,17 @@
         <v>-8281.196467161064</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>3020</v>
+      </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3556,11 +3788,17 @@
         <v>-8281.196467161064</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>3018</v>
+      </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3589,11 +3827,17 @@
         <v>-8281.196467161064</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>3018</v>
+      </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3622,11 +3866,17 @@
         <v>-8549.340867161063</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>3018</v>
+      </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3655,11 +3905,17 @@
         <v>-8868.693167161064</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>3016</v>
+      </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3688,11 +3944,17 @@
         <v>-9467.693167161064</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>3008</v>
+      </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3721,11 +3983,17 @@
         <v>-9467.693167161064</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>3007</v>
+      </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3754,11 +4022,17 @@
         <v>-9467.693167161064</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>3007</v>
+      </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3787,11 +4061,17 @@
         <v>-9467.693167161064</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>3007</v>
+      </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3820,11 +4100,17 @@
         <v>-9467.693167161064</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>3007</v>
+      </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3853,11 +4139,17 @@
         <v>-9467.693167161064</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>3007</v>
+      </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3886,11 +4178,17 @@
         <v>-9417.693167161064</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>3007</v>
+      </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3919,11 +4217,17 @@
         <v>-10417.69316716106</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>3008</v>
+      </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3952,11 +4256,17 @@
         <v>-10085.24636716106</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>3000</v>
+      </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3985,11 +4295,17 @@
         <v>-10185.13036716106</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>3003</v>
+      </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4018,11 +4334,17 @@
         <v>-10185.13036716106</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>3002</v>
+      </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4051,11 +4373,17 @@
         <v>-10184.13036716106</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>3002</v>
+      </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4084,11 +4412,17 @@
         <v>-10111.75066716106</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>3017</v>
+      </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4121,7 +4455,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4154,7 +4492,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4187,7 +4529,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4220,7 +4566,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4253,7 +4603,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4286,7 +4640,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4319,7 +4677,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4352,7 +4714,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4385,7 +4751,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4418,7 +4788,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4451,7 +4825,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4484,7 +4862,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4513,15 +4895,15 @@
         <v>-8099.896967161064</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="n">
-        <v>3037</v>
-      </c>
-      <c r="J118" t="n">
-        <v>3037</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4550,17 +4932,13 @@
         <v>-8291.311567161063</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="n">
-        <v>3041</v>
-      </c>
-      <c r="J119" t="n">
-        <v>3037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L119" t="n">
@@ -4591,14 +4969,10 @@
         <v>-8290.311567161063</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="n">
-        <v>3029</v>
-      </c>
-      <c r="J120" t="n">
-        <v>3037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4635,9 +5009,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>3037</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4671,14 +5043,10 @@
         <v>-8449.867267161064</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="n">
-        <v>3029</v>
-      </c>
-      <c r="J122" t="n">
-        <v>3037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4712,14 +5080,10 @@
         <v>-9368.497167161064</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>3029</v>
-      </c>
-      <c r="J123" t="n">
-        <v>3037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4753,14 +5117,10 @@
         <v>-9373.497167161064</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="n">
-        <v>3025</v>
-      </c>
-      <c r="J124" t="n">
-        <v>3037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4794,14 +5154,10 @@
         <v>-9400.873167161064</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="n">
-        <v>3020</v>
-      </c>
-      <c r="J125" t="n">
-        <v>3037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4835,12 +5191,12 @@
         <v>-9400.873167161064</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>3037</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>3008</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4874,12 +5230,12 @@
         <v>-9405.801967161064</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>3037</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>3008</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4913,12 +5269,12 @@
         <v>-9065.604767161063</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>3037</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>3007</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4952,12 +5308,12 @@
         <v>-9065.604767161063</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>3037</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>3008</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4991,12 +5347,12 @@
         <v>-9024.312767161064</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>3037</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>3008</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5030,12 +5386,12 @@
         <v>-9024.312767161064</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>3037</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>3009</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5069,12 +5425,12 @@
         <v>-9004.312767161064</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>3037</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>3009</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5108,12 +5464,12 @@
         <v>-8380.967067161064</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>3037</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>3014</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5150,9 +5506,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>3037</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5189,9 +5543,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>3037</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5228,9 +5580,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>3037</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5267,9 +5617,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>3037</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5303,14 +5651,10 @@
         <v>-9114.775467161064</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="n">
-        <v>3021</v>
-      </c>
-      <c r="J138" t="n">
-        <v>3037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5347,9 +5691,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>3037</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5383,14 +5725,10 @@
         <v>-7977.325867161064</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="n">
-        <v>3029</v>
-      </c>
-      <c r="J140" t="n">
-        <v>3037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5424,14 +5762,10 @@
         <v>-8745.692367161064</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="n">
-        <v>3021</v>
-      </c>
-      <c r="J141" t="n">
-        <v>3037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5465,14 +5799,10 @@
         <v>-8744.692367161064</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="n">
-        <v>3020</v>
-      </c>
-      <c r="J142" t="n">
-        <v>3037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5506,14 +5836,12 @@
         <v>-9041.510467161064</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>3023</v>
       </c>
-      <c r="J143" t="n">
-        <v>3037</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5547,14 +5875,10 @@
         <v>-9051.510467161064</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
-      </c>
-      <c r="I144" t="n">
-        <v>3020</v>
-      </c>
-      <c r="J144" t="n">
-        <v>3037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5588,14 +5912,12 @@
         <v>-9049.510467161064</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>3015</v>
       </c>
-      <c r="J145" t="n">
-        <v>3037</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5629,14 +5951,12 @@
         <v>-9052.510467161064</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>3025</v>
       </c>
-      <c r="J146" t="n">
-        <v>3037</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5670,14 +5990,12 @@
         <v>-8845.096467161064</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>3016</v>
       </c>
-      <c r="J147" t="n">
-        <v>3037</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5711,14 +6029,12 @@
         <v>-8656.849967161064</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>3023</v>
       </c>
-      <c r="J148" t="n">
-        <v>3037</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5752,14 +6068,10 @@
         <v>-7798.922967161065</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="n">
-        <v>3054</v>
-      </c>
-      <c r="J149" t="n">
-        <v>3037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5793,14 +6105,10 @@
         <v>-6140.763367161065</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="n">
-        <v>3060</v>
-      </c>
-      <c r="J150" t="n">
-        <v>3037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5834,14 +6142,10 @@
         <v>-6685.223967161065</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="n">
-        <v>3068</v>
-      </c>
-      <c r="J151" t="n">
-        <v>3037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5878,9 +6182,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>3037</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5914,14 +6216,10 @@
         <v>-6703.518467161065</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I153" t="n">
-        <v>3068</v>
-      </c>
-      <c r="J153" t="n">
-        <v>3037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5955,14 +6253,10 @@
         <v>-6566.163467161065</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
-      </c>
-      <c r="I154" t="n">
-        <v>3064</v>
-      </c>
-      <c r="J154" t="n">
-        <v>3037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5996,14 +6290,10 @@
         <v>-3415.586267161065</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I155" t="n">
-        <v>3067</v>
-      </c>
-      <c r="J155" t="n">
-        <v>3037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6037,14 +6327,10 @@
         <v>-3698.759367161065</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
-      </c>
-      <c r="I156" t="n">
-        <v>3073</v>
-      </c>
-      <c r="J156" t="n">
-        <v>3037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6078,14 +6364,10 @@
         <v>-3546.512667161065</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
-      </c>
-      <c r="I157" t="n">
-        <v>3070</v>
-      </c>
-      <c r="J157" t="n">
-        <v>3037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6122,9 +6404,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>3037</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6161,9 +6441,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>3037</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6197,1967 +6475,2203 @@
         <v>-3649.650067161065</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>3037</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>3093</v>
+      </c>
+      <c r="C161" t="n">
+        <v>3092</v>
+      </c>
+      <c r="D161" t="n">
+        <v>3093</v>
+      </c>
+      <c r="E161" t="n">
+        <v>3083</v>
+      </c>
+      <c r="F161" t="n">
+        <v>88.7568</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-3560.893267161065</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>3092</v>
+      </c>
+      <c r="C162" t="n">
+        <v>3081</v>
+      </c>
+      <c r="D162" t="n">
+        <v>3092</v>
+      </c>
+      <c r="E162" t="n">
+        <v>3081</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2099.231</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-5660.124267161065</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>3088</v>
+      </c>
+      <c r="C163" t="n">
+        <v>3084</v>
+      </c>
+      <c r="D163" t="n">
+        <v>3088</v>
+      </c>
+      <c r="E163" t="n">
+        <v>3084</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1111.9602</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-4548.164067161066</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>3082</v>
+      </c>
+      <c r="C164" t="n">
+        <v>3081</v>
+      </c>
+      <c r="D164" t="n">
+        <v>3082</v>
+      </c>
+      <c r="E164" t="n">
+        <v>3081</v>
+      </c>
+      <c r="F164" t="n">
+        <v>197.1177</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-4745.281767161066</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>3081</v>
+      </c>
+      <c r="C165" t="n">
+        <v>3081</v>
+      </c>
+      <c r="D165" t="n">
+        <v>3082</v>
+      </c>
+      <c r="E165" t="n">
+        <v>3081</v>
+      </c>
+      <c r="F165" t="n">
+        <v>5815.7021</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-4745.281767161066</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>3082</v>
+      </c>
+      <c r="C166" t="n">
+        <v>3082</v>
+      </c>
+      <c r="D166" t="n">
+        <v>3082</v>
+      </c>
+      <c r="E166" t="n">
+        <v>3082</v>
+      </c>
+      <c r="F166" t="n">
+        <v>922.8425</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-3822.439267161066</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>3088</v>
+      </c>
+      <c r="C167" t="n">
+        <v>3087</v>
+      </c>
+      <c r="D167" t="n">
+        <v>3088</v>
+      </c>
+      <c r="E167" t="n">
+        <v>3087</v>
+      </c>
+      <c r="F167" t="n">
+        <v>994.2514</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-2828.187867161066</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>3082</v>
+      </c>
+      <c r="C168" t="n">
+        <v>3082</v>
+      </c>
+      <c r="D168" t="n">
+        <v>3082</v>
+      </c>
+      <c r="E168" t="n">
+        <v>3082</v>
+      </c>
+      <c r="F168" t="n">
+        <v>575</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-3403.187867161066</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>3082</v>
+      </c>
+      <c r="C169" t="n">
+        <v>3082</v>
+      </c>
+      <c r="D169" t="n">
+        <v>3082</v>
+      </c>
+      <c r="E169" t="n">
+        <v>3082</v>
+      </c>
+      <c r="F169" t="n">
+        <v>207.1733</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-3403.187867161066</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>3082</v>
+      </c>
+      <c r="C170" t="n">
+        <v>3082</v>
+      </c>
+      <c r="D170" t="n">
+        <v>3082</v>
+      </c>
+      <c r="E170" t="n">
+        <v>3082</v>
+      </c>
+      <c r="F170" t="n">
+        <v>97.91970000000001</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-3403.187867161066</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>3098</v>
+      </c>
+      <c r="C171" t="n">
+        <v>3098</v>
+      </c>
+      <c r="D171" t="n">
+        <v>3098</v>
+      </c>
+      <c r="E171" t="n">
+        <v>3098</v>
+      </c>
+      <c r="F171" t="n">
+        <v>10</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-3393.187867161066</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>3098</v>
+      </c>
+      <c r="C172" t="n">
+        <v>3099</v>
+      </c>
+      <c r="D172" t="n">
+        <v>3099</v>
+      </c>
+      <c r="E172" t="n">
+        <v>3098</v>
+      </c>
+      <c r="F172" t="n">
+        <v>3659.5519</v>
+      </c>
+      <c r="G172" t="n">
+        <v>266.3640328389342</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>3099</v>
+      </c>
+      <c r="C173" t="n">
+        <v>3099</v>
+      </c>
+      <c r="D173" t="n">
+        <v>3099</v>
+      </c>
+      <c r="E173" t="n">
+        <v>3099</v>
+      </c>
+      <c r="F173" t="n">
+        <v>295.3213</v>
+      </c>
+      <c r="G173" t="n">
+        <v>266.3640328389342</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>3092</v>
+      </c>
+      <c r="C174" t="n">
+        <v>3084</v>
+      </c>
+      <c r="D174" t="n">
+        <v>3092</v>
+      </c>
+      <c r="E174" t="n">
+        <v>3084</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1284.1199</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-1017.755867161066</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>3083</v>
+      </c>
+      <c r="C175" t="n">
+        <v>3080</v>
+      </c>
+      <c r="D175" t="n">
+        <v>3083</v>
+      </c>
+      <c r="E175" t="n">
+        <v>3080</v>
+      </c>
+      <c r="F175" t="n">
+        <v>290.9883</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-1308.744167161066</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>3085</v>
+      </c>
+      <c r="C176" t="n">
+        <v>3081</v>
+      </c>
+      <c r="D176" t="n">
+        <v>3085</v>
+      </c>
+      <c r="E176" t="n">
+        <v>3081</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1584.698</v>
+      </c>
+      <c r="G176" t="n">
+        <v>275.9538328389344</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>3081</v>
+      </c>
+      <c r="C177" t="n">
+        <v>3081</v>
+      </c>
+      <c r="D177" t="n">
+        <v>3081</v>
+      </c>
+      <c r="E177" t="n">
+        <v>3081</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1305.5519</v>
+      </c>
+      <c r="G177" t="n">
+        <v>275.9538328389344</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>3081</v>
+      </c>
+      <c r="C178" t="n">
+        <v>3091</v>
+      </c>
+      <c r="D178" t="n">
+        <v>3091</v>
+      </c>
+      <c r="E178" t="n">
+        <v>3081</v>
+      </c>
+      <c r="F178" t="n">
+        <v>134.4603</v>
+      </c>
+      <c r="G178" t="n">
+        <v>410.4141328389344</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>3081</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>3096</v>
+      </c>
+      <c r="C179" t="n">
+        <v>3096</v>
+      </c>
+      <c r="D179" t="n">
+        <v>3096</v>
+      </c>
+      <c r="E179" t="n">
+        <v>3096</v>
+      </c>
+      <c r="F179" t="n">
+        <v>321.7624</v>
+      </c>
+      <c r="G179" t="n">
+        <v>732.1765328389345</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>3091</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>3100</v>
+      </c>
+      <c r="C180" t="n">
+        <v>3098</v>
+      </c>
+      <c r="D180" t="n">
+        <v>3100</v>
+      </c>
+      <c r="E180" t="n">
+        <v>3097</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1841.7079</v>
+      </c>
+      <c r="G180" t="n">
+        <v>2573.884432838935</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>3100</v>
+      </c>
+      <c r="C181" t="n">
+        <v>3107</v>
+      </c>
+      <c r="D181" t="n">
+        <v>3107</v>
+      </c>
+      <c r="E181" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F181" t="n">
+        <v>2028.9354</v>
+      </c>
+      <c r="G181" t="n">
+        <v>4602.819832838934</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>3107</v>
+      </c>
+      <c r="C182" t="n">
+        <v>3105</v>
+      </c>
+      <c r="D182" t="n">
+        <v>3107</v>
+      </c>
+      <c r="E182" t="n">
+        <v>3105</v>
+      </c>
+      <c r="F182" t="n">
+        <v>279.748</v>
+      </c>
+      <c r="G182" t="n">
+        <v>4323.071832838935</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>3122</v>
+      </c>
+      <c r="C183" t="n">
+        <v>3122</v>
+      </c>
+      <c r="D183" t="n">
+        <v>3122</v>
+      </c>
+      <c r="E183" t="n">
+        <v>3122</v>
+      </c>
+      <c r="F183" t="n">
+        <v>138.604</v>
+      </c>
+      <c r="G183" t="n">
+        <v>4461.675832838935</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>3122</v>
+      </c>
+      <c r="C184" t="n">
+        <v>3125</v>
+      </c>
+      <c r="D184" t="n">
+        <v>3125</v>
+      </c>
+      <c r="E184" t="n">
+        <v>3122</v>
+      </c>
+      <c r="F184" t="n">
+        <v>3023.9026</v>
+      </c>
+      <c r="G184" t="n">
+        <v>7485.578432838935</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>3125</v>
+      </c>
+      <c r="C185" t="n">
+        <v>3125</v>
+      </c>
+      <c r="D185" t="n">
+        <v>3125</v>
+      </c>
+      <c r="E185" t="n">
+        <v>3125</v>
+      </c>
+      <c r="F185" t="n">
+        <v>520</v>
+      </c>
+      <c r="G185" t="n">
+        <v>7485.578432838935</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>3122</v>
+      </c>
+      <c r="C186" t="n">
+        <v>3122</v>
+      </c>
+      <c r="D186" t="n">
+        <v>3122</v>
+      </c>
+      <c r="E186" t="n">
+        <v>3122</v>
+      </c>
+      <c r="F186" t="n">
+        <v>401.7785</v>
+      </c>
+      <c r="G186" t="n">
+        <v>7083.799932838934</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>3119</v>
+      </c>
+      <c r="C187" t="n">
+        <v>3119</v>
+      </c>
+      <c r="D187" t="n">
+        <v>3119</v>
+      </c>
+      <c r="E187" t="n">
+        <v>3119</v>
+      </c>
+      <c r="F187" t="n">
+        <v>135.897</v>
+      </c>
+      <c r="G187" t="n">
+        <v>6947.902932838934</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>3115</v>
+      </c>
+      <c r="C188" t="n">
+        <v>3113</v>
+      </c>
+      <c r="D188" t="n">
+        <v>3115</v>
+      </c>
+      <c r="E188" t="n">
+        <v>3113</v>
+      </c>
+      <c r="F188" t="n">
+        <v>100</v>
+      </c>
+      <c r="G188" t="n">
+        <v>6847.902932838934</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>3120</v>
+      </c>
+      <c r="C189" t="n">
+        <v>3121</v>
+      </c>
+      <c r="D189" t="n">
+        <v>3121</v>
+      </c>
+      <c r="E189" t="n">
+        <v>3120</v>
+      </c>
+      <c r="F189" t="n">
+        <v>3293.5458</v>
+      </c>
+      <c r="G189" t="n">
+        <v>10141.44873283893</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>3110</v>
+      </c>
+      <c r="C190" t="n">
+        <v>3104</v>
+      </c>
+      <c r="D190" t="n">
+        <v>3110</v>
+      </c>
+      <c r="E190" t="n">
+        <v>3104</v>
+      </c>
+      <c r="F190" t="n">
+        <v>561.4</v>
+      </c>
+      <c r="G190" t="n">
+        <v>9580.048732838934</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>3100</v>
+      </c>
+      <c r="C191" t="n">
+        <v>3104</v>
+      </c>
+      <c r="D191" t="n">
+        <v>3104</v>
+      </c>
+      <c r="E191" t="n">
+        <v>3096</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1658.0763</v>
+      </c>
+      <c r="G191" t="n">
+        <v>9580.048732838934</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>3105</v>
+      </c>
+      <c r="C192" t="n">
+        <v>3104</v>
+      </c>
+      <c r="D192" t="n">
+        <v>3105</v>
+      </c>
+      <c r="E192" t="n">
+        <v>3104</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1462.9821</v>
+      </c>
+      <c r="G192" t="n">
+        <v>9580.048732838934</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>3133</v>
+      </c>
+      <c r="C193" t="n">
+        <v>3142</v>
+      </c>
+      <c r="D193" t="n">
+        <v>3142</v>
+      </c>
+      <c r="E193" t="n">
+        <v>3133</v>
+      </c>
+      <c r="F193" t="n">
+        <v>380.8454</v>
+      </c>
+      <c r="G193" t="n">
+        <v>9960.894132838934</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>3144</v>
+      </c>
+      <c r="C194" t="n">
+        <v>3135</v>
+      </c>
+      <c r="D194" t="n">
+        <v>3144</v>
+      </c>
+      <c r="E194" t="n">
+        <v>3135</v>
+      </c>
+      <c r="F194" t="n">
+        <v>918.1449</v>
+      </c>
+      <c r="G194" t="n">
+        <v>9042.749232838934</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>3145</v>
+      </c>
+      <c r="C195" t="n">
+        <v>3150</v>
+      </c>
+      <c r="D195" t="n">
+        <v>3150</v>
+      </c>
+      <c r="E195" t="n">
+        <v>3134</v>
+      </c>
+      <c r="F195" t="n">
+        <v>2596.6746</v>
+      </c>
+      <c r="G195" t="n">
+        <v>11639.42383283893</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>3149</v>
+      </c>
+      <c r="C196" t="n">
+        <v>3153</v>
+      </c>
+      <c r="D196" t="n">
+        <v>3153</v>
+      </c>
+      <c r="E196" t="n">
+        <v>3148</v>
+      </c>
+      <c r="F196" t="n">
+        <v>3632.1135</v>
+      </c>
+      <c r="G196" t="n">
+        <v>15271.53733283893</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>3149</v>
+      </c>
+      <c r="C197" t="n">
+        <v>3153</v>
+      </c>
+      <c r="D197" t="n">
+        <v>3153</v>
+      </c>
+      <c r="E197" t="n">
+        <v>3149</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1321.3004</v>
+      </c>
+      <c r="G197" t="n">
+        <v>15271.53733283893</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>3153</v>
+      </c>
+      <c r="C198" t="n">
+        <v>3156</v>
+      </c>
+      <c r="D198" t="n">
+        <v>3156</v>
+      </c>
+      <c r="E198" t="n">
+        <v>3153</v>
+      </c>
+      <c r="F198" t="n">
+        <v>210.0027</v>
+      </c>
+      <c r="G198" t="n">
+        <v>15481.54003283893</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>3158</v>
+      </c>
+      <c r="C199" t="n">
+        <v>3158</v>
+      </c>
+      <c r="D199" t="n">
+        <v>3158</v>
+      </c>
+      <c r="E199" t="n">
+        <v>3158</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1206.9354</v>
+      </c>
+      <c r="G199" t="n">
+        <v>16688.47543283893</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>3158</v>
+      </c>
+      <c r="C200" t="n">
+        <v>3155</v>
+      </c>
+      <c r="D200" t="n">
+        <v>3158</v>
+      </c>
+      <c r="E200" t="n">
+        <v>3155</v>
+      </c>
+      <c r="F200" t="n">
+        <v>92.4689</v>
+      </c>
+      <c r="G200" t="n">
+        <v>16596.00653283893</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>3155</v>
+      </c>
+      <c r="C201" t="n">
+        <v>3160</v>
+      </c>
+      <c r="D201" t="n">
+        <v>3160</v>
+      </c>
+      <c r="E201" t="n">
+        <v>3149</v>
+      </c>
+      <c r="F201" t="n">
+        <v>3431.2454</v>
+      </c>
+      <c r="G201" t="n">
+        <v>20027.25193283893</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>3151</v>
+      </c>
+      <c r="C202" t="n">
+        <v>3151</v>
+      </c>
+      <c r="D202" t="n">
+        <v>3151</v>
+      </c>
+      <c r="E202" t="n">
+        <v>3151</v>
+      </c>
+      <c r="F202" t="n">
+        <v>620.0383</v>
+      </c>
+      <c r="G202" t="n">
+        <v>19407.21363283893</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>3159</v>
+      </c>
+      <c r="C203" t="n">
+        <v>3160</v>
+      </c>
+      <c r="D203" t="n">
+        <v>3160</v>
+      </c>
+      <c r="E203" t="n">
+        <v>3159</v>
+      </c>
+      <c r="F203" t="n">
+        <v>68.2881</v>
+      </c>
+      <c r="G203" t="n">
+        <v>19475.50173283893</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>3160</v>
+      </c>
+      <c r="C204" t="n">
+        <v>3155</v>
+      </c>
+      <c r="D204" t="n">
+        <v>3160</v>
+      </c>
+      <c r="E204" t="n">
+        <v>3155</v>
+      </c>
+      <c r="F204" t="n">
+        <v>452.783</v>
+      </c>
+      <c r="G204" t="n">
+        <v>19022.71873283893</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>3160</v>
+      </c>
+      <c r="C205" t="n">
+        <v>3170</v>
+      </c>
+      <c r="D205" t="n">
+        <v>3170</v>
+      </c>
+      <c r="E205" t="n">
+        <v>3160</v>
+      </c>
+      <c r="F205" t="n">
+        <v>1554.045402996845</v>
+      </c>
+      <c r="G205" t="n">
+        <v>20576.76413583578</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>3170</v>
+      </c>
+      <c r="C206" t="n">
+        <v>3175</v>
+      </c>
+      <c r="D206" t="n">
+        <v>3175</v>
+      </c>
+      <c r="E206" t="n">
+        <v>3170</v>
+      </c>
+      <c r="F206" t="n">
+        <v>5362.180897003154</v>
+      </c>
+      <c r="G206" t="n">
+        <v>25938.94503283894</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>3174</v>
+      </c>
+      <c r="C207" t="n">
+        <v>3174</v>
+      </c>
+      <c r="D207" t="n">
+        <v>3174</v>
+      </c>
+      <c r="E207" t="n">
+        <v>3174</v>
+      </c>
+      <c r="F207" t="n">
+        <v>10.8757</v>
+      </c>
+      <c r="G207" t="n">
+        <v>25928.06933283894</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>3174</v>
+      </c>
+      <c r="C208" t="n">
+        <v>3174</v>
+      </c>
+      <c r="D208" t="n">
+        <v>3174</v>
+      </c>
+      <c r="E208" t="n">
+        <v>3174</v>
+      </c>
+      <c r="F208" t="n">
+        <v>185.3121</v>
+      </c>
+      <c r="G208" t="n">
+        <v>25928.06933283894</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>3174</v>
+      </c>
+      <c r="C209" t="n">
+        <v>3174</v>
+      </c>
+      <c r="D209" t="n">
+        <v>3174</v>
+      </c>
+      <c r="E209" t="n">
+        <v>3174</v>
+      </c>
+      <c r="F209" t="n">
+        <v>51.3537</v>
+      </c>
+      <c r="G209" t="n">
+        <v>25928.06933283894</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>3175</v>
+      </c>
+      <c r="C210" t="n">
+        <v>3183</v>
+      </c>
+      <c r="D210" t="n">
+        <v>3183</v>
+      </c>
+      <c r="E210" t="n">
+        <v>3175</v>
+      </c>
+      <c r="F210" t="n">
+        <v>2891.3075</v>
+      </c>
+      <c r="G210" t="n">
+        <v>28819.37683283893</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>3182</v>
+      </c>
+      <c r="C211" t="n">
+        <v>3185</v>
+      </c>
+      <c r="D211" t="n">
+        <v>3188</v>
+      </c>
+      <c r="E211" t="n">
+        <v>3180</v>
+      </c>
+      <c r="F211" t="n">
+        <v>5449.3812</v>
+      </c>
+      <c r="G211" t="n">
+        <v>34268.75803283893</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>3185</v>
+      </c>
+      <c r="C212" t="n">
+        <v>3192</v>
+      </c>
+      <c r="D212" t="n">
+        <v>3193</v>
+      </c>
+      <c r="E212" t="n">
+        <v>3185</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1926.8273</v>
+      </c>
+      <c r="G212" t="n">
+        <v>36195.58533283893</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>3195</v>
+      </c>
+      <c r="C213" t="n">
+        <v>3200</v>
+      </c>
+      <c r="D213" t="n">
+        <v>3216</v>
+      </c>
+      <c r="E213" t="n">
+        <v>3195</v>
+      </c>
+      <c r="F213" t="n">
+        <v>4280.578475746269</v>
+      </c>
+      <c r="G213" t="n">
+        <v>40476.1638085852</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>3200</v>
+      </c>
+      <c r="C214" t="n">
+        <v>3188</v>
+      </c>
+      <c r="D214" t="n">
+        <v>3210</v>
+      </c>
+      <c r="E214" t="n">
+        <v>3188</v>
+      </c>
+      <c r="F214" t="n">
+        <v>2414.6484</v>
+      </c>
+      <c r="G214" t="n">
+        <v>38061.5154085852</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>3171</v>
+      </c>
+      <c r="C215" t="n">
+        <v>3172</v>
+      </c>
+      <c r="D215" t="n">
+        <v>3173</v>
+      </c>
+      <c r="E215" t="n">
+        <v>3171</v>
+      </c>
+      <c r="F215" t="n">
+        <v>636.6189000000001</v>
+      </c>
+      <c r="G215" t="n">
+        <v>37424.8965085852</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>3173</v>
+      </c>
+      <c r="C216" t="n">
+        <v>3171</v>
+      </c>
+      <c r="D216" t="n">
+        <v>3173</v>
+      </c>
+      <c r="E216" t="n">
+        <v>3171</v>
+      </c>
+      <c r="F216" t="n">
+        <v>276.1975</v>
+      </c>
+      <c r="G216" t="n">
+        <v>37148.69900858519</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>3172</v>
+      </c>
+      <c r="C217" t="n">
+        <v>3158</v>
+      </c>
+      <c r="D217" t="n">
+        <v>3172</v>
+      </c>
+      <c r="E217" t="n">
+        <v>3158</v>
+      </c>
+      <c r="F217" t="n">
+        <v>1435.5001</v>
+      </c>
+      <c r="G217" t="n">
+        <v>35713.1989085852</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>3155</v>
+      </c>
+      <c r="C218" t="n">
+        <v>3154</v>
+      </c>
+      <c r="D218" t="n">
+        <v>3155</v>
+      </c>
+      <c r="E218" t="n">
+        <v>3154</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1363.424</v>
+      </c>
+      <c r="G218" t="n">
+        <v>34349.7749085852</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>3154</v>
+      </c>
+      <c r="C219" t="n">
+        <v>3152</v>
+      </c>
+      <c r="D219" t="n">
+        <v>3154</v>
+      </c>
+      <c r="E219" t="n">
+        <v>3152</v>
+      </c>
+      <c r="F219" t="n">
+        <v>922.5554</v>
+      </c>
+      <c r="G219" t="n">
+        <v>33427.2195085852</v>
+      </c>
+      <c r="H219" t="n">
+        <v>2</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L160" t="n">
-        <v>1.010146526177149</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>3093</v>
-      </c>
-      <c r="C161" t="n">
-        <v>3092</v>
-      </c>
-      <c r="D161" t="n">
-        <v>3093</v>
-      </c>
-      <c r="E161" t="n">
-        <v>3083</v>
-      </c>
-      <c r="F161" t="n">
-        <v>88.7568</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-3560.893267161065</v>
-      </c>
-      <c r="H161" t="n">
-        <v>3</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>3092</v>
-      </c>
-      <c r="C162" t="n">
-        <v>3081</v>
-      </c>
-      <c r="D162" t="n">
-        <v>3092</v>
-      </c>
-      <c r="E162" t="n">
-        <v>3081</v>
-      </c>
-      <c r="F162" t="n">
-        <v>2099.231</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-5660.124267161065</v>
-      </c>
-      <c r="H162" t="n">
-        <v>3</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>3088</v>
-      </c>
-      <c r="C163" t="n">
-        <v>3084</v>
-      </c>
-      <c r="D163" t="n">
-        <v>3088</v>
-      </c>
-      <c r="E163" t="n">
-        <v>3084</v>
-      </c>
-      <c r="F163" t="n">
-        <v>1111.9602</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-4548.164067161066</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>3082</v>
-      </c>
-      <c r="C164" t="n">
-        <v>3081</v>
-      </c>
-      <c r="D164" t="n">
-        <v>3082</v>
-      </c>
-      <c r="E164" t="n">
-        <v>3081</v>
-      </c>
-      <c r="F164" t="n">
-        <v>197.1177</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-4745.281767161066</v>
-      </c>
-      <c r="H164" t="n">
-        <v>3</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>3081</v>
-      </c>
-      <c r="C165" t="n">
-        <v>3081</v>
-      </c>
-      <c r="D165" t="n">
-        <v>3082</v>
-      </c>
-      <c r="E165" t="n">
-        <v>3081</v>
-      </c>
-      <c r="F165" t="n">
-        <v>5815.7021</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-4745.281767161066</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>3082</v>
-      </c>
-      <c r="C166" t="n">
-        <v>3082</v>
-      </c>
-      <c r="D166" t="n">
-        <v>3082</v>
-      </c>
-      <c r="E166" t="n">
-        <v>3082</v>
-      </c>
-      <c r="F166" t="n">
-        <v>922.8425</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-3822.439267161066</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>3088</v>
-      </c>
-      <c r="C167" t="n">
-        <v>3087</v>
-      </c>
-      <c r="D167" t="n">
-        <v>3088</v>
-      </c>
-      <c r="E167" t="n">
-        <v>3087</v>
-      </c>
-      <c r="F167" t="n">
-        <v>994.2514</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-2828.187867161066</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>3082</v>
-      </c>
-      <c r="C168" t="n">
-        <v>3082</v>
-      </c>
-      <c r="D168" t="n">
-        <v>3082</v>
-      </c>
-      <c r="E168" t="n">
-        <v>3082</v>
-      </c>
-      <c r="F168" t="n">
-        <v>575</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-3403.187867161066</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>3082</v>
-      </c>
-      <c r="C169" t="n">
-        <v>3082</v>
-      </c>
-      <c r="D169" t="n">
-        <v>3082</v>
-      </c>
-      <c r="E169" t="n">
-        <v>3082</v>
-      </c>
-      <c r="F169" t="n">
-        <v>207.1733</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-3403.187867161066</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>3082</v>
-      </c>
-      <c r="C170" t="n">
-        <v>3082</v>
-      </c>
-      <c r="D170" t="n">
-        <v>3082</v>
-      </c>
-      <c r="E170" t="n">
-        <v>3082</v>
-      </c>
-      <c r="F170" t="n">
-        <v>97.91970000000001</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-3403.187867161066</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>3098</v>
-      </c>
-      <c r="C171" t="n">
-        <v>3098</v>
-      </c>
-      <c r="D171" t="n">
-        <v>3098</v>
-      </c>
-      <c r="E171" t="n">
-        <v>3098</v>
-      </c>
-      <c r="F171" t="n">
-        <v>10</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-3393.187867161066</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>3098</v>
-      </c>
-      <c r="C172" t="n">
-        <v>3099</v>
-      </c>
-      <c r="D172" t="n">
-        <v>3099</v>
-      </c>
-      <c r="E172" t="n">
-        <v>3098</v>
-      </c>
-      <c r="F172" t="n">
-        <v>3659.5519</v>
-      </c>
-      <c r="G172" t="n">
-        <v>266.3640328389342</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>3099</v>
-      </c>
-      <c r="C173" t="n">
-        <v>3099</v>
-      </c>
-      <c r="D173" t="n">
-        <v>3099</v>
-      </c>
-      <c r="E173" t="n">
-        <v>3099</v>
-      </c>
-      <c r="F173" t="n">
-        <v>295.3213</v>
-      </c>
-      <c r="G173" t="n">
-        <v>266.3640328389342</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>3092</v>
-      </c>
-      <c r="C174" t="n">
-        <v>3084</v>
-      </c>
-      <c r="D174" t="n">
-        <v>3092</v>
-      </c>
-      <c r="E174" t="n">
-        <v>3084</v>
-      </c>
-      <c r="F174" t="n">
-        <v>1284.1199</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-1017.755867161066</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>3083</v>
-      </c>
-      <c r="C175" t="n">
-        <v>3080</v>
-      </c>
-      <c r="D175" t="n">
-        <v>3083</v>
-      </c>
-      <c r="E175" t="n">
-        <v>3080</v>
-      </c>
-      <c r="F175" t="n">
-        <v>290.9883</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-1308.744167161066</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>3085</v>
-      </c>
-      <c r="C176" t="n">
-        <v>3081</v>
-      </c>
-      <c r="D176" t="n">
-        <v>3085</v>
-      </c>
-      <c r="E176" t="n">
-        <v>3081</v>
-      </c>
-      <c r="F176" t="n">
-        <v>1584.698</v>
-      </c>
-      <c r="G176" t="n">
-        <v>275.9538328389344</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>3081</v>
-      </c>
-      <c r="C177" t="n">
-        <v>3081</v>
-      </c>
-      <c r="D177" t="n">
-        <v>3081</v>
-      </c>
-      <c r="E177" t="n">
-        <v>3081</v>
-      </c>
-      <c r="F177" t="n">
-        <v>1305.5519</v>
-      </c>
-      <c r="G177" t="n">
-        <v>275.9538328389344</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>3081</v>
-      </c>
-      <c r="C178" t="n">
-        <v>3091</v>
-      </c>
-      <c r="D178" t="n">
-        <v>3091</v>
-      </c>
-      <c r="E178" t="n">
-        <v>3081</v>
-      </c>
-      <c r="F178" t="n">
-        <v>134.4603</v>
-      </c>
-      <c r="G178" t="n">
-        <v>410.4141328389344</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>3096</v>
-      </c>
-      <c r="C179" t="n">
-        <v>3096</v>
-      </c>
-      <c r="D179" t="n">
-        <v>3096</v>
-      </c>
-      <c r="E179" t="n">
-        <v>3096</v>
-      </c>
-      <c r="F179" t="n">
-        <v>321.7624</v>
-      </c>
-      <c r="G179" t="n">
-        <v>732.1765328389345</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>3100</v>
-      </c>
-      <c r="C180" t="n">
-        <v>3098</v>
-      </c>
-      <c r="D180" t="n">
-        <v>3100</v>
-      </c>
-      <c r="E180" t="n">
-        <v>3097</v>
-      </c>
-      <c r="F180" t="n">
-        <v>1841.7079</v>
-      </c>
-      <c r="G180" t="n">
-        <v>2573.884432838935</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>3100</v>
-      </c>
-      <c r="C181" t="n">
-        <v>3107</v>
-      </c>
-      <c r="D181" t="n">
-        <v>3107</v>
-      </c>
-      <c r="E181" t="n">
-        <v>3100</v>
-      </c>
-      <c r="F181" t="n">
-        <v>2028.9354</v>
-      </c>
-      <c r="G181" t="n">
-        <v>4602.819832838934</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>3107</v>
-      </c>
-      <c r="C182" t="n">
-        <v>3105</v>
-      </c>
-      <c r="D182" t="n">
-        <v>3107</v>
-      </c>
-      <c r="E182" t="n">
-        <v>3105</v>
-      </c>
-      <c r="F182" t="n">
-        <v>279.748</v>
-      </c>
-      <c r="G182" t="n">
-        <v>4323.071832838935</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>3122</v>
-      </c>
-      <c r="C183" t="n">
-        <v>3122</v>
-      </c>
-      <c r="D183" t="n">
-        <v>3122</v>
-      </c>
-      <c r="E183" t="n">
-        <v>3122</v>
-      </c>
-      <c r="F183" t="n">
-        <v>138.604</v>
-      </c>
-      <c r="G183" t="n">
-        <v>4461.675832838935</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>3122</v>
-      </c>
-      <c r="C184" t="n">
-        <v>3125</v>
-      </c>
-      <c r="D184" t="n">
-        <v>3125</v>
-      </c>
-      <c r="E184" t="n">
-        <v>3122</v>
-      </c>
-      <c r="F184" t="n">
-        <v>3023.9026</v>
-      </c>
-      <c r="G184" t="n">
-        <v>7485.578432838935</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>3125</v>
-      </c>
-      <c r="C185" t="n">
-        <v>3125</v>
-      </c>
-      <c r="D185" t="n">
-        <v>3125</v>
-      </c>
-      <c r="E185" t="n">
-        <v>3125</v>
-      </c>
-      <c r="F185" t="n">
-        <v>520</v>
-      </c>
-      <c r="G185" t="n">
-        <v>7485.578432838935</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>3122</v>
-      </c>
-      <c r="C186" t="n">
-        <v>3122</v>
-      </c>
-      <c r="D186" t="n">
-        <v>3122</v>
-      </c>
-      <c r="E186" t="n">
-        <v>3122</v>
-      </c>
-      <c r="F186" t="n">
-        <v>401.7785</v>
-      </c>
-      <c r="G186" t="n">
-        <v>7083.799932838934</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>3119</v>
-      </c>
-      <c r="C187" t="n">
-        <v>3119</v>
-      </c>
-      <c r="D187" t="n">
-        <v>3119</v>
-      </c>
-      <c r="E187" t="n">
-        <v>3119</v>
-      </c>
-      <c r="F187" t="n">
-        <v>135.897</v>
-      </c>
-      <c r="G187" t="n">
-        <v>6947.902932838934</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>3115</v>
-      </c>
-      <c r="C188" t="n">
-        <v>3113</v>
-      </c>
-      <c r="D188" t="n">
-        <v>3115</v>
-      </c>
-      <c r="E188" t="n">
-        <v>3113</v>
-      </c>
-      <c r="F188" t="n">
-        <v>100</v>
-      </c>
-      <c r="G188" t="n">
-        <v>6847.902932838934</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>3120</v>
-      </c>
-      <c r="C189" t="n">
-        <v>3121</v>
-      </c>
-      <c r="D189" t="n">
-        <v>3121</v>
-      </c>
-      <c r="E189" t="n">
-        <v>3120</v>
-      </c>
-      <c r="F189" t="n">
-        <v>3293.5458</v>
-      </c>
-      <c r="G189" t="n">
-        <v>10141.44873283893</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>3110</v>
-      </c>
-      <c r="C190" t="n">
-        <v>3104</v>
-      </c>
-      <c r="D190" t="n">
-        <v>3110</v>
-      </c>
-      <c r="E190" t="n">
-        <v>3104</v>
-      </c>
-      <c r="F190" t="n">
-        <v>561.4</v>
-      </c>
-      <c r="G190" t="n">
-        <v>9580.048732838934</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>3100</v>
-      </c>
-      <c r="C191" t="n">
-        <v>3104</v>
-      </c>
-      <c r="D191" t="n">
-        <v>3104</v>
-      </c>
-      <c r="E191" t="n">
-        <v>3096</v>
-      </c>
-      <c r="F191" t="n">
-        <v>1658.0763</v>
-      </c>
-      <c r="G191" t="n">
-        <v>9580.048732838934</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>3105</v>
-      </c>
-      <c r="C192" t="n">
-        <v>3104</v>
-      </c>
-      <c r="D192" t="n">
-        <v>3105</v>
-      </c>
-      <c r="E192" t="n">
-        <v>3104</v>
-      </c>
-      <c r="F192" t="n">
-        <v>1462.9821</v>
-      </c>
-      <c r="G192" t="n">
-        <v>9580.048732838934</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>3133</v>
-      </c>
-      <c r="C193" t="n">
-        <v>3142</v>
-      </c>
-      <c r="D193" t="n">
-        <v>3142</v>
-      </c>
-      <c r="E193" t="n">
-        <v>3133</v>
-      </c>
-      <c r="F193" t="n">
-        <v>380.8454</v>
-      </c>
-      <c r="G193" t="n">
-        <v>9960.894132838934</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>3144</v>
-      </c>
-      <c r="C194" t="n">
-        <v>3135</v>
-      </c>
-      <c r="D194" t="n">
-        <v>3144</v>
-      </c>
-      <c r="E194" t="n">
-        <v>3135</v>
-      </c>
-      <c r="F194" t="n">
-        <v>918.1449</v>
-      </c>
-      <c r="G194" t="n">
-        <v>9042.749232838934</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>3145</v>
-      </c>
-      <c r="C195" t="n">
-        <v>3150</v>
-      </c>
-      <c r="D195" t="n">
-        <v>3150</v>
-      </c>
-      <c r="E195" t="n">
-        <v>3134</v>
-      </c>
-      <c r="F195" t="n">
-        <v>2596.6746</v>
-      </c>
-      <c r="G195" t="n">
-        <v>11639.42383283893</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>3149</v>
-      </c>
-      <c r="C196" t="n">
-        <v>3153</v>
-      </c>
-      <c r="D196" t="n">
-        <v>3153</v>
-      </c>
-      <c r="E196" t="n">
-        <v>3148</v>
-      </c>
-      <c r="F196" t="n">
-        <v>3632.1135</v>
-      </c>
-      <c r="G196" t="n">
-        <v>15271.53733283893</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>3149</v>
-      </c>
-      <c r="C197" t="n">
-        <v>3153</v>
-      </c>
-      <c r="D197" t="n">
-        <v>3153</v>
-      </c>
-      <c r="E197" t="n">
-        <v>3149</v>
-      </c>
-      <c r="F197" t="n">
-        <v>1321.3004</v>
-      </c>
-      <c r="G197" t="n">
-        <v>15271.53733283893</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>3153</v>
-      </c>
-      <c r="C198" t="n">
-        <v>3156</v>
-      </c>
-      <c r="D198" t="n">
-        <v>3156</v>
-      </c>
-      <c r="E198" t="n">
-        <v>3153</v>
-      </c>
-      <c r="F198" t="n">
-        <v>210.0027</v>
-      </c>
-      <c r="G198" t="n">
-        <v>15481.54003283893</v>
-      </c>
-      <c r="H198" t="n">
-        <v>3</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>3158</v>
-      </c>
-      <c r="C199" t="n">
-        <v>3158</v>
-      </c>
-      <c r="D199" t="n">
-        <v>3158</v>
-      </c>
-      <c r="E199" t="n">
-        <v>3158</v>
-      </c>
-      <c r="F199" t="n">
-        <v>1206.9354</v>
-      </c>
-      <c r="G199" t="n">
-        <v>16688.47543283893</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>3158</v>
-      </c>
-      <c r="C200" t="n">
-        <v>3155</v>
-      </c>
-      <c r="D200" t="n">
-        <v>3158</v>
-      </c>
-      <c r="E200" t="n">
-        <v>3155</v>
-      </c>
-      <c r="F200" t="n">
-        <v>92.4689</v>
-      </c>
-      <c r="G200" t="n">
-        <v>16596.00653283893</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>3155</v>
-      </c>
-      <c r="C201" t="n">
-        <v>3160</v>
-      </c>
-      <c r="D201" t="n">
-        <v>3160</v>
-      </c>
-      <c r="E201" t="n">
-        <v>3149</v>
-      </c>
-      <c r="F201" t="n">
-        <v>3431.2454</v>
-      </c>
-      <c r="G201" t="n">
-        <v>20027.25193283893</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>3151</v>
-      </c>
-      <c r="C202" t="n">
-        <v>3151</v>
-      </c>
-      <c r="D202" t="n">
-        <v>3151</v>
-      </c>
-      <c r="E202" t="n">
-        <v>3151</v>
-      </c>
-      <c r="F202" t="n">
-        <v>620.0383</v>
-      </c>
-      <c r="G202" t="n">
-        <v>19407.21363283893</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>3159</v>
-      </c>
-      <c r="C203" t="n">
-        <v>3160</v>
-      </c>
-      <c r="D203" t="n">
-        <v>3160</v>
-      </c>
-      <c r="E203" t="n">
-        <v>3159</v>
-      </c>
-      <c r="F203" t="n">
-        <v>68.2881</v>
-      </c>
-      <c r="G203" t="n">
-        <v>19475.50173283893</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>3160</v>
-      </c>
-      <c r="C204" t="n">
-        <v>3155</v>
-      </c>
-      <c r="D204" t="n">
-        <v>3160</v>
-      </c>
-      <c r="E204" t="n">
-        <v>3155</v>
-      </c>
-      <c r="F204" t="n">
-        <v>452.783</v>
-      </c>
-      <c r="G204" t="n">
-        <v>19022.71873283893</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>3160</v>
-      </c>
-      <c r="C205" t="n">
-        <v>3170</v>
-      </c>
-      <c r="D205" t="n">
-        <v>3170</v>
-      </c>
-      <c r="E205" t="n">
-        <v>3160</v>
-      </c>
-      <c r="F205" t="n">
-        <v>1554.045402996845</v>
-      </c>
-      <c r="G205" t="n">
-        <v>20576.76413583578</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>3170</v>
-      </c>
-      <c r="C206" t="n">
-        <v>3175</v>
-      </c>
-      <c r="D206" t="n">
-        <v>3175</v>
-      </c>
-      <c r="E206" t="n">
-        <v>3170</v>
-      </c>
-      <c r="F206" t="n">
-        <v>5362.180897003154</v>
-      </c>
-      <c r="G206" t="n">
-        <v>25938.94503283894</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>3174</v>
-      </c>
-      <c r="C207" t="n">
-        <v>3174</v>
-      </c>
-      <c r="D207" t="n">
-        <v>3174</v>
-      </c>
-      <c r="E207" t="n">
-        <v>3174</v>
-      </c>
-      <c r="F207" t="n">
-        <v>10.8757</v>
-      </c>
-      <c r="G207" t="n">
-        <v>25928.06933283894</v>
-      </c>
-      <c r="H207" t="n">
-        <v>3</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>3174</v>
-      </c>
-      <c r="C208" t="n">
-        <v>3174</v>
-      </c>
-      <c r="D208" t="n">
-        <v>3174</v>
-      </c>
-      <c r="E208" t="n">
-        <v>3174</v>
-      </c>
-      <c r="F208" t="n">
-        <v>185.3121</v>
-      </c>
-      <c r="G208" t="n">
-        <v>25928.06933283894</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>3174</v>
-      </c>
-      <c r="C209" t="n">
-        <v>3174</v>
-      </c>
-      <c r="D209" t="n">
-        <v>3174</v>
-      </c>
-      <c r="E209" t="n">
-        <v>3174</v>
-      </c>
-      <c r="F209" t="n">
-        <v>51.3537</v>
-      </c>
-      <c r="G209" t="n">
-        <v>25928.06933283894</v>
-      </c>
-      <c r="H209" t="n">
-        <v>3</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>3175</v>
-      </c>
-      <c r="C210" t="n">
-        <v>3183</v>
-      </c>
-      <c r="D210" t="n">
-        <v>3183</v>
-      </c>
-      <c r="E210" t="n">
-        <v>3175</v>
-      </c>
-      <c r="F210" t="n">
-        <v>2891.3075</v>
-      </c>
-      <c r="G210" t="n">
-        <v>28819.37683283893</v>
-      </c>
-      <c r="H210" t="n">
-        <v>3</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>3182</v>
-      </c>
-      <c r="C211" t="n">
-        <v>3185</v>
-      </c>
-      <c r="D211" t="n">
-        <v>3188</v>
-      </c>
-      <c r="E211" t="n">
-        <v>3180</v>
-      </c>
-      <c r="F211" t="n">
-        <v>5449.3812</v>
-      </c>
-      <c r="G211" t="n">
-        <v>34268.75803283893</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>3185</v>
-      </c>
-      <c r="C212" t="n">
-        <v>3192</v>
-      </c>
-      <c r="D212" t="n">
-        <v>3193</v>
-      </c>
-      <c r="E212" t="n">
-        <v>3185</v>
-      </c>
-      <c r="F212" t="n">
-        <v>1926.8273</v>
-      </c>
-      <c r="G212" t="n">
-        <v>36195.58533283893</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>3195</v>
-      </c>
-      <c r="C213" t="n">
-        <v>3200</v>
-      </c>
-      <c r="D213" t="n">
-        <v>3216</v>
-      </c>
-      <c r="E213" t="n">
-        <v>3195</v>
-      </c>
-      <c r="F213" t="n">
-        <v>4280.578475746269</v>
-      </c>
-      <c r="G213" t="n">
-        <v>40476.1638085852</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>3200</v>
-      </c>
-      <c r="C214" t="n">
-        <v>3188</v>
-      </c>
-      <c r="D214" t="n">
-        <v>3210</v>
-      </c>
-      <c r="E214" t="n">
-        <v>3188</v>
-      </c>
-      <c r="F214" t="n">
-        <v>2414.6484</v>
-      </c>
-      <c r="G214" t="n">
-        <v>38061.5154085852</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>3171</v>
-      </c>
-      <c r="C215" t="n">
-        <v>3172</v>
-      </c>
-      <c r="D215" t="n">
-        <v>3173</v>
-      </c>
-      <c r="E215" t="n">
-        <v>3171</v>
-      </c>
-      <c r="F215" t="n">
-        <v>636.6189000000001</v>
-      </c>
-      <c r="G215" t="n">
-        <v>37424.8965085852</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>3173</v>
-      </c>
-      <c r="C216" t="n">
-        <v>3171</v>
-      </c>
-      <c r="D216" t="n">
-        <v>3173</v>
-      </c>
-      <c r="E216" t="n">
-        <v>3171</v>
-      </c>
-      <c r="F216" t="n">
-        <v>276.1975</v>
-      </c>
-      <c r="G216" t="n">
-        <v>37148.69900858519</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>3172</v>
-      </c>
-      <c r="C217" t="n">
-        <v>3158</v>
-      </c>
-      <c r="D217" t="n">
-        <v>3172</v>
-      </c>
-      <c r="E217" t="n">
-        <v>3158</v>
-      </c>
-      <c r="F217" t="n">
-        <v>1435.5001</v>
-      </c>
-      <c r="G217" t="n">
-        <v>35713.1989085852</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>3155</v>
-      </c>
-      <c r="C218" t="n">
-        <v>3154</v>
-      </c>
-      <c r="D218" t="n">
-        <v>3155</v>
-      </c>
-      <c r="E218" t="n">
-        <v>3154</v>
-      </c>
-      <c r="F218" t="n">
-        <v>1363.424</v>
-      </c>
-      <c r="G218" t="n">
-        <v>34349.7749085852</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>3154</v>
-      </c>
-      <c r="C219" t="n">
-        <v>3152</v>
-      </c>
-      <c r="D219" t="n">
-        <v>3154</v>
-      </c>
-      <c r="E219" t="n">
-        <v>3152</v>
-      </c>
-      <c r="F219" t="n">
-        <v>922.5554</v>
-      </c>
-      <c r="G219" t="n">
-        <v>33427.2195085852</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
@@ -8249,7 +8763,7 @@
         <v>33302.0512085852</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8348,7 +8862,7 @@
         <v>43230.6681085852</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8414,7 +8928,7 @@
         <v>44083.94668340467</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8447,7 +8961,7 @@
         <v>41824.10928340467</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8480,7 +8994,7 @@
         <v>41824.10928340467</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8513,7 +9027,7 @@
         <v>41776.78678340467</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8546,7 +9060,7 @@
         <v>41776.78678340467</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8579,7 +9093,7 @@
         <v>39612.27888340467</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8612,7 +9126,7 @@
         <v>42242.22628340467</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8645,7 +9159,7 @@
         <v>41995.65548340467</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8678,7 +9192,7 @@
         <v>40555.47038340467</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8711,7 +9225,7 @@
         <v>43456.94268340467</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8744,7 +9258,7 @@
         <v>40261.33868340467</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8777,7 +9291,7 @@
         <v>40263.21718340467</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8810,7 +9324,7 @@
         <v>40141.06158340467</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8843,7 +9357,7 @@
         <v>39485.90908340467</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8876,7 +9390,7 @@
         <v>36271.35278340467</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8909,7 +9423,7 @@
         <v>35826.49598340467</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8942,7 +9456,7 @@
         <v>35826.49598340467</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8975,7 +9489,7 @@
         <v>34816.60418340467</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9008,7 +9522,7 @@
         <v>38451.65958340467</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9041,7 +9555,7 @@
         <v>34730.36988340467</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9074,7 +9588,7 @@
         <v>35230.36988340467</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9107,7 +9621,7 @@
         <v>35282.66978789368</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9140,7 +9654,7 @@
         <v>35207.58868789368</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9173,7 +9687,7 @@
         <v>38094.43518789368</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9206,7 +9720,7 @@
         <v>38094.43518789368</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9239,7 +9753,7 @@
         <v>38601.16918789368</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9272,7 +9786,7 @@
         <v>36050.63398789368</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9305,7 +9819,7 @@
         <v>36050.63398789368</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9338,7 +9852,7 @@
         <v>36618.13188789368</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9371,7 +9885,7 @@
         <v>31901.60198789368</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9404,7 +9918,7 @@
         <v>31901.60198789368</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9437,7 +9951,7 @@
         <v>31901.60198789368</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9470,7 +9984,7 @@
         <v>31901.60198789368</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9536,7 +10050,7 @@
         <v>32075.80818789368</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9569,7 +10083,7 @@
         <v>32003.53238789368</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9602,7 +10116,7 @@
         <v>32019.67470190642</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9635,7 +10149,7 @@
         <v>32002.59630190642</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9668,7 +10182,7 @@
         <v>32194.09638789368</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9701,7 +10215,7 @@
         <v>33949.59048789368</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9866,7 +10380,7 @@
         <v>37864.98738789368</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9899,7 +10413,7 @@
         <v>37229.66908789368</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9932,7 +10446,7 @@
         <v>36660.28168789368</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9965,7 +10479,7 @@
         <v>36660.28168789368</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9998,7 +10512,7 @@
         <v>36660.28168789368</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10031,7 +10545,7 @@
         <v>36658.28168789368</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10064,7 +10578,7 @@
         <v>39516.21168789368</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10097,7 +10611,7 @@
         <v>36394.02938789368</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10130,7 +10644,7 @@
         <v>33138.69788789368</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10163,7 +10677,7 @@
         <v>29694.98748789368</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10196,7 +10710,7 @@
         <v>29553.30948789368</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10229,7 +10743,7 @@
         <v>29550.46398789368</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10262,7 +10776,7 @@
         <v>29580.46398789368</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10295,7 +10809,7 @@
         <v>29104.06258789368</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10328,7 +10842,7 @@
         <v>30104.06258789368</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10361,7 +10875,7 @@
         <v>29098.73768789368</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10394,7 +10908,7 @@
         <v>29098.73768789368</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10427,7 +10941,7 @@
         <v>27462.43438789368</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10460,7 +10974,7 @@
         <v>27486.20988789368</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10493,7 +11007,7 @@
         <v>26091.17728789368</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10526,7 +11040,7 @@
         <v>26091.17728789368</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10559,7 +11073,7 @@
         <v>27212.98598789368</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10592,7 +11106,7 @@
         <v>27212.98598789368</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10625,7 +11139,7 @@
         <v>27212.98598789368</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10658,7 +11172,7 @@
         <v>27558.98598789368</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10691,7 +11205,7 @@
         <v>27646.04118789368</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10724,7 +11238,7 @@
         <v>28045.93228789368</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10757,7 +11271,7 @@
         <v>28167.20438789368</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10790,7 +11304,7 @@
         <v>28165.89138789368</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10823,7 +11337,7 @@
         <v>28145.70928789368</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10856,7 +11370,7 @@
         <v>28046.89848789368</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11219,7 +11733,7 @@
         <v>28582.12808789368</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11252,7 +11766,7 @@
         <v>28458.18308789368</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11285,7 +11799,7 @@
         <v>28198.28448789368</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11318,7 +11832,7 @@
         <v>26871.83318789368</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11351,7 +11865,7 @@
         <v>24527.77868789368</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11384,7 +11898,7 @@
         <v>24332.44078789368</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11417,7 +11931,7 @@
         <v>24372.88380966065</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11450,7 +11964,7 @@
         <v>24312.78760966065</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11483,7 +11997,7 @@
         <v>24402.81640966065</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11582,7 +12096,7 @@
         <v>22682.82160966065</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11615,7 +12129,7 @@
         <v>22385.78690966065</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12176,7 +12690,7 @@
         <v>24885.77984373005</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12209,7 +12723,7 @@
         <v>24506.48284373005</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12242,7 +12756,7 @@
         <v>24893.68364373005</v>
       </c>
       <c r="H343" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12275,7 +12789,7 @@
         <v>24893.68364373005</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12308,7 +12822,7 @@
         <v>24847.24174373005</v>
       </c>
       <c r="H345" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12341,7 +12855,7 @@
         <v>25780.10584373005</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12374,7 +12888,7 @@
         <v>24762.87304373004</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12407,7 +12921,7 @@
         <v>25078.63174373004</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12440,7 +12954,7 @@
         <v>25078.73174373004</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12473,7 +12987,7 @@
         <v>26045.52244373004</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12506,7 +13020,7 @@
         <v>26164.34144373004</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12539,7 +13053,7 @@
         <v>26164.34144373004</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12572,7 +13086,7 @@
         <v>26539.12634373004</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12605,7 +13119,7 @@
         <v>24709.79444373004</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12638,7 +13152,7 @@
         <v>24890.11704373004</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12671,7 +13185,7 @@
         <v>24600.09004373004</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12704,7 +13218,7 @@
         <v>24600.09004373004</v>
       </c>
       <c r="H357" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12737,7 +13251,7 @@
         <v>23602.69834373004</v>
       </c>
       <c r="H358" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12770,7 +13284,7 @@
         <v>23273.06174373004</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12803,7 +13317,7 @@
         <v>23441.69494373004</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12836,7 +13350,7 @@
         <v>23441.69494373004</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12869,7 +13383,7 @@
         <v>21837.80544373004</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12902,7 +13416,7 @@
         <v>22014.56534373004</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12935,7 +13449,7 @@
         <v>22836.30374373004</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12968,7 +13482,7 @@
         <v>22841.30084373004</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13001,7 +13515,7 @@
         <v>22710.63724373004</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13034,7 +13548,7 @@
         <v>22891.63324373004</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13067,7 +13581,7 @@
         <v>24444.52174373004</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13100,7 +13614,7 @@
         <v>24384.84214373004</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13133,7 +13647,7 @@
         <v>25151.62294373004</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13166,7 +13680,7 @@
         <v>27786.76984373004</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13199,7 +13713,7 @@
         <v>27786.76984373004</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13232,7 +13746,7 @@
         <v>30003.42514373004</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13265,7 +13779,7 @@
         <v>30003.42514373004</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13298,7 +13812,7 @@
         <v>38293.31831528365</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13331,7 +13845,7 @@
         <v>39114.62291528365</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13364,7 +13878,7 @@
         <v>37919.70821528365</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13397,7 +13911,7 @@
         <v>36915.53051528365</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13430,7 +13944,7 @@
         <v>36919.53051528365</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13463,7 +13977,7 @@
         <v>36919.53051528365</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13496,7 +14010,7 @@
         <v>37058.39731528366</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13529,7 +14043,7 @@
         <v>37765.57931528366</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13562,7 +14076,7 @@
         <v>38651.29711528365</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13595,7 +14109,7 @@
         <v>40830.79391528366</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13628,7 +14142,7 @@
         <v>38567.98131528366</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13661,7 +14175,7 @@
         <v>38608.72231528366</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13694,7 +14208,7 @@
         <v>41701.94861528366</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13727,7 +14241,7 @@
         <v>41401.94861528366</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13760,7 +14274,7 @@
         <v>41434.02091528366</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13793,7 +14307,7 @@
         <v>41434.02091528366</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13826,7 +14340,7 @@
         <v>41434.02091528366</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13859,7 +14373,7 @@
         <v>41674.61571528366</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13892,7 +14406,7 @@
         <v>41610.01571528366</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13925,7 +14439,7 @@
         <v>41114.08221528366</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13958,7 +14472,7 @@
         <v>41271.17661528366</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13991,7 +14505,7 @@
         <v>40314.47011528366</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14024,7 +14538,7 @@
         <v>40958.22321528367</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14057,7 +14571,7 @@
         <v>40958.22321528367</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14090,7 +14604,7 @@
         <v>40958.33321528367</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14123,7 +14637,7 @@
         <v>39050.47021528367</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14156,7 +14670,7 @@
         <v>39050.47021528367</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14189,7 +14703,7 @@
         <v>38854.34641528367</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14222,7 +14736,7 @@
         <v>40013.49051528367</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14255,7 +14769,7 @@
         <v>40013.76531528366</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14288,7 +14802,7 @@
         <v>41705.36460384166</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14321,7 +14835,7 @@
         <v>41676.49608425597</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14420,7 +14934,7 @@
         <v>39138.64638425597</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14453,7 +14967,7 @@
         <v>39121.56078425597</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14651,7 +15165,7 @@
         <v>33628.49848425597</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14816,7 +15330,7 @@
         <v>33682.42868425597</v>
       </c>
       <c r="H421" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14849,7 +15363,7 @@
         <v>34496.97752362605</v>
       </c>
       <c r="H422" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14948,7 +15462,7 @@
         <v>33251.10462362605</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15047,7 +15561,7 @@
         <v>31980.00082362605</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15080,7 +15594,7 @@
         <v>28128.37312362605</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15113,7 +15627,7 @@
         <v>20831.98052362605</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15146,7 +15660,7 @@
         <v>20326.52152362606</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15179,7 +15693,7 @@
         <v>19119.33952362605</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15212,7 +15726,7 @@
         <v>20154.08202362606</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15245,7 +15759,7 @@
         <v>20154.55192362606</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15278,7 +15792,7 @@
         <v>20153.61032362606</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15311,7 +15825,7 @@
         <v>20153.61032362606</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15344,7 +15858,7 @@
         <v>19902.34702362606</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15377,7 +15891,7 @@
         <v>19335.35012362606</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15410,7 +15924,7 @@
         <v>15298.86562362606</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15443,7 +15957,7 @@
         <v>15298.86562362606</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15476,7 +15990,7 @@
         <v>15298.86562362606</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15509,7 +16023,7 @@
         <v>15302.61592362606</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15542,7 +16056,7 @@
         <v>16854.35162362606</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15575,7 +16089,7 @@
         <v>16289.17192362606</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15608,7 +16122,7 @@
         <v>16289.17192362606</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15641,7 +16155,7 @@
         <v>16289.17192362606</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15674,7 +16188,7 @@
         <v>9894.163223626058</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15707,7 +16221,7 @@
         <v>10482.60631939069</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15740,7 +16254,7 @@
         <v>4.330919390686176</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15773,7 +16287,7 @@
         <v>-2130.985880609314</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15806,7 +16320,7 @@
         <v>-6252.495980609314</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15839,7 +16353,7 @@
         <v>-5328.099680609314</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15872,7 +16386,7 @@
         <v>-7546.316480609314</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15905,7 +16419,7 @@
         <v>-6892.075080157555</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15938,7 +16452,7 @@
         <v>-6655.379780157555</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15971,7 +16485,7 @@
         <v>-6007.478480157555</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16004,7 +16518,7 @@
         <v>-6435.787380157555</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16037,7 +16551,7 @@
         <v>-6435.787380157555</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16202,7 +16716,7 @@
         <v>-8531.542080157555</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16235,7 +16749,7 @@
         <v>-8531.542080157555</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16268,7 +16782,7 @@
         <v>-11524.33768015755</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -22406,7 +22920,7 @@
         <v>18684.6702142026</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -22439,7 +22953,7 @@
         <v>20084.06515800735</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -22472,7 +22986,7 @@
         <v>34184.28186591856</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -22505,7 +23019,7 @@
         <v>34442.42956591856</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22538,7 +23052,7 @@
         <v>34765.08976591856</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22571,7 +23085,7 @@
         <v>32471.38456591856</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22604,7 +23118,7 @@
         <v>31266.38456591856</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22637,7 +23151,7 @@
         <v>29074.12186591856</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22670,7 +23184,7 @@
         <v>30184.35606591856</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22703,7 +23217,7 @@
         <v>30184.35606591856</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22736,7 +23250,7 @@
         <v>30473.52156591856</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22769,7 +23283,7 @@
         <v>30473.52156591856</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22802,7 +23316,7 @@
         <v>30252.75336591856</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22835,7 +23349,7 @@
         <v>30136.09696591856</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22868,7 +23382,7 @@
         <v>30136.09696591856</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -22901,7 +23415,7 @@
         <v>30226.76046591856</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22934,7 +23448,7 @@
         <v>29095.98846591856</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -22967,7 +23481,7 @@
         <v>29095.98846591856</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -23000,7 +23514,7 @@
         <v>29095.98846591856</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -23033,7 +23547,7 @@
         <v>29520.98846591856</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -23066,7 +23580,7 @@
         <v>27595.51816591855</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -23099,7 +23613,7 @@
         <v>27536.87316591855</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -23132,7 +23646,7 @@
         <v>27536.87316591855</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -23165,7 +23679,7 @@
         <v>22678.11256591856</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -23198,7 +23712,7 @@
         <v>22677.11256591856</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -23231,7 +23745,7 @@
         <v>22597.51906591856</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -23264,7 +23778,7 @@
         <v>22683.24956591856</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -23297,7 +23811,7 @@
         <v>22683.24956591856</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -23330,7 +23844,7 @@
         <v>22960.09896591856</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -23363,7 +23877,7 @@
         <v>22958.79626591856</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -23396,7 +23910,7 @@
         <v>22960.79604705478</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -23429,7 +23943,7 @@
         <v>21449.68865446219</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -23462,7 +23976,7 @@
         <v>21150.07735446219</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -23495,7 +24009,7 @@
         <v>21151.07735446219</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -23561,7 +24075,7 @@
         <v>21287.36216742922</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23594,7 +24108,7 @@
         <v>21212.74826742922</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23627,7 +24141,7 @@
         <v>20902.62336742922</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23693,7 +24207,7 @@
         <v>21486.27387198181</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23726,7 +24240,7 @@
         <v>21603.24457198181</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23759,7 +24273,7 @@
         <v>21603.24457198181</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23792,7 +24306,7 @@
         <v>21603.24457198181</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23825,7 +24339,7 @@
         <v>21603.24457198181</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23858,7 +24372,7 @@
         <v>21603.24457198181</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23891,7 +24405,7 @@
         <v>21611.53297198181</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23924,7 +24438,7 @@
         <v>22639.29779456246</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23957,7 +24471,7 @@
         <v>21790.59369456246</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23990,7 +24504,7 @@
         <v>21771.80249456246</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -24023,7 +24537,7 @@
         <v>21771.80249456246</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -24056,7 +24570,7 @@
         <v>21672.66439456246</v>
       </c>
       <c r="H701" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -24089,7 +24603,7 @@
         <v>21672.66439456246</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -24122,7 +24636,7 @@
         <v>22027.31999456246</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -24155,7 +24669,7 @@
         <v>22027.31999456246</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -24188,7 +24702,7 @@
         <v>22027.31999456246</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -24221,7 +24735,7 @@
         <v>22257.31029456246</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -24254,7 +24768,7 @@
         <v>22809.73209456246</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -24265,6 +24779,6 @@
       <c r="M707" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-24 BackTest LINK.xlsx
+++ b/BackTest/2019-10-24 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-4437.963579853236</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>-7067.271879853237</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3034</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>-9597.879279853238</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3029</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>-9584.879279853238</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3020</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,17 +583,11 @@
         <v>-9333.126779853237</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3033</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,17 +616,11 @@
         <v>-9333.126779853237</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3040</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -679,17 +649,11 @@
         <v>-9340.081679853238</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3040</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -718,17 +682,11 @@
         <v>-9315.639979853238</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3036</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -757,17 +715,11 @@
         <v>-9315.639979853238</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3048</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -796,17 +748,11 @@
         <v>-9612.089979853239</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3048</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -835,17 +781,11 @@
         <v>-9612.089979853239</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3040</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -874,17 +814,11 @@
         <v>-11018.34577985324</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3040</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -913,17 +847,11 @@
         <v>-12440.67807985324</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3034</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -952,17 +880,11 @@
         <v>-12439.92807985324</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3022</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -991,17 +913,11 @@
         <v>-12330.21427985324</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3026</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1030,17 +946,11 @@
         <v>-12480.21427985324</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3031</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1069,17 +979,11 @@
         <v>-12480.21427985324</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3022</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1108,17 +1012,11 @@
         <v>-12954.02077985324</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3022</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1147,17 +1045,11 @@
         <v>-12954.02077985324</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3018</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1186,17 +1078,11 @@
         <v>-12920.59527985324</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3018</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1225,17 +1111,11 @@
         <v>-12920.59527985324</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3019</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1264,17 +1144,11 @@
         <v>-12920.59527985324</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3019</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1303,17 +1177,11 @@
         <v>-12920.59527985324</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3019</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1342,17 +1210,11 @@
         <v>-13298.02557985324</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3019</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1381,17 +1243,11 @@
         <v>-15778.24817985324</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1420,17 +1276,11 @@
         <v>-15907.03847985324</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1459,17 +1309,11 @@
         <v>-15906.03847985324</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1498,17 +1342,11 @@
         <v>-15907.03847985324</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3016</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1537,17 +1375,11 @@
         <v>-15896.37927985324</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1576,17 +1408,11 @@
         <v>-15885.98167985324</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3018</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1615,17 +1441,11 @@
         <v>-15885.88167985324</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>3020</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1654,17 +1474,11 @@
         <v>-15885.88167985324</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>3035</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1693,17 +1507,11 @@
         <v>-15885.88167985324</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3035</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1732,17 +1540,11 @@
         <v>-17734.90567985324</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3035</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1771,17 +1573,11 @@
         <v>-18135.50597985324</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>3023</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1810,17 +1606,11 @@
         <v>-18121.87037985324</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>3022</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1849,17 +1639,11 @@
         <v>-17978.13407985324</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>3031</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1888,17 +1672,11 @@
         <v>-19354.45057985324</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>3059</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1927,17 +1705,11 @@
         <v>-19144.01147985324</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>3057</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1966,17 +1738,11 @@
         <v>-16322.44937985324</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3068</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2005,15 +1771,11 @@
         <v>-11978.43657985324</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2042,15 +1804,11 @@
         <v>-10837.33827985324</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2079,15 +1837,11 @@
         <v>-10632.85537985324</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2116,15 +1870,11 @@
         <v>-9634.628479853242</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2153,15 +1903,11 @@
         <v>-10428.17867985324</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2190,15 +1936,11 @@
         <v>-11051.97597985324</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2227,15 +1969,11 @@
         <v>-10582.78607985324</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2264,15 +2002,11 @@
         <v>-7316.148379853242</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2305,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2342,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2379,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2416,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2453,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2490,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2527,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2564,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2601,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2638,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2675,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2712,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2749,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2786,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2823,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2860,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2897,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2930,17 +2596,11 @@
         <v>-10209.99937985325</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>3075</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2969,17 +2629,11 @@
         <v>-11278.41596716106</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3058</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3008,17 +2662,11 @@
         <v>-13402.70556716106</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3057</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3047,17 +2695,11 @@
         <v>-13423.65036716106</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3022</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3086,17 +2728,11 @@
         <v>-13316.65046716106</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>3020</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3125,17 +2761,11 @@
         <v>-13660.00416716106</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>3041</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3164,17 +2794,11 @@
         <v>-13660.00416716106</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>3030</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3203,17 +2827,11 @@
         <v>-13660.00416716106</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>3030</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3242,17 +2860,11 @@
         <v>-13637.40056716106</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>3030</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3281,17 +2893,11 @@
         <v>-13137.40056716106</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>3038</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3320,17 +2926,11 @@
         <v>-13139.37806716106</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>3041</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3359,17 +2959,11 @@
         <v>-12739.37806716106</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>3037</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3398,17 +2992,11 @@
         <v>-12530.75406716106</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>3048</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3437,17 +3025,11 @@
         <v>-12552.25716716106</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>3066</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3476,17 +3058,11 @@
         <v>-12573.81696716106</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>3050</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3515,17 +3091,11 @@
         <v>-10564.48406716106</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>3049</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3554,17 +3124,11 @@
         <v>-10592.41406716106</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>3054</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3593,17 +3157,11 @@
         <v>-7786.277167161064</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>3040</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3632,17 +3190,11 @@
         <v>-7993.919567161064</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>3042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3671,17 +3223,11 @@
         <v>-8175.196467161064</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>3024</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3710,17 +3256,11 @@
         <v>-8175.196467161064</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>3020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3749,17 +3289,11 @@
         <v>-8281.196467161064</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>3020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3788,17 +3322,11 @@
         <v>-8281.196467161064</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>3018</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3827,17 +3355,11 @@
         <v>-8281.196467161064</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>3018</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3866,17 +3388,11 @@
         <v>-8549.340867161063</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>3018</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3905,17 +3421,11 @@
         <v>-8868.693167161064</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>3016</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3944,17 +3454,11 @@
         <v>-9467.693167161064</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>3008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3983,17 +3487,11 @@
         <v>-9467.693167161064</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4022,17 +3520,11 @@
         <v>-9467.693167161064</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>3007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4061,17 +3553,11 @@
         <v>-9467.693167161064</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>3007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4100,17 +3586,11 @@
         <v>-9467.693167161064</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>3007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4139,17 +3619,11 @@
         <v>-9467.693167161064</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>3007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4178,17 +3652,11 @@
         <v>-9417.693167161064</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>3007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4225,7 +3693,7 @@
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L100" t="n">
@@ -4451,9 +3919,11 @@
         <v>-10242.16416716107</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>3018</v>
+      </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
@@ -4488,9 +3958,11 @@
         <v>-10241.16416716107</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>3007</v>
+      </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
@@ -5191,11 +4663,9 @@
         <v>-9400.873167161064</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>3008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
@@ -5230,11 +4700,9 @@
         <v>-9405.801967161064</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>3008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
@@ -5269,11 +4737,9 @@
         <v>-9065.604767161063</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>3007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
@@ -5308,11 +4774,9 @@
         <v>-9065.604767161063</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>3008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
@@ -5347,11 +4811,9 @@
         <v>-9024.312767161064</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>3008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
@@ -5386,11 +4848,9 @@
         <v>-9024.312767161064</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>3009</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
@@ -5425,11 +4885,9 @@
         <v>-9004.312767161064</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>3009</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -5464,11 +4922,9 @@
         <v>-8380.967067161064</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>3014</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
@@ -5836,11 +5292,9 @@
         <v>-9041.510467161064</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>3023</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
@@ -5912,11 +5366,9 @@
         <v>-9049.510467161064</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>3015</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
@@ -5951,11 +5403,9 @@
         <v>-9052.510467161064</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>3025</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
@@ -5990,11 +5440,9 @@
         <v>-8845.096467161064</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>3016</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
@@ -6029,11 +5477,9 @@
         <v>-8656.849967161064</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>3023</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
@@ -6142,18 +5588,16 @@
         <v>-6685.223967161065</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
@@ -6179,15 +5623,11 @@
         <v>-6630.223967161065</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6216,15 +5656,11 @@
         <v>-6703.518467161065</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6253,15 +5689,11 @@
         <v>-6566.163467161065</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6290,15 +5722,11 @@
         <v>-3415.586267161065</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6327,15 +5755,11 @@
         <v>-3698.759367161065</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6364,15 +5788,11 @@
         <v>-3546.512667161065</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6401,15 +5821,11 @@
         <v>-2996.367367161065</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6438,15 +5854,11 @@
         <v>-3026.280467161065</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6475,15 +5887,11 @@
         <v>-3649.650067161065</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6512,15 +5920,11 @@
         <v>-3560.893267161065</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6549,15 +5953,11 @@
         <v>-5660.124267161065</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6590,11 +5990,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6627,11 +6023,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6664,11 +6056,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6701,11 +6089,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6738,11 +6122,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6775,11 +6155,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6812,11 +6188,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6849,11 +6221,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6886,11 +6254,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6923,11 +6287,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6960,11 +6320,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6997,11 +6353,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7034,11 +6386,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7071,11 +6419,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7108,11 +6452,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7141,17 +6481,11 @@
         <v>410.4141328389344</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>3081</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7180,17 +6514,11 @@
         <v>732.1765328389345</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>3091</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7223,11 +6551,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7260,11 +6584,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7297,11 +6617,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7334,11 +6650,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7371,11 +6683,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7408,11 +6716,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7445,11 +6749,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7482,11 +6782,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7519,11 +6815,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7556,11 +6848,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7593,11 +6881,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7630,11 +6914,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7667,11 +6947,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7704,11 +6980,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7741,11 +7013,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7778,11 +7046,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7815,11 +7079,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7852,11 +7112,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7889,11 +7145,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7926,11 +7178,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7963,11 +7211,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8000,11 +7244,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8037,11 +7277,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8074,11 +7310,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8111,11 +7343,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8148,11 +7376,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8185,11 +7409,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8222,11 +7442,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8259,11 +7475,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8296,11 +7508,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8333,11 +7541,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8370,11 +7574,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8407,11 +7607,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8444,11 +7640,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8481,11 +7673,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8518,11 +7706,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8555,11 +7739,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8592,11 +7772,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8629,11 +7805,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8662,16 +7834,14 @@
         <v>33427.2195085852</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
       <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
@@ -8862,7 +8032,7 @@
         <v>43230.6681085852</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8928,7 +8098,7 @@
         <v>44083.94668340467</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8961,7 +8131,7 @@
         <v>41824.10928340467</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8994,7 +8164,7 @@
         <v>41824.10928340467</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -9027,7 +8197,7 @@
         <v>41776.78678340467</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -9060,7 +8230,7 @@
         <v>41776.78678340467</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -9093,7 +8263,7 @@
         <v>39612.27888340467</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -9126,7 +8296,7 @@
         <v>42242.22628340467</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9159,7 +8329,7 @@
         <v>41995.65548340467</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9192,7 +8362,7 @@
         <v>40555.47038340467</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9225,7 +8395,7 @@
         <v>43456.94268340467</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9258,7 +8428,7 @@
         <v>40261.33868340467</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9291,7 +8461,7 @@
         <v>40263.21718340467</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9324,7 +8494,7 @@
         <v>40141.06158340467</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9357,7 +8527,7 @@
         <v>39485.90908340467</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9390,7 +8560,7 @@
         <v>36271.35278340467</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9423,7 +8593,7 @@
         <v>35826.49598340467</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9456,7 +8626,7 @@
         <v>35826.49598340467</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9489,7 +8659,7 @@
         <v>34816.60418340467</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9522,7 +8692,7 @@
         <v>38451.65958340467</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9555,7 +8725,7 @@
         <v>34730.36988340467</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9588,7 +8758,7 @@
         <v>35230.36988340467</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9621,7 +8791,7 @@
         <v>35282.66978789368</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9654,7 +8824,7 @@
         <v>35207.58868789368</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9687,7 +8857,7 @@
         <v>38094.43518789368</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9720,7 +8890,7 @@
         <v>38094.43518789368</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9753,7 +8923,7 @@
         <v>38601.16918789368</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9786,7 +8956,7 @@
         <v>36050.63398789368</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9819,7 +8989,7 @@
         <v>36050.63398789368</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9852,7 +9022,7 @@
         <v>36618.13188789368</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9885,7 +9055,7 @@
         <v>31901.60198789368</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9918,7 +9088,7 @@
         <v>31901.60198789368</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9951,7 +9121,7 @@
         <v>31901.60198789368</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9984,7 +9154,7 @@
         <v>31901.60198789368</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10116,7 +9286,7 @@
         <v>32019.67470190642</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10182,7 +9352,7 @@
         <v>32194.09638789368</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10545,7 +9715,7 @@
         <v>36658.28168789368</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10578,7 +9748,7 @@
         <v>39516.21168789368</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10611,7 +9781,7 @@
         <v>36394.02938789368</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10644,7 +9814,7 @@
         <v>33138.69788789368</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10677,7 +9847,7 @@
         <v>29694.98748789368</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10710,7 +9880,7 @@
         <v>29553.30948789368</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10743,7 +9913,7 @@
         <v>29550.46398789368</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10776,7 +9946,7 @@
         <v>29580.46398789368</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10809,7 +9979,7 @@
         <v>29104.06258789368</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10842,7 +10012,7 @@
         <v>30104.06258789368</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10875,7 +10045,7 @@
         <v>29098.73768789368</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10908,7 +10078,7 @@
         <v>29098.73768789368</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10941,7 +10111,7 @@
         <v>27462.43438789368</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10974,7 +10144,7 @@
         <v>27486.20988789368</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11007,7 +10177,7 @@
         <v>26091.17728789368</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11040,7 +10210,7 @@
         <v>26091.17728789368</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11073,7 +10243,7 @@
         <v>27212.98598789368</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11106,7 +10276,7 @@
         <v>27212.98598789368</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11139,7 +10309,7 @@
         <v>27212.98598789368</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11172,7 +10342,7 @@
         <v>27558.98598789368</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11205,7 +10375,7 @@
         <v>27646.04118789368</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11238,7 +10408,7 @@
         <v>28045.93228789368</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11271,7 +10441,7 @@
         <v>28167.20438789368</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11304,7 +10474,7 @@
         <v>28165.89138789368</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11337,7 +10507,7 @@
         <v>28145.70928789368</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11370,7 +10540,7 @@
         <v>28046.89848789368</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11733,7 +10903,7 @@
         <v>28582.12808789368</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11766,7 +10936,7 @@
         <v>28458.18308789368</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11799,7 +10969,7 @@
         <v>28198.28448789368</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11832,7 +11002,7 @@
         <v>26871.83318789368</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11865,7 +11035,7 @@
         <v>24527.77868789368</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11898,7 +11068,7 @@
         <v>24332.44078789368</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11931,7 +11101,7 @@
         <v>24372.88380966065</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11964,7 +11134,7 @@
         <v>24312.78760966065</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11997,7 +11167,7 @@
         <v>24402.81640966065</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12096,7 +11266,7 @@
         <v>22682.82160966065</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12129,7 +11299,7 @@
         <v>22385.78690966065</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12690,7 +11860,7 @@
         <v>24885.77984373005</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12723,7 +11893,7 @@
         <v>24506.48284373005</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12756,7 +11926,7 @@
         <v>24893.68364373005</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12789,7 +11959,7 @@
         <v>24893.68364373005</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12822,7 +11992,7 @@
         <v>24847.24174373005</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12855,7 +12025,7 @@
         <v>25780.10584373005</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12888,7 +12058,7 @@
         <v>24762.87304373004</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12921,7 +12091,7 @@
         <v>25078.63174373004</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12954,7 +12124,7 @@
         <v>25078.73174373004</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12987,7 +12157,7 @@
         <v>26045.52244373004</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13020,7 +12190,7 @@
         <v>26164.34144373004</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13053,7 +12223,7 @@
         <v>26164.34144373004</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13086,7 +12256,7 @@
         <v>26539.12634373004</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13119,7 +12289,7 @@
         <v>24709.79444373004</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13152,7 +12322,7 @@
         <v>24890.11704373004</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13185,7 +12355,7 @@
         <v>24600.09004373004</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13218,7 +12388,7 @@
         <v>24600.09004373004</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13251,7 +12421,7 @@
         <v>23602.69834373004</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13284,7 +12454,7 @@
         <v>23273.06174373004</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13317,7 +12487,7 @@
         <v>23441.69494373004</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13350,7 +12520,7 @@
         <v>23441.69494373004</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13383,7 +12553,7 @@
         <v>21837.80544373004</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13416,7 +12586,7 @@
         <v>22014.56534373004</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13449,7 +12619,7 @@
         <v>22836.30374373004</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13482,7 +12652,7 @@
         <v>22841.30084373004</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13515,7 +12685,7 @@
         <v>22710.63724373004</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13548,7 +12718,7 @@
         <v>22891.63324373004</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13581,7 +12751,7 @@
         <v>24444.52174373004</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13614,7 +12784,7 @@
         <v>24384.84214373004</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13647,7 +12817,7 @@
         <v>25151.62294373004</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13680,7 +12850,7 @@
         <v>27786.76984373004</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13713,7 +12883,7 @@
         <v>27786.76984373004</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13746,7 +12916,7 @@
         <v>30003.42514373004</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13779,7 +12949,7 @@
         <v>30003.42514373004</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13812,7 +12982,7 @@
         <v>38293.31831528365</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13845,7 +13015,7 @@
         <v>39114.62291528365</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13878,7 +13048,7 @@
         <v>37919.70821528365</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13911,7 +13081,7 @@
         <v>36915.53051528365</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13944,7 +13114,7 @@
         <v>36919.53051528365</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13977,7 +13147,7 @@
         <v>36919.53051528365</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14010,7 +13180,7 @@
         <v>37058.39731528366</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14043,7 +13213,7 @@
         <v>37765.57931528366</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14076,7 +13246,7 @@
         <v>38651.29711528365</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14109,7 +13279,7 @@
         <v>40830.79391528366</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14142,7 +13312,7 @@
         <v>38567.98131528366</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14175,7 +13345,7 @@
         <v>38608.72231528366</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14208,7 +13378,7 @@
         <v>41701.94861528366</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14241,7 +13411,7 @@
         <v>41401.94861528366</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14274,7 +13444,7 @@
         <v>41434.02091528366</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14307,7 +13477,7 @@
         <v>41434.02091528366</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14340,7 +13510,7 @@
         <v>41434.02091528366</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14373,7 +13543,7 @@
         <v>41674.61571528366</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14406,7 +13576,7 @@
         <v>41610.01571528366</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14439,7 +13609,7 @@
         <v>41114.08221528366</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14472,7 +13642,7 @@
         <v>41271.17661528366</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14505,7 +13675,7 @@
         <v>40314.47011528366</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14538,7 +13708,7 @@
         <v>40958.22321528367</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14571,7 +13741,7 @@
         <v>40958.22321528367</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14604,7 +13774,7 @@
         <v>40958.33321528367</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14637,7 +13807,7 @@
         <v>39050.47021528367</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14670,7 +13840,7 @@
         <v>39050.47021528367</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14703,7 +13873,7 @@
         <v>38854.34641528367</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14736,7 +13906,7 @@
         <v>40013.49051528367</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14769,7 +13939,7 @@
         <v>40013.76531528366</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14802,7 +13972,7 @@
         <v>41705.36460384166</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14835,7 +14005,7 @@
         <v>41676.49608425597</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15165,7 +14335,7 @@
         <v>33628.49848425597</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15462,7 +14632,7 @@
         <v>33251.10462362605</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15561,7 +14731,7 @@
         <v>31980.00082362605</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15594,7 +14764,7 @@
         <v>28128.37312362605</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15627,7 +14797,7 @@
         <v>20831.98052362605</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15660,7 +14830,7 @@
         <v>20326.52152362606</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15693,7 +14863,7 @@
         <v>19119.33952362605</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15726,7 +14896,7 @@
         <v>20154.08202362606</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15759,7 +14929,7 @@
         <v>20154.55192362606</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15792,7 +14962,7 @@
         <v>20153.61032362606</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15825,7 +14995,7 @@
         <v>20153.61032362606</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15858,7 +15028,7 @@
         <v>19902.34702362606</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15891,7 +15061,7 @@
         <v>19335.35012362606</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15924,7 +15094,7 @@
         <v>15298.86562362606</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15957,7 +15127,7 @@
         <v>15298.86562362606</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15990,7 +15160,7 @@
         <v>15298.86562362606</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16023,7 +15193,7 @@
         <v>15302.61592362606</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16056,7 +15226,7 @@
         <v>16854.35162362606</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16089,7 +15259,7 @@
         <v>16289.17192362606</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16122,7 +15292,7 @@
         <v>16289.17192362606</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16155,7 +15325,7 @@
         <v>16289.17192362606</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16188,7 +15358,7 @@
         <v>9894.163223626058</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16221,7 +15391,7 @@
         <v>10482.60631939069</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16254,7 +15424,7 @@
         <v>4.330919390686176</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16287,7 +15457,7 @@
         <v>-2130.985880609314</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16320,7 +15490,7 @@
         <v>-6252.495980609314</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16353,7 +15523,7 @@
         <v>-5328.099680609314</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -22920,7 +22090,7 @@
         <v>18684.6702142026</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -22953,7 +22123,7 @@
         <v>20084.06515800735</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -22986,7 +22156,7 @@
         <v>34184.28186591856</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -23019,7 +22189,7 @@
         <v>34442.42956591856</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -23052,7 +22222,7 @@
         <v>34765.08976591856</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -23085,7 +22255,7 @@
         <v>32471.38456591856</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -23118,7 +22288,7 @@
         <v>31266.38456591856</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -23151,7 +22321,7 @@
         <v>29074.12186591856</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -23184,7 +22354,7 @@
         <v>30184.35606591856</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -23217,7 +22387,7 @@
         <v>30184.35606591856</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -23250,7 +22420,7 @@
         <v>30473.52156591856</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23283,7 +22453,7 @@
         <v>30473.52156591856</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23316,7 +22486,7 @@
         <v>30252.75336591856</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -23349,7 +22519,7 @@
         <v>30136.09696591856</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -23382,7 +22552,7 @@
         <v>30136.09696591856</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -23415,7 +22585,7 @@
         <v>30226.76046591856</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -23448,7 +22618,7 @@
         <v>29095.98846591856</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -23481,7 +22651,7 @@
         <v>29095.98846591856</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -23514,7 +22684,7 @@
         <v>29095.98846591856</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -23547,7 +22717,7 @@
         <v>29520.98846591856</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -23580,7 +22750,7 @@
         <v>27595.51816591855</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -23613,7 +22783,7 @@
         <v>27536.87316591855</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -23646,7 +22816,7 @@
         <v>27536.87316591855</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -23679,7 +22849,7 @@
         <v>22678.11256591856</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -23712,7 +22882,7 @@
         <v>22677.11256591856</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -23745,7 +22915,7 @@
         <v>22597.51906591856</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -23778,7 +22948,7 @@
         <v>22683.24956591856</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -23811,7 +22981,7 @@
         <v>22683.24956591856</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -23844,7 +23014,7 @@
         <v>22960.09896591856</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -23877,7 +23047,7 @@
         <v>22958.79626591856</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -23910,7 +23080,7 @@
         <v>22960.79604705478</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -23943,7 +23113,7 @@
         <v>21449.68865446219</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -23976,7 +23146,7 @@
         <v>21150.07735446219</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -24009,7 +23179,7 @@
         <v>21151.07735446219</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -24075,7 +23245,7 @@
         <v>21287.36216742922</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -24108,7 +23278,7 @@
         <v>21212.74826742922</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -24141,7 +23311,7 @@
         <v>20902.62336742922</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -24207,7 +23377,7 @@
         <v>21486.27387198181</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -24240,7 +23410,7 @@
         <v>21603.24457198181</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -24273,7 +23443,7 @@
         <v>21603.24457198181</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -24306,7 +23476,7 @@
         <v>21603.24457198181</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -24339,7 +23509,7 @@
         <v>21603.24457198181</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -24372,7 +23542,7 @@
         <v>21603.24457198181</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -24405,7 +23575,7 @@
         <v>21611.53297198181</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -24438,7 +23608,7 @@
         <v>22639.29779456246</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -24471,7 +23641,7 @@
         <v>21790.59369456246</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -24504,7 +23674,7 @@
         <v>21771.80249456246</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -24537,7 +23707,7 @@
         <v>21771.80249456246</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -24570,7 +23740,7 @@
         <v>21672.66439456246</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -24603,7 +23773,7 @@
         <v>21672.66439456246</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -24636,7 +23806,7 @@
         <v>22027.31999456246</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -24669,7 +23839,7 @@
         <v>22027.31999456246</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -24702,7 +23872,7 @@
         <v>22027.31999456246</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -24735,7 +23905,7 @@
         <v>22257.31029456246</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -24768,7 +23938,7 @@
         <v>22809.73209456246</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -24779,6 +23949,6 @@
       <c r="M707" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-24 BackTest LINK.xlsx
+++ b/BackTest/2019-10-24 BackTest LINK.xlsx
@@ -451,7 +451,7 @@
         <v>-4437.963579853236</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-7067.271879853237</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,11 +517,17 @@
         <v>-9597.879279853238</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3029</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +556,17 @@
         <v>-9584.879279853238</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3020</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +595,17 @@
         <v>-9333.126779853237</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3033</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +634,17 @@
         <v>-9333.126779853237</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3040</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -653,7 +677,11 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +710,17 @@
         <v>-9315.639979853238</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3036</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -719,7 +753,11 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +786,15 @@
         <v>-9612.089979853239</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +823,15 @@
         <v>-9612.089979853239</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +860,17 @@
         <v>-11018.34577985324</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3040</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +899,15 @@
         <v>-12440.67807985324</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +936,17 @@
         <v>-12439.92807985324</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3022</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +975,17 @@
         <v>-12330.21427985324</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3026</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,7 +1018,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1055,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1088,17 @@
         <v>-12954.02077985324</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3022</v>
+      </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1127,17 @@
         <v>-12954.02077985324</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3018</v>
+      </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1166,17 @@
         <v>-12920.59527985324</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3018</v>
+      </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1205,17 @@
         <v>-12920.59527985324</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3019</v>
+      </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1244,17 @@
         <v>-12920.59527985324</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3019</v>
+      </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1283,17 @@
         <v>-12920.59527985324</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3019</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1322,17 @@
         <v>-13298.02557985324</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3019</v>
+      </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1361,17 @@
         <v>-15778.24817985324</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3007</v>
+      </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1400,17 @@
         <v>-15907.03847985324</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3000</v>
+      </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1439,17 @@
         <v>-15906.03847985324</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2984</v>
+      </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1478,17 @@
         <v>-15907.03847985324</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3016</v>
+      </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1517,17 @@
         <v>-15896.37927985324</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3005</v>
+      </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1556,17 @@
         <v>-15885.98167985324</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3018</v>
+      </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1595,17 @@
         <v>-15885.88167985324</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3020</v>
+      </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1634,17 @@
         <v>-15885.88167985324</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3035</v>
+      </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1673,17 @@
         <v>-15885.88167985324</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3035</v>
+      </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1712,17 @@
         <v>-17734.90567985324</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3035</v>
+      </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1751,17 @@
         <v>-18135.50597985324</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3023</v>
+      </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1790,17 @@
         <v>-18121.87037985324</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3022</v>
+      </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1829,17 @@
         <v>-17978.13407985324</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3031</v>
+      </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1868,17 @@
         <v>-19354.45057985324</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3059</v>
+      </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1907,17 @@
         <v>-19144.01147985324</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3057</v>
+      </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1946,17 @@
         <v>-16322.44937985324</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3068</v>
+      </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1985,15 @@
         <v>-11978.43657985324</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +2022,15 @@
         <v>-10837.33827985324</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +2059,15 @@
         <v>-10632.85537985324</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +2096,15 @@
         <v>-9634.628479853242</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2133,15 @@
         <v>-10428.17867985324</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2170,15 @@
         <v>-11051.97597985324</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2207,15 @@
         <v>-10582.78607985324</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2244,15 @@
         <v>-7316.148379853242</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2285,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2322,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2359,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2396,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2433,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2470,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2507,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2544,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2581,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2618,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2655,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2692,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2729,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2766,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2803,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2840,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2877,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2914,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2951,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2988,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +3021,15 @@
         <v>-13423.65036716106</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +3058,15 @@
         <v>-13316.65046716106</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +3095,15 @@
         <v>-13660.00416716106</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +3132,15 @@
         <v>-13660.00416716106</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2827,11 +3169,15 @@
         <v>-13660.00416716106</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2860,11 +3206,15 @@
         <v>-13637.40056716106</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2893,11 +3243,15 @@
         <v>-13137.40056716106</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +3280,15 @@
         <v>-13139.37806716106</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2959,11 +3317,15 @@
         <v>-12739.37806716106</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2992,11 +3354,15 @@
         <v>-12530.75406716106</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +3391,15 @@
         <v>-12552.25716716106</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3428,15 @@
         <v>-12573.81696716106</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +3465,15 @@
         <v>-10564.48406716106</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3502,15 @@
         <v>-10592.41406716106</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,7 +3543,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3194,7 +3580,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +3617,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3654,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3691,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3728,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3765,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3802,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3425,7 +3839,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +3876,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +3913,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3524,7 +3950,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3557,7 +3987,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3590,7 +4024,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3623,7 +4061,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3656,7 +4098,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,15 +4131,13 @@
         <v>-10417.69316716106</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>3008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L100" t="n">
@@ -3724,11 +4168,9 @@
         <v>-10085.24636716106</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>3000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
@@ -3763,11 +4205,9 @@
         <v>-10185.13036716106</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>3003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
@@ -3802,11 +4242,9 @@
         <v>-10185.13036716106</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>3002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
@@ -3841,11 +4279,9 @@
         <v>-10184.13036716106</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>3002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
@@ -3880,11 +4316,9 @@
         <v>-10111.75066716106</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>3017</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
@@ -3919,11 +4353,9 @@
         <v>-10242.16416716107</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>3018</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
@@ -3958,11 +4390,9 @@
         <v>-10241.16416716107</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>3007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
@@ -5366,9 +5796,11 @@
         <v>-9049.510467161064</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>3015</v>
+      </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
@@ -5403,9 +5835,11 @@
         <v>-9052.510467161064</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>3025</v>
+      </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
@@ -5440,9 +5874,11 @@
         <v>-8845.096467161064</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>3016</v>
+      </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
@@ -5477,9 +5913,11 @@
         <v>-8656.849967161064</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>3023</v>
+      </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
@@ -5588,16 +6026,18 @@
         <v>-6685.223967161065</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
       <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
@@ -5623,11 +6063,15 @@
         <v>-6630.223967161065</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5656,11 +6100,15 @@
         <v>-6703.518467161065</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5689,11 +6137,15 @@
         <v>-6566.163467161065</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5722,11 +6174,15 @@
         <v>-3415.586267161065</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5755,11 +6211,15 @@
         <v>-3698.759367161065</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5788,11 +6248,15 @@
         <v>-3546.512667161065</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5821,11 +6285,15 @@
         <v>-2996.367367161065</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5854,11 +6322,15 @@
         <v>-3026.280467161065</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5887,11 +6359,15 @@
         <v>-3649.650067161065</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5920,11 +6396,15 @@
         <v>-3560.893267161065</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5953,11 +6433,15 @@
         <v>-5660.124267161065</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5990,7 +6474,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6023,7 +6511,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6056,7 +6548,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6089,7 +6585,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6122,7 +6622,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6155,7 +6659,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6188,7 +6696,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6221,7 +6733,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6254,7 +6770,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6287,7 +6807,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6320,7 +6844,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6353,7 +6881,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6386,7 +6918,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6419,7 +6955,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6452,7 +6992,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6485,7 +7029,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6518,7 +7066,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6551,7 +7103,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6584,7 +7140,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6617,7 +7177,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6650,7 +7214,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6683,7 +7251,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6716,7 +7288,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6749,7 +7325,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6782,7 +7362,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6815,7 +7399,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6848,7 +7436,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6881,7 +7473,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6914,7 +7510,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6947,7 +7547,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6980,7 +7584,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7013,7 +7621,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7046,7 +7658,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7079,7 +7695,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7112,7 +7732,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7145,7 +7769,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7178,7 +7806,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7211,7 +7843,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7244,7 +7880,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7277,7 +7917,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7310,7 +7954,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7343,7 +7991,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7376,7 +8028,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7409,7 +8065,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7442,7 +8102,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7475,7 +8139,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7508,7 +8176,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7541,7 +8213,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7574,7 +8250,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7607,7 +8287,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7636,14 +8320,16 @@
         <v>40476.1638085852</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
@@ -7669,7 +8355,7 @@
         <v>38061.5154085852</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7702,7 +8388,7 @@
         <v>37424.8965085852</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7735,7 +8421,7 @@
         <v>37148.69900858519</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7768,7 +8454,7 @@
         <v>35713.1989085852</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7801,7 +8487,7 @@
         <v>34349.7749085852</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7834,7 +8520,7 @@
         <v>33427.2195085852</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7867,7 +8553,7 @@
         <v>33302.0512085852</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7900,7 +8586,7 @@
         <v>33302.0512085852</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7933,7 +8619,7 @@
         <v>33302.0512085852</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7966,7 +8652,7 @@
         <v>33426.0512085852</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7999,7 +8685,7 @@
         <v>41923.21290858521</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8032,7 +8718,7 @@
         <v>43230.6681085852</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8065,7 +8751,7 @@
         <v>44241.92768340467</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8098,7 +8784,7 @@
         <v>44083.94668340467</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8131,7 +8817,7 @@
         <v>41824.10928340467</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8164,7 +8850,7 @@
         <v>41824.10928340467</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8197,7 +8883,7 @@
         <v>41776.78678340467</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8230,7 +8916,7 @@
         <v>41776.78678340467</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8263,7 +8949,7 @@
         <v>39612.27888340467</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8296,7 +8982,7 @@
         <v>42242.22628340467</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8329,7 +9015,7 @@
         <v>41995.65548340467</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8362,7 +9048,7 @@
         <v>40555.47038340467</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8395,7 +9081,7 @@
         <v>43456.94268340467</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8428,7 +9114,7 @@
         <v>40261.33868340467</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8461,7 +9147,7 @@
         <v>40263.21718340467</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -12949,7 +13635,7 @@
         <v>30003.42514373004</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12982,7 +13668,7 @@
         <v>38293.31831528365</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13015,7 +13701,7 @@
         <v>39114.62291528365</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13048,7 +13734,7 @@
         <v>37919.70821528365</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13081,7 +13767,7 @@
         <v>36915.53051528365</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13147,7 +13833,7 @@
         <v>36919.53051528365</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13180,7 +13866,7 @@
         <v>37058.39731528366</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13213,7 +13899,7 @@
         <v>37765.57931528366</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13246,7 +13932,7 @@
         <v>38651.29711528365</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13279,7 +13965,7 @@
         <v>40830.79391528366</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13312,7 +13998,7 @@
         <v>38567.98131528366</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13345,7 +14031,7 @@
         <v>38608.72231528366</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13378,7 +14064,7 @@
         <v>41701.94861528366</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13411,7 +14097,7 @@
         <v>41401.94861528366</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13444,7 +14130,7 @@
         <v>41434.02091528366</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13477,7 +14163,7 @@
         <v>41434.02091528366</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13510,7 +14196,7 @@
         <v>41434.02091528366</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13543,7 +14229,7 @@
         <v>41674.61571528366</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13576,7 +14262,7 @@
         <v>41610.01571528366</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13609,7 +14295,7 @@
         <v>41114.08221528366</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13642,7 +14328,7 @@
         <v>41271.17661528366</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13675,7 +14361,7 @@
         <v>40314.47011528366</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13708,7 +14394,7 @@
         <v>40958.22321528367</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13741,7 +14427,7 @@
         <v>40958.22321528367</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13774,7 +14460,7 @@
         <v>40958.33321528367</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13807,7 +14493,7 @@
         <v>39050.47021528367</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13840,7 +14526,7 @@
         <v>39050.47021528367</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13873,7 +14559,7 @@
         <v>38854.34641528367</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13906,7 +14592,7 @@
         <v>40013.49051528367</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13939,7 +14625,7 @@
         <v>40013.76531528366</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13972,7 +14658,7 @@
         <v>41705.36460384166</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14005,7 +14691,7 @@
         <v>41676.49608425597</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14038,7 +14724,7 @@
         <v>40442.34568425597</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14071,7 +14757,7 @@
         <v>39638.84328425597</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14104,7 +14790,7 @@
         <v>39138.64638425597</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14137,7 +14823,7 @@
         <v>39121.56078425597</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14170,7 +14856,7 @@
         <v>39145.33738425597</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14203,7 +14889,7 @@
         <v>38383.76038425597</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14236,7 +14922,7 @@
         <v>39683.52748425597</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14269,7 +14955,7 @@
         <v>36565.91968425597</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14302,7 +14988,7 @@
         <v>33628.49848425597</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
